--- a/MiddleAssignment_LeTuanSang/TestDesign4/TestDesign4_LeTuanSang.xlsx
+++ b/MiddleAssignment_LeTuanSang/TestDesign4/TestDesign4_LeTuanSang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NashTechHomeWork_LeTuanSang\MiddleAssignment_LeTuanSang\TestDesign4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F6F60F-1689-4E92-B5F1-A627B80788EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEAFAAD-0041-415F-B8D1-01C457169FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,7 +482,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="246">
   <si>
     <r>
       <rPr>
@@ -1203,9 +1203,6 @@
   </si>
   <si>
     <t xml:space="preserve">Check that show error message if input invalid data </t>
-  </si>
-  <si>
-    <t>need check: message displaed when lose focus or need to click on Save button?</t>
   </si>
   <si>
     <t>Check if X button show up when input data and can click to clear data</t>
@@ -2751,129 +2748,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="8" borderId="5" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="8" borderId="15" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="4" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="8" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="3" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="56" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="54" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="14" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="11" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="41" fillId="5" borderId="11" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2927,6 +2801,129 @@
     </xf>
     <xf numFmtId="0" fontId="65" fillId="16" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="14" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="56" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="54" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="3" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="8" borderId="5" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="8" borderId="15" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="4" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="8" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -5124,37 +5121,37 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="202" t="s">
+      <c r="A4" s="222" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="202"/>
-      <c r="C4" s="202"/>
-      <c r="D4" s="202"/>
-      <c r="E4" s="202"/>
+      <c r="B4" s="222"/>
+      <c r="C4" s="222"/>
+      <c r="D4" s="222"/>
+      <c r="E4" s="222"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A5" s="203" t="s">
+      <c r="A5" s="223" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="203"/>
-      <c r="C5" s="204" t="s">
+      <c r="B5" s="223"/>
+      <c r="C5" s="224" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="204"/>
-      <c r="E5" s="204"/>
+      <c r="D5" s="224"/>
+      <c r="E5" s="224"/>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A6" s="205" t="s">
+      <c r="A6" s="225" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="205"/>
-      <c r="C6" s="201" t="s">
+      <c r="B6" s="225"/>
+      <c r="C6" s="221" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
+      <c r="D6" s="221"/>
+      <c r="E6" s="221"/>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" customHeight="1">
@@ -5166,14 +5163,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" s="9" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A8" s="200" t="s">
+      <c r="A8" s="220" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="200"/>
-      <c r="C8" s="200"/>
-      <c r="D8" s="200"/>
-      <c r="E8" s="200"/>
-      <c r="F8" s="200"/>
+      <c r="B8" s="220"/>
+      <c r="C8" s="220"/>
+      <c r="D8" s="220"/>
+      <c r="E8" s="220"/>
+      <c r="F8" s="220"/>
     </row>
     <row r="9" spans="1:6" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="10" t="s">
@@ -5256,14 +5253,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="201" t="s">
+      <c r="A13" s="221" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="201"/>
-      <c r="C13" s="201"/>
-      <c r="D13" s="201"/>
-      <c r="E13" s="201"/>
-      <c r="F13" s="201"/>
+      <c r="B13" s="221"/>
+      <c r="C13" s="221"/>
+      <c r="D13" s="221"/>
+      <c r="E13" s="221"/>
+      <c r="F13" s="221"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6"/>
@@ -5386,36 +5383,36 @@
       <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" customHeight="1">
-      <c r="B2" s="210" t="s">
+      <c r="B2" s="226" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="211" t="s">
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="226"/>
+      <c r="H2" s="226"/>
+      <c r="I2" s="226"/>
+      <c r="J2" s="227" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="211"/>
+      <c r="K2" s="227"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" customHeight="1">
-      <c r="B3" s="212" t="s">
+      <c r="B3" s="228" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="213" t="s">
+      <c r="C3" s="228"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="228"/>
+      <c r="F3" s="229" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="213"/>
-      <c r="H3" s="213"/>
-      <c r="I3" s="213"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="229"/>
+      <c r="J3" s="227"/>
+      <c r="K3" s="227"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="B4" s="26"/>
@@ -5435,65 +5432,65 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A7" s="208" t="s">
+      <c r="A7" s="230" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="208"/>
-      <c r="C7" s="208"/>
-      <c r="D7" s="208"/>
-      <c r="E7" s="208"/>
-      <c r="F7" s="208"/>
-      <c r="G7" s="208"/>
-      <c r="H7" s="208"/>
-      <c r="I7" s="208"/>
+      <c r="B7" s="230"/>
+      <c r="C7" s="230"/>
+      <c r="D7" s="230"/>
+      <c r="E7" s="230"/>
+      <c r="F7" s="230"/>
+      <c r="G7" s="230"/>
+      <c r="H7" s="230"/>
+      <c r="I7" s="230"/>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A8" s="208"/>
-      <c r="B8" s="208"/>
-      <c r="C8" s="208"/>
-      <c r="D8" s="208"/>
-      <c r="E8" s="208"/>
-      <c r="F8" s="208"/>
-      <c r="G8" s="208"/>
-      <c r="H8" s="208"/>
-      <c r="I8" s="208"/>
+      <c r="A8" s="230"/>
+      <c r="B8" s="230"/>
+      <c r="C8" s="230"/>
+      <c r="D8" s="230"/>
+      <c r="E8" s="230"/>
+      <c r="F8" s="230"/>
+      <c r="G8" s="230"/>
+      <c r="H8" s="230"/>
+      <c r="I8" s="230"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A9" s="208" t="s">
+      <c r="A9" s="230" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="208"/>
-      <c r="C9" s="208"/>
-      <c r="D9" s="208"/>
-      <c r="E9" s="208"/>
-      <c r="F9" s="208"/>
-      <c r="G9" s="208"/>
-      <c r="H9" s="208"/>
-      <c r="I9" s="208"/>
+      <c r="B9" s="230"/>
+      <c r="C9" s="230"/>
+      <c r="D9" s="230"/>
+      <c r="E9" s="230"/>
+      <c r="F9" s="230"/>
+      <c r="G9" s="230"/>
+      <c r="H9" s="230"/>
+      <c r="I9" s="230"/>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
-      <c r="A10" s="208"/>
-      <c r="B10" s="208"/>
-      <c r="C10" s="208"/>
-      <c r="D10" s="208"/>
-      <c r="E10" s="208"/>
-      <c r="F10" s="208"/>
-      <c r="G10" s="208"/>
-      <c r="H10" s="208"/>
-      <c r="I10" s="208"/>
+      <c r="A10" s="230"/>
+      <c r="B10" s="230"/>
+      <c r="C10" s="230"/>
+      <c r="D10" s="230"/>
+      <c r="E10" s="230"/>
+      <c r="F10" s="230"/>
+      <c r="G10" s="230"/>
+      <c r="H10" s="230"/>
+      <c r="I10" s="230"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="209" t="s">
+      <c r="A11" s="231" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="209"/>
-      <c r="C11" s="209"/>
-      <c r="D11" s="209"/>
-      <c r="E11" s="209"/>
-      <c r="F11" s="209"/>
-      <c r="G11" s="209"/>
-      <c r="H11" s="209"/>
-      <c r="I11" s="209"/>
+      <c r="B11" s="231"/>
+      <c r="C11" s="231"/>
+      <c r="D11" s="231"/>
+      <c r="E11" s="231"/>
+      <c r="F11" s="231"/>
+      <c r="G11" s="231"/>
+      <c r="H11" s="231"/>
+      <c r="I11" s="231"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="30"/>
@@ -5515,65 +5512,65 @@
       <c r="A14" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="206" t="s">
+      <c r="B14" s="232" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="206"/>
-      <c r="D14" s="206"/>
-      <c r="E14" s="206"/>
-      <c r="F14" s="206"/>
-      <c r="G14" s="206"/>
-      <c r="H14" s="206"/>
-      <c r="I14" s="206"/>
-      <c r="J14" s="206"/>
-      <c r="K14" s="206"/>
+      <c r="C14" s="232"/>
+      <c r="D14" s="232"/>
+      <c r="E14" s="232"/>
+      <c r="F14" s="232"/>
+      <c r="G14" s="232"/>
+      <c r="H14" s="232"/>
+      <c r="I14" s="232"/>
+      <c r="J14" s="232"/>
+      <c r="K14" s="232"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
       <c r="A15" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="206" t="s">
+      <c r="B15" s="232" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="206"/>
-      <c r="D15" s="206"/>
-      <c r="E15" s="206"/>
-      <c r="F15" s="206"/>
-      <c r="G15" s="206"/>
-      <c r="H15" s="206"/>
-      <c r="I15" s="206"/>
-      <c r="J15" s="206"/>
-      <c r="K15" s="206"/>
+      <c r="C15" s="232"/>
+      <c r="D15" s="232"/>
+      <c r="E15" s="232"/>
+      <c r="F15" s="232"/>
+      <c r="G15" s="232"/>
+      <c r="H15" s="232"/>
+      <c r="I15" s="232"/>
+      <c r="J15" s="232"/>
+      <c r="K15" s="232"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1">
       <c r="A16" s="31"/>
-      <c r="B16" s="206" t="s">
+      <c r="B16" s="232" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="206"/>
-      <c r="D16" s="206"/>
-      <c r="E16" s="206"/>
-      <c r="F16" s="206"/>
-      <c r="G16" s="206"/>
-      <c r="H16" s="206"/>
-      <c r="I16" s="206"/>
-      <c r="J16" s="206"/>
-      <c r="K16" s="206"/>
+      <c r="C16" s="232"/>
+      <c r="D16" s="232"/>
+      <c r="E16" s="232"/>
+      <c r="F16" s="232"/>
+      <c r="G16" s="232"/>
+      <c r="H16" s="232"/>
+      <c r="I16" s="232"/>
+      <c r="J16" s="232"/>
+      <c r="K16" s="232"/>
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1">
       <c r="A17" s="31"/>
-      <c r="B17" s="206" t="s">
+      <c r="B17" s="232" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="206"/>
-      <c r="D17" s="206"/>
-      <c r="E17" s="206"/>
-      <c r="F17" s="206"/>
-      <c r="G17" s="206"/>
-      <c r="H17" s="206"/>
-      <c r="I17" s="206"/>
-      <c r="J17" s="206"/>
-      <c r="K17" s="206"/>
+      <c r="C17" s="232"/>
+      <c r="D17" s="232"/>
+      <c r="E17" s="232"/>
+      <c r="F17" s="232"/>
+      <c r="G17" s="232"/>
+      <c r="H17" s="232"/>
+      <c r="I17" s="232"/>
+      <c r="J17" s="232"/>
+      <c r="K17" s="232"/>
     </row>
     <row r="19" spans="1:14" ht="23.25">
       <c r="A19" s="29" t="s">
@@ -5584,40 +5581,40 @@
       <c r="A20" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="206" t="s">
+      <c r="B20" s="232" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="206"/>
-      <c r="D20" s="206"/>
-      <c r="E20" s="206"/>
-      <c r="F20" s="206"/>
-      <c r="G20" s="206"/>
+      <c r="C20" s="232"/>
+      <c r="D20" s="232"/>
+      <c r="E20" s="232"/>
+      <c r="F20" s="232"/>
+      <c r="G20" s="232"/>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1">
       <c r="A21" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="206" t="s">
+      <c r="B21" s="232" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="206"/>
-      <c r="D21" s="206"/>
-      <c r="E21" s="206"/>
-      <c r="F21" s="206"/>
-      <c r="G21" s="206"/>
+      <c r="C21" s="232"/>
+      <c r="D21" s="232"/>
+      <c r="E21" s="232"/>
+      <c r="F21" s="232"/>
+      <c r="G21" s="232"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
       <c r="A22" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="206" t="s">
+      <c r="B22" s="232" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="206"/>
-      <c r="D22" s="206"/>
-      <c r="E22" s="206"/>
-      <c r="F22" s="206"/>
-      <c r="G22" s="206"/>
+      <c r="C22" s="232"/>
+      <c r="D22" s="232"/>
+      <c r="E22" s="232"/>
+      <c r="F22" s="232"/>
+      <c r="G22" s="232"/>
     </row>
     <row r="24" spans="1:14" ht="23.25">
       <c r="A24" s="29" t="s">
@@ -5676,11 +5673,11 @@
       <c r="N27" s="34"/>
     </row>
     <row r="29" spans="1:14" ht="21.75" customHeight="1">
-      <c r="B29" s="207" t="s">
+      <c r="B29" s="233" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="207"/>
-      <c r="D29" s="207"/>
+      <c r="C29" s="233"/>
+      <c r="D29" s="233"/>
     </row>
     <row r="30" spans="1:14" ht="90" customHeight="1">
       <c r="B30" s="35"/>
@@ -5703,21 +5700,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A9:I10"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B16:K16"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="J2:K3"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="A7:I8"/>
-    <mergeCell ref="A9:I10"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B29:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5757,14 +5754,14 @@
       <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:10" s="40" customFormat="1" ht="25.5">
-      <c r="A2" s="214" t="s">
+      <c r="A2" s="234" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="214"/>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="214"/>
+      <c r="B2" s="234"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="41"/>
@@ -5947,12 +5944,12 @@
       <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" s="23" customFormat="1" ht="26.25">
-      <c r="A2" s="215" t="s">
+      <c r="A2" s="235" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="215"/>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
+      <c r="B2" s="235"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
       <c r="E2" s="55"/>
       <c r="F2" s="56"/>
       <c r="G2" s="56"/>
@@ -6113,18 +6110,18 @@
       <c r="F14" s="62"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1">
-      <c r="A16" s="216" t="s">
+      <c r="A16" s="236" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="216"/>
+      <c r="B16" s="236"/>
       <c r="C16" s="65"/>
       <c r="D16" s="66"/>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A17" s="217" t="s">
+      <c r="A17" s="237" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="217"/>
+      <c r="B17" s="237"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="67"/>
@@ -6171,8 +6168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMJ204"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -6189,10 +6186,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="23" customFormat="1" ht="14.25">
-      <c r="A1" s="224"/>
-      <c r="B1" s="224"/>
-      <c r="C1" s="224"/>
-      <c r="D1" s="224"/>
+      <c r="A1" s="238"/>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
       <c r="E1" s="25"/>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
@@ -6202,14 +6199,14 @@
       <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:25" s="23" customFormat="1" ht="26.25">
-      <c r="A2" s="225" t="s">
+      <c r="A2" s="239" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="225"/>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
+      <c r="B2" s="239"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
       <c r="E2" s="71"/>
-      <c r="F2" s="226"/>
+      <c r="F2" s="240"/>
       <c r="G2" s="56"/>
       <c r="H2" s="56"/>
       <c r="I2" s="56"/>
@@ -6219,10 +6216,10 @@
     <row r="3" spans="1:25" s="23" customFormat="1" ht="23.25">
       <c r="A3" s="72"/>
       <c r="B3" s="73"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
+      <c r="C3" s="241"/>
+      <c r="D3" s="241"/>
       <c r="E3" s="74"/>
-      <c r="F3" s="226"/>
+      <c r="F3" s="240"/>
       <c r="G3" s="56"/>
       <c r="H3" s="56"/>
       <c r="I3" s="56"/>
@@ -6233,9 +6230,9 @@
       <c r="A4" s="75" t="s">
         <v>197</v>
       </c>
-      <c r="B4" s="221"/>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
+      <c r="B4" s="242"/>
+      <c r="C4" s="242"/>
+      <c r="D4" s="242"/>
       <c r="E4" s="76"/>
       <c r="F4" s="77"/>
       <c r="G4" s="77"/>
@@ -6250,9 +6247,9 @@
       <c r="A5" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="221"/>
-      <c r="C5" s="221"/>
-      <c r="D5" s="221"/>
+      <c r="B5" s="242"/>
+      <c r="C5" s="242"/>
+      <c r="D5" s="242"/>
       <c r="E5" s="76"/>
       <c r="F5" s="77"/>
       <c r="G5" s="77"/>
@@ -6267,9 +6264,9 @@
       <c r="A6" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="221"/>
-      <c r="C6" s="221"/>
-      <c r="D6" s="221"/>
+      <c r="B6" s="242"/>
+      <c r="C6" s="242"/>
+      <c r="D6" s="242"/>
       <c r="E6" s="76"/>
       <c r="F6" s="77"/>
       <c r="G6" s="77"/>
@@ -6281,11 +6278,11 @@
       <c r="A7" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="221" t="s">
+      <c r="B7" s="242" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="221"/>
-      <c r="D7" s="221"/>
+      <c r="C7" s="242"/>
+      <c r="D7" s="242"/>
       <c r="E7" s="76"/>
       <c r="F7" s="77"/>
       <c r="G7" s="77"/>
@@ -6298,9 +6295,9 @@
       <c r="A8" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="222"/>
-      <c r="C8" s="222"/>
-      <c r="D8" s="222"/>
+      <c r="B8" s="243"/>
+      <c r="C8" s="243"/>
+      <c r="D8" s="243"/>
       <c r="E8" s="82"/>
       <c r="F8" s="77"/>
     </row>
@@ -6452,11 +6449,11 @@
       <c r="D16" s="94"/>
       <c r="E16" s="94"/>
       <c r="F16" s="95"/>
-      <c r="G16" s="223" t="s">
+      <c r="G16" s="244" t="s">
         <v>99</v>
       </c>
-      <c r="H16" s="223"/>
-      <c r="I16" s="223"/>
+      <c r="H16" s="244"/>
+      <c r="I16" s="244"/>
       <c r="J16" s="96"/>
     </row>
     <row r="17" spans="1:10" s="97" customFormat="1" ht="51">
@@ -6485,11 +6482,11 @@
     </row>
     <row r="18" spans="1:10" s="97" customFormat="1" ht="12.75">
       <c r="A18" s="100"/>
-      <c r="B18" s="219" t="s">
+      <c r="B18" s="246" t="s">
         <v>199</v>
       </c>
-      <c r="C18" s="219"/>
-      <c r="D18" s="219"/>
+      <c r="C18" s="246"/>
+      <c r="D18" s="246"/>
       <c r="E18" s="102"/>
       <c r="F18" s="101"/>
       <c r="G18" s="103"/>
@@ -6517,7 +6514,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="109" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C20" s="110"/>
       <c r="D20" s="110"/>
@@ -6538,9 +6535,7 @@
       </c>
       <c r="C21" s="110"/>
       <c r="D21" s="110"/>
-      <c r="E21" s="110" t="s">
-        <v>204</v>
-      </c>
+      <c r="E21" s="110"/>
       <c r="F21" s="111"/>
       <c r="G21" s="32"/>
       <c r="H21" s="32"/>
@@ -6553,13 +6548,11 @@
         <v>3</v>
       </c>
       <c r="B22" s="109" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C22" s="110"/>
       <c r="D22" s="110"/>
-      <c r="E22" s="110" t="s">
-        <v>204</v>
-      </c>
+      <c r="E22" s="110"/>
       <c r="F22" s="111"/>
       <c r="G22" s="32"/>
       <c r="H22" s="32"/>
@@ -6572,7 +6565,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="109" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C23" s="110"/>
       <c r="D23" s="110"/>
@@ -6588,8 +6581,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
-      <c r="B24" s="241" t="s">
-        <v>210</v>
+      <c r="B24" s="200" t="s">
+        <v>209</v>
       </c>
       <c r="C24" s="110"/>
       <c r="D24" s="110"/>
@@ -6606,7 +6599,7 @@
         <v>6</v>
       </c>
       <c r="B25" s="109" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C25" s="110"/>
       <c r="D25" s="110"/>
@@ -6623,14 +6616,12 @@
         <v>7</v>
       </c>
       <c r="B26" s="109" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C26" s="110"/>
-      <c r="D26" s="245"/>
-      <c r="E26" s="115" t="s">
-        <v>204</v>
-      </c>
-      <c r="F26" s="247"/>
+      <c r="D26" s="204"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="206"/>
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
@@ -6642,12 +6633,12 @@
         <v>8</v>
       </c>
       <c r="B27" s="109" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C27" s="110"/>
-      <c r="D27" s="245"/>
+      <c r="D27" s="204"/>
       <c r="E27" s="110"/>
-      <c r="F27" s="247"/>
+      <c r="F27" s="206"/>
       <c r="G27" s="199"/>
       <c r="H27" s="199"/>
       <c r="I27" s="199"/>
@@ -6662,11 +6653,9 @@
         <v>203</v>
       </c>
       <c r="C28" s="110"/>
-      <c r="D28" s="245"/>
-      <c r="E28" s="110" t="s">
-        <v>204</v>
-      </c>
-      <c r="F28" s="247"/>
+      <c r="D28" s="204"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="206"/>
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
       <c r="I28" s="32"/>
@@ -6678,14 +6667,12 @@
         <v>10</v>
       </c>
       <c r="B29" s="109" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C29" s="110"/>
-      <c r="D29" s="245"/>
-      <c r="E29" s="110" t="s">
-        <v>204</v>
-      </c>
-      <c r="F29" s="247"/>
+      <c r="D29" s="204"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="206"/>
       <c r="G29" s="32"/>
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
@@ -6697,12 +6684,12 @@
         <v>11</v>
       </c>
       <c r="B30" s="109" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C30" s="110"/>
-      <c r="D30" s="245"/>
-      <c r="E30" s="251"/>
-      <c r="F30" s="247"/>
+      <c r="D30" s="204"/>
+      <c r="E30" s="210"/>
+      <c r="F30" s="206"/>
       <c r="G30" s="32"/>
       <c r="H30" s="32"/>
       <c r="I30" s="32"/>
@@ -6714,12 +6701,12 @@
         <v>12</v>
       </c>
       <c r="B31" s="109" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C31" s="110"/>
-      <c r="D31" s="245"/>
-      <c r="E31" s="251"/>
-      <c r="F31" s="247"/>
+      <c r="D31" s="204"/>
+      <c r="E31" s="210"/>
+      <c r="F31" s="206"/>
       <c r="G31" s="32"/>
       <c r="H31" s="32"/>
       <c r="I31" s="32"/>
@@ -6731,12 +6718,12 @@
         <v>13</v>
       </c>
       <c r="B32" s="109" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C32" s="110"/>
-      <c r="D32" s="245"/>
-      <c r="E32" s="251"/>
-      <c r="F32" s="247"/>
+      <c r="D32" s="204"/>
+      <c r="E32" s="210"/>
+      <c r="F32" s="206"/>
       <c r="G32" s="32"/>
       <c r="H32" s="32"/>
       <c r="I32" s="32"/>
@@ -6748,12 +6735,12 @@
         <v>14</v>
       </c>
       <c r="B33" s="109" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C33" s="110"/>
-      <c r="D33" s="245"/>
-      <c r="E33" s="251"/>
-      <c r="F33" s="247"/>
+      <c r="D33" s="204"/>
+      <c r="E33" s="210"/>
+      <c r="F33" s="206"/>
       <c r="G33" s="199"/>
       <c r="H33" s="199"/>
       <c r="I33" s="199"/>
@@ -6765,12 +6752,12 @@
         <v>15</v>
       </c>
       <c r="B34" s="104" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C34" s="105"/>
-      <c r="D34" s="246"/>
+      <c r="D34" s="205"/>
       <c r="E34" s="116"/>
-      <c r="F34" s="248"/>
+      <c r="F34" s="207"/>
       <c r="G34" s="32"/>
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
@@ -6782,12 +6769,12 @@
         <v>16</v>
       </c>
       <c r="B35" s="109" t="s">
-        <v>224</v>
-      </c>
-      <c r="C35" s="242"/>
-      <c r="D35" s="249"/>
-      <c r="E35" s="244"/>
-      <c r="F35" s="250"/>
+        <v>223</v>
+      </c>
+      <c r="C35" s="201"/>
+      <c r="D35" s="208"/>
+      <c r="E35" s="203"/>
+      <c r="F35" s="209"/>
       <c r="G35" s="199"/>
       <c r="H35" s="199"/>
       <c r="I35" s="199"/>
@@ -6801,10 +6788,10 @@
       <c r="B36" s="109" t="s">
         <v>202</v>
       </c>
-      <c r="C36" s="242"/>
-      <c r="D36" s="242"/>
+      <c r="C36" s="201"/>
+      <c r="D36" s="201"/>
       <c r="E36" s="110"/>
-      <c r="F36" s="243"/>
+      <c r="F36" s="202"/>
       <c r="G36" s="199"/>
       <c r="H36" s="199"/>
       <c r="I36" s="199"/>
@@ -6818,10 +6805,10 @@
       <c r="B37" s="109" t="s">
         <v>201</v>
       </c>
-      <c r="C37" s="242"/>
-      <c r="D37" s="242"/>
+      <c r="C37" s="201"/>
+      <c r="D37" s="201"/>
       <c r="E37" s="110"/>
-      <c r="F37" s="243"/>
+      <c r="F37" s="202"/>
       <c r="G37" s="199"/>
       <c r="H37" s="199"/>
       <c r="I37" s="199"/>
@@ -6833,12 +6820,12 @@
         <v>19</v>
       </c>
       <c r="B38" s="109" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="242"/>
-      <c r="D38" s="242"/>
-      <c r="E38" s="244"/>
-      <c r="F38" s="243"/>
+        <v>212</v>
+      </c>
+      <c r="C38" s="201"/>
+      <c r="D38" s="201"/>
+      <c r="E38" s="203"/>
+      <c r="F38" s="202"/>
       <c r="G38" s="199"/>
       <c r="H38" s="199"/>
       <c r="I38" s="199"/>
@@ -6850,12 +6837,12 @@
         <v>20</v>
       </c>
       <c r="B39" s="109" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="242"/>
-      <c r="D39" s="242"/>
+        <v>213</v>
+      </c>
+      <c r="C39" s="201"/>
+      <c r="D39" s="201"/>
       <c r="E39" s="110"/>
-      <c r="F39" s="243"/>
+      <c r="F39" s="202"/>
       <c r="G39" s="199"/>
       <c r="H39" s="199"/>
       <c r="I39" s="199"/>
@@ -6867,12 +6854,12 @@
         <v>21</v>
       </c>
       <c r="B40" s="109" t="s">
-        <v>226</v>
-      </c>
-      <c r="C40" s="242"/>
-      <c r="D40" s="242"/>
+        <v>225</v>
+      </c>
+      <c r="C40" s="201"/>
+      <c r="D40" s="201"/>
       <c r="E40" s="110"/>
-      <c r="F40" s="243"/>
+      <c r="F40" s="202"/>
       <c r="G40" s="199"/>
       <c r="H40" s="199"/>
       <c r="I40" s="199"/>
@@ -6886,10 +6873,10 @@
       <c r="B41" s="109" t="s">
         <v>203</v>
       </c>
-      <c r="C41" s="242"/>
-      <c r="D41" s="242"/>
+      <c r="C41" s="201"/>
+      <c r="D41" s="201"/>
       <c r="E41" s="110"/>
-      <c r="F41" s="243"/>
+      <c r="F41" s="202"/>
       <c r="G41" s="199"/>
       <c r="H41" s="199"/>
       <c r="I41" s="199"/>
@@ -6901,7 +6888,7 @@
         <v>23</v>
       </c>
       <c r="B42" s="109" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C42" s="109"/>
       <c r="D42" s="110"/>
@@ -6935,7 +6922,7 @@
         <v>25</v>
       </c>
       <c r="B44" s="109" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C44" s="109"/>
       <c r="D44" s="110"/>
@@ -6952,7 +6939,7 @@
         <v>26</v>
       </c>
       <c r="B45" s="109" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C45" s="109"/>
       <c r="D45" s="110" t="s">
@@ -6971,7 +6958,7 @@
         <v>27</v>
       </c>
       <c r="B46" s="109" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C46" s="109"/>
       <c r="D46" s="110"/>
@@ -6988,7 +6975,7 @@
         <v>28</v>
       </c>
       <c r="B47" s="104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C47" s="104"/>
       <c r="D47" s="105"/>
@@ -7005,7 +6992,7 @@
         <v>29</v>
       </c>
       <c r="B48" s="194" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C48" s="185"/>
       <c r="D48" s="185"/>
@@ -7039,7 +7026,7 @@
         <v>31</v>
       </c>
       <c r="B50" s="194" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C50" s="185"/>
       <c r="D50" s="185"/>
@@ -7056,7 +7043,7 @@
         <v>32</v>
       </c>
       <c r="B51" s="194" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C51" s="185"/>
       <c r="D51" s="185"/>
@@ -7072,8 +7059,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>33</v>
       </c>
-      <c r="B52" s="252" t="s">
-        <v>210</v>
+      <c r="B52" s="211" t="s">
+        <v>209</v>
       </c>
       <c r="C52" s="185"/>
       <c r="D52" s="185"/>
@@ -7090,7 +7077,7 @@
         <v>34</v>
       </c>
       <c r="B53" s="194" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C53" s="185"/>
       <c r="D53" s="185"/>
@@ -7107,7 +7094,7 @@
         <v>35</v>
       </c>
       <c r="B54" s="194" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C54" s="185"/>
       <c r="D54" s="185"/>
@@ -7124,7 +7111,7 @@
         <v>36</v>
       </c>
       <c r="B55" s="194" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C55" s="185"/>
       <c r="D55" s="185"/>
@@ -7158,12 +7145,12 @@
         <v>38</v>
       </c>
       <c r="B57" s="194" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C57" s="185"/>
       <c r="D57" s="185"/>
       <c r="E57" s="185"/>
-      <c r="F57" s="253"/>
+      <c r="F57" s="212"/>
       <c r="G57" s="32"/>
       <c r="H57" s="32"/>
       <c r="I57" s="32"/>
@@ -7175,12 +7162,12 @@
         <v>39</v>
       </c>
       <c r="B58" s="194" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C58" s="185"/>
       <c r="D58" s="185"/>
-      <c r="E58" s="254"/>
-      <c r="F58" s="253"/>
+      <c r="E58" s="213"/>
+      <c r="F58" s="212"/>
       <c r="G58" s="32"/>
       <c r="H58" s="32"/>
       <c r="I58" s="32"/>
@@ -7192,12 +7179,12 @@
         <v>40</v>
       </c>
       <c r="B59" s="194" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C59" s="185"/>
       <c r="D59" s="185"/>
-      <c r="E59" s="254"/>
-      <c r="F59" s="253"/>
+      <c r="E59" s="213"/>
+      <c r="F59" s="212"/>
       <c r="G59" s="32"/>
       <c r="H59" s="32"/>
       <c r="I59" s="32"/>
@@ -7209,12 +7196,12 @@
         <v>41</v>
       </c>
       <c r="B60" s="194" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C60" s="185"/>
       <c r="D60" s="185"/>
-      <c r="E60" s="254"/>
-      <c r="F60" s="253"/>
+      <c r="E60" s="213"/>
+      <c r="F60" s="212"/>
       <c r="G60" s="32"/>
       <c r="H60" s="32"/>
       <c r="I60" s="32"/>
@@ -7226,12 +7213,12 @@
         <v>42</v>
       </c>
       <c r="B61" s="194" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C61" s="185"/>
       <c r="D61" s="185"/>
-      <c r="E61" s="254"/>
-      <c r="F61" s="253"/>
+      <c r="E61" s="213"/>
+      <c r="F61" s="212"/>
       <c r="G61" s="32"/>
       <c r="H61" s="32"/>
       <c r="I61" s="32"/>
@@ -7243,7 +7230,7 @@
         <v>43</v>
       </c>
       <c r="B62" s="104" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C62" s="104"/>
       <c r="D62" s="105"/>
@@ -7260,7 +7247,7 @@
         <v>44</v>
       </c>
       <c r="B63" s="194" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C63" s="109"/>
       <c r="D63" s="110"/>
@@ -7294,7 +7281,7 @@
         <v>46</v>
       </c>
       <c r="B65" s="109" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C65" s="109"/>
       <c r="D65" s="110"/>
@@ -7311,7 +7298,7 @@
         <v>47</v>
       </c>
       <c r="B66" s="109" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C66" s="109"/>
       <c r="D66" s="110"/>
@@ -7328,7 +7315,7 @@
         <v>48</v>
       </c>
       <c r="B67" s="109" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C67" s="109"/>
       <c r="D67" s="110"/>
@@ -7345,7 +7332,7 @@
         <v>49</v>
       </c>
       <c r="B68" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C68" s="104"/>
       <c r="D68" s="105"/>
@@ -7362,7 +7349,7 @@
         <v>50</v>
       </c>
       <c r="B69" s="194" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C69" s="109"/>
       <c r="D69" s="110"/>
@@ -7396,7 +7383,7 @@
         <v>52</v>
       </c>
       <c r="B71" s="109" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C71" s="109"/>
       <c r="D71" s="110"/>
@@ -7413,11 +7400,11 @@
         <v>53</v>
       </c>
       <c r="B72" s="109" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C72" s="109"/>
       <c r="D72" s="110"/>
-      <c r="E72" s="256"/>
+      <c r="E72" s="215"/>
       <c r="F72" s="110"/>
       <c r="G72" s="199"/>
       <c r="H72" s="199"/>
@@ -7430,7 +7417,7 @@
         <v>54</v>
       </c>
       <c r="B73" s="109" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C73" s="109"/>
       <c r="D73" s="110"/>
@@ -7447,12 +7434,12 @@
         <v>55</v>
       </c>
       <c r="B74" s="109" t="s">
-        <v>230</v>
-      </c>
-      <c r="C74" s="255"/>
-      <c r="D74" s="242"/>
-      <c r="E74" s="242"/>
-      <c r="F74" s="242"/>
+        <v>229</v>
+      </c>
+      <c r="C74" s="214"/>
+      <c r="D74" s="201"/>
+      <c r="E74" s="201"/>
+      <c r="F74" s="201"/>
       <c r="G74" s="32"/>
       <c r="H74" s="32"/>
       <c r="I74" s="32"/>
@@ -7464,7 +7451,7 @@
         <v>56</v>
       </c>
       <c r="B75" s="104" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C75" s="104"/>
       <c r="D75" s="105"/>
@@ -7481,7 +7468,7 @@
         <v>57</v>
       </c>
       <c r="B76" s="194" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C76" s="109"/>
       <c r="D76" s="110"/>
@@ -7515,7 +7502,7 @@
         <v>59</v>
       </c>
       <c r="B78" s="109" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C78" s="109"/>
       <c r="D78" s="110"/>
@@ -7532,7 +7519,7 @@
         <v>60</v>
       </c>
       <c r="B79" s="109" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C79" s="109"/>
       <c r="D79" s="110"/>
@@ -7549,7 +7536,7 @@
         <v>61</v>
       </c>
       <c r="B80" s="109" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C80" s="109"/>
       <c r="D80" s="110"/>
@@ -7566,7 +7553,7 @@
         <v>62</v>
       </c>
       <c r="B81" s="109" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C81" s="109"/>
       <c r="D81" s="110"/>
@@ -7583,7 +7570,7 @@
         <v>63</v>
       </c>
       <c r="B82" s="104" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C82" s="104"/>
       <c r="D82" s="105"/>
@@ -7600,7 +7587,7 @@
         <v>64</v>
       </c>
       <c r="B83" s="194" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C83" s="109"/>
       <c r="D83" s="110"/>
@@ -7634,7 +7621,7 @@
         <v>66</v>
       </c>
       <c r="B85" s="109" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C85" s="109"/>
       <c r="D85" s="110"/>
@@ -7651,7 +7638,7 @@
         <v>67</v>
       </c>
       <c r="B86" s="104" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C86" s="104"/>
       <c r="D86" s="105"/>
@@ -7668,7 +7655,7 @@
         <v>68</v>
       </c>
       <c r="B87" s="109" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C87" s="109"/>
       <c r="D87" s="110"/>
@@ -7685,7 +7672,7 @@
         <v>69</v>
       </c>
       <c r="B88" s="109" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C88" s="109"/>
       <c r="D88" s="110"/>
@@ -7696,18 +7683,18 @@
       <c r="I88" s="117"/>
       <c r="J88" s="118"/>
     </row>
-    <row r="89" spans="1:10" s="257" customFormat="1" ht="30">
+    <row r="89" spans="1:10" s="216" customFormat="1" ht="30">
       <c r="A89" s="199">
         <f t="shared" ca="1" si="1"/>
         <v>70</v>
       </c>
       <c r="B89" s="109" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C89" s="195"/>
       <c r="D89" s="195"/>
-      <c r="E89" s="260" t="s">
-        <v>244</v>
+      <c r="E89" s="219" t="s">
+        <v>243</v>
       </c>
       <c r="F89" s="195"/>
       <c r="G89" s="195"/>
@@ -7715,13 +7702,13 @@
       <c r="I89" s="195"/>
       <c r="J89" s="195"/>
     </row>
-    <row r="90" spans="1:10" s="258" customFormat="1">
+    <row r="90" spans="1:10" s="217" customFormat="1">
       <c r="A90" s="199">
         <f t="shared" ca="1" si="1"/>
         <v>71</v>
       </c>
       <c r="B90" s="194" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C90" s="185"/>
       <c r="D90" s="185"/>
@@ -7732,13 +7719,13 @@
       <c r="I90" s="188"/>
       <c r="J90" s="189"/>
     </row>
-    <row r="91" spans="1:10" s="258" customFormat="1">
+    <row r="91" spans="1:10" s="217" customFormat="1">
       <c r="A91" s="199">
         <f t="shared" ca="1" si="1"/>
         <v>72</v>
       </c>
-      <c r="B91" s="259" t="s">
-        <v>245</v>
+      <c r="B91" s="218" t="s">
+        <v>244</v>
       </c>
       <c r="C91" s="185"/>
       <c r="D91" s="185"/>
@@ -7749,7 +7736,7 @@
       <c r="I91" s="188"/>
       <c r="J91" s="189"/>
     </row>
-    <row r="92" spans="1:10" s="258" customFormat="1">
+    <row r="92" spans="1:10" s="217" customFormat="1">
       <c r="A92" s="188"/>
       <c r="B92" s="194"/>
       <c r="C92" s="185"/>
@@ -7761,9 +7748,9 @@
       <c r="I92" s="188"/>
       <c r="J92" s="189"/>
     </row>
-    <row r="93" spans="1:10" s="258" customFormat="1">
+    <row r="93" spans="1:10" s="217" customFormat="1">
       <c r="A93" s="188"/>
-      <c r="B93" s="259"/>
+      <c r="B93" s="218"/>
       <c r="C93" s="185"/>
       <c r="D93" s="185"/>
       <c r="E93" s="185"/>
@@ -7773,7 +7760,7 @@
       <c r="I93" s="188"/>
       <c r="J93" s="189"/>
     </row>
-    <row r="94" spans="1:10" s="258" customFormat="1">
+    <row r="94" spans="1:10" s="217" customFormat="1">
       <c r="A94" s="188"/>
       <c r="B94" s="194"/>
       <c r="C94" s="185"/>
@@ -8713,9 +8700,9 @@
     </row>
     <row r="156" spans="1:11" s="123" customFormat="1">
       <c r="A156" s="121"/>
-      <c r="B156" s="220"/>
-      <c r="C156" s="220"/>
-      <c r="D156" s="220"/>
+      <c r="B156" s="247"/>
+      <c r="C156" s="247"/>
+      <c r="D156" s="247"/>
       <c r="E156" s="197"/>
       <c r="F156" s="187"/>
       <c r="G156" s="188"/>
@@ -9097,9 +9084,9 @@
     </row>
     <row r="188" spans="1:10" s="123" customFormat="1" ht="14.25">
       <c r="A188" s="125"/>
-      <c r="B188" s="218"/>
-      <c r="C188" s="218"/>
-      <c r="D188" s="218"/>
+      <c r="B188" s="245"/>
+      <c r="C188" s="245"/>
+      <c r="D188" s="245"/>
       <c r="E188" s="198"/>
       <c r="F188" s="192"/>
       <c r="G188" s="193"/>
@@ -9145,9 +9132,9 @@
     </row>
     <row r="192" spans="1:10" s="123" customFormat="1" ht="14.25">
       <c r="A192" s="125"/>
-      <c r="B192" s="218"/>
-      <c r="C192" s="218"/>
-      <c r="D192" s="218"/>
+      <c r="B192" s="245"/>
+      <c r="C192" s="245"/>
+      <c r="D192" s="245"/>
       <c r="E192" s="198"/>
       <c r="F192" s="192"/>
       <c r="G192" s="193"/>
@@ -9193,9 +9180,9 @@
     </row>
     <row r="196" spans="1:10" s="123" customFormat="1" ht="14.25">
       <c r="A196" s="125"/>
-      <c r="B196" s="218"/>
-      <c r="C196" s="218"/>
-      <c r="D196" s="218"/>
+      <c r="B196" s="245"/>
+      <c r="C196" s="245"/>
+      <c r="D196" s="245"/>
       <c r="E196" s="198"/>
       <c r="F196" s="192"/>
       <c r="G196" s="193"/>
@@ -9229,9 +9216,9 @@
     </row>
     <row r="199" spans="1:10" s="123" customFormat="1" ht="14.25">
       <c r="A199" s="125"/>
-      <c r="B199" s="218"/>
-      <c r="C199" s="218"/>
-      <c r="D199" s="218"/>
+      <c r="B199" s="245"/>
+      <c r="C199" s="245"/>
+      <c r="D199" s="245"/>
       <c r="E199" s="198"/>
       <c r="F199" s="192"/>
       <c r="G199" s="193"/>
@@ -9301,22 +9288,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G16:I16"/>
     <mergeCell ref="B199:D199"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B156:D156"/>
     <mergeCell ref="B188:D188"/>
     <mergeCell ref="B192:D192"/>
     <mergeCell ref="B196:D196"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="G16:I17" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -9380,13 +9367,13 @@
     </row>
     <row r="2" spans="1:12" s="131" customFormat="1" ht="26.25">
       <c r="A2" s="130"/>
-      <c r="C2" s="238" t="s">
+      <c r="C2" s="248" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238"/>
-      <c r="F2" s="238"/>
-      <c r="G2" s="238"/>
+      <c r="D2" s="248"/>
+      <c r="E2" s="248"/>
+      <c r="F2" s="248"/>
+      <c r="G2" s="248"/>
       <c r="H2" s="132" t="s">
         <v>111</v>
       </c>
@@ -9397,15 +9384,15 @@
     </row>
     <row r="3" spans="1:12" s="131" customFormat="1" ht="23.25">
       <c r="A3" s="130"/>
-      <c r="C3" s="239" t="s">
+      <c r="C3" s="249" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="239"/>
+      <c r="D3" s="249"/>
       <c r="E3" s="134"/>
-      <c r="F3" s="240" t="s">
+      <c r="F3" s="250" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="240"/>
+      <c r="G3" s="250"/>
       <c r="H3" s="133"/>
       <c r="I3" s="133"/>
       <c r="J3" s="135"/>
@@ -9430,10 +9417,10 @@
       <c r="L5" s="140"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="234" t="s">
+      <c r="B6" s="251" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="234"/>
+      <c r="C6" s="251"/>
       <c r="D6" s="142"/>
       <c r="E6" s="142"/>
       <c r="F6" s="142"/>
@@ -9602,11 +9589,11 @@
       <c r="G13" s="146"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B14" s="234" t="s">
+      <c r="B14" s="251" t="s">
         <v>144</v>
       </c>
-      <c r="C14" s="234"/>
-      <c r="D14" s="234"/>
+      <c r="C14" s="251"/>
+      <c r="D14" s="251"/>
       <c r="E14" s="142"/>
       <c r="F14" s="142"/>
       <c r="G14" s="143"/>
@@ -9782,11 +9769,11 @@
       <c r="G22" s="146"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B23" s="234" t="s">
+      <c r="B23" s="251" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="234"/>
-      <c r="D23" s="234"/>
+      <c r="C23" s="251"/>
+      <c r="D23" s="251"/>
       <c r="E23" s="142"/>
       <c r="F23" s="142"/>
       <c r="G23" s="143"/>
@@ -9832,10 +9819,10 @@
       <c r="F26" s="148" t="s">
         <v>161</v>
       </c>
-      <c r="G26" s="237" t="s">
+      <c r="G26" s="252" t="s">
         <v>107</v>
       </c>
-      <c r="H26" s="237"/>
+      <c r="H26" s="252"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="155">
@@ -9860,8 +9847,8 @@
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="235"/>
-      <c r="H27" s="235"/>
+      <c r="G27" s="253"/>
+      <c r="H27" s="253"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
       <c r="A28" s="155">
@@ -9886,8 +9873,8 @@
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="235"/>
-      <c r="H28" s="235"/>
+      <c r="G28" s="253"/>
+      <c r="H28" s="253"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
       <c r="A29" s="155">
@@ -9912,8 +9899,8 @@
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="235"/>
-      <c r="H29" s="235"/>
+      <c r="G29" s="253"/>
+      <c r="H29" s="253"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
       <c r="A30" s="155">
@@ -9938,8 +9925,8 @@
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="235"/>
-      <c r="H30" s="235"/>
+      <c r="G30" s="253"/>
+      <c r="H30" s="253"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1">
       <c r="A31" s="155"/>
@@ -9960,8 +9947,8 @@
         <f>SUM(F27:F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="235"/>
-      <c r="H31" s="235"/>
+      <c r="G31" s="253"/>
+      <c r="H31" s="253"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1">
       <c r="A32" s="161"/>
@@ -9999,10 +9986,10 @@
       <c r="E34" s="148" t="s">
         <v>120</v>
       </c>
-      <c r="F34" s="231" t="s">
+      <c r="F34" s="254" t="s">
         <v>123</v>
       </c>
-      <c r="G34" s="231"/>
+      <c r="G34" s="254"/>
     </row>
     <row r="35" spans="1:12" s="154" customFormat="1" ht="14.25">
       <c r="A35" s="150"/>
@@ -10018,8 +10005,8 @@
       <c r="E35" s="159" t="s">
         <v>128</v>
       </c>
-      <c r="F35" s="236"/>
-      <c r="G35" s="236"/>
+      <c r="F35" s="255"/>
+      <c r="G35" s="255"/>
       <c r="H35" s="153"/>
       <c r="I35" s="153"/>
       <c r="J35" s="153"/>
@@ -10042,8 +10029,8 @@
       <c r="E36" s="160" t="s">
         <v>134</v>
       </c>
-      <c r="F36" s="235"/>
-      <c r="G36" s="235"/>
+      <c r="F36" s="253"/>
+      <c r="G36" s="253"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1">
       <c r="A37" s="155">
@@ -10061,8 +10048,8 @@
       <c r="E37" s="160" t="s">
         <v>134</v>
       </c>
-      <c r="F37" s="235"/>
-      <c r="G37" s="235"/>
+      <c r="F37" s="253"/>
+      <c r="G37" s="253"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1">
       <c r="A38" s="161"/>
@@ -10075,10 +10062,10 @@
       <c r="H38" s="165"/>
     </row>
     <row r="39" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B39" s="234" t="s">
+      <c r="B39" s="251" t="s">
         <v>177</v>
       </c>
-      <c r="C39" s="234"/>
+      <c r="C39" s="251"/>
       <c r="D39" s="142"/>
       <c r="E39" s="142"/>
       <c r="F39" s="142"/>
@@ -10102,15 +10089,15 @@
       <c r="B41" s="148" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="231" t="s">
+      <c r="C41" s="254" t="s">
         <v>179</v>
       </c>
-      <c r="D41" s="231"/>
-      <c r="E41" s="231" t="s">
+      <c r="D41" s="254"/>
+      <c r="E41" s="254" t="s">
         <v>180</v>
       </c>
-      <c r="F41" s="231"/>
-      <c r="G41" s="231"/>
+      <c r="F41" s="254"/>
+      <c r="G41" s="254"/>
       <c r="H41" s="147" t="s">
         <v>181</v>
       </c>
@@ -10122,15 +10109,15 @@
       <c r="B42" s="169" t="s">
         <v>182</v>
       </c>
-      <c r="C42" s="233" t="s">
+      <c r="C42" s="256" t="s">
         <v>183</v>
       </c>
-      <c r="D42" s="233"/>
-      <c r="E42" s="233" t="s">
+      <c r="D42" s="256"/>
+      <c r="E42" s="256" t="s">
         <v>184</v>
       </c>
-      <c r="F42" s="233"/>
-      <c r="G42" s="233"/>
+      <c r="F42" s="256"/>
+      <c r="G42" s="256"/>
       <c r="H42" s="170"/>
     </row>
     <row r="43" spans="1:12" ht="34.5" customHeight="1">
@@ -10140,15 +10127,15 @@
       <c r="B43" s="169" t="s">
         <v>182</v>
       </c>
-      <c r="C43" s="233" t="s">
+      <c r="C43" s="256" t="s">
         <v>183</v>
       </c>
-      <c r="D43" s="233"/>
-      <c r="E43" s="233" t="s">
+      <c r="D43" s="256"/>
+      <c r="E43" s="256" t="s">
         <v>184</v>
       </c>
-      <c r="F43" s="233"/>
-      <c r="G43" s="233"/>
+      <c r="F43" s="256"/>
+      <c r="G43" s="256"/>
       <c r="H43" s="170"/>
     </row>
     <row r="44" spans="1:12" ht="34.5" customHeight="1">
@@ -10158,15 +10145,15 @@
       <c r="B44" s="169" t="s">
         <v>182</v>
       </c>
-      <c r="C44" s="233" t="s">
+      <c r="C44" s="256" t="s">
         <v>183</v>
       </c>
-      <c r="D44" s="233"/>
-      <c r="E44" s="233" t="s">
+      <c r="D44" s="256"/>
+      <c r="E44" s="256" t="s">
         <v>184</v>
       </c>
-      <c r="F44" s="233"/>
-      <c r="G44" s="233"/>
+      <c r="F44" s="256"/>
+      <c r="G44" s="256"/>
       <c r="H44" s="170"/>
     </row>
     <row r="45" spans="1:12">
@@ -10178,10 +10165,10 @@
       <c r="G45" s="146"/>
     </row>
     <row r="46" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B46" s="234" t="s">
+      <c r="B46" s="251" t="s">
         <v>185</v>
       </c>
-      <c r="C46" s="234"/>
+      <c r="C46" s="251"/>
       <c r="D46" s="142"/>
       <c r="E46" s="142"/>
       <c r="F46" s="142"/>
@@ -10199,25 +10186,25 @@
       <c r="G47" s="146"/>
     </row>
     <row r="48" spans="1:12" s="174" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="229" t="s">
+      <c r="A48" s="258" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="230" t="s">
+      <c r="B48" s="259" t="s">
         <v>187</v>
       </c>
-      <c r="C48" s="231" t="s">
+      <c r="C48" s="254" t="s">
         <v>188</v>
       </c>
-      <c r="D48" s="231"/>
-      <c r="E48" s="231"/>
-      <c r="F48" s="231"/>
-      <c r="G48" s="232" t="s">
+      <c r="D48" s="254"/>
+      <c r="E48" s="254"/>
+      <c r="F48" s="254"/>
+      <c r="G48" s="260" t="s">
         <v>153</v>
       </c>
-      <c r="H48" s="232" t="s">
+      <c r="H48" s="260" t="s">
         <v>187</v>
       </c>
-      <c r="I48" s="228" t="s">
+      <c r="I48" s="257" t="s">
         <v>189</v>
       </c>
       <c r="J48" s="173"/>
@@ -10225,8 +10212,8 @@
       <c r="L48" s="173"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="229"/>
-      <c r="B49" s="230"/>
+      <c r="A49" s="258"/>
+      <c r="B49" s="259"/>
       <c r="C49" s="175" t="s">
         <v>162</v>
       </c>
@@ -10239,13 +10226,13 @@
       <c r="F49" s="176" t="s">
         <v>165</v>
       </c>
-      <c r="G49" s="232"/>
-      <c r="H49" s="232"/>
-      <c r="I49" s="228"/>
+      <c r="G49" s="260"/>
+      <c r="H49" s="260"/>
+      <c r="I49" s="257"/>
     </row>
     <row r="50" spans="1:9" ht="38.25">
-      <c r="A50" s="229"/>
-      <c r="B50" s="230"/>
+      <c r="A50" s="258"/>
+      <c r="B50" s="259"/>
       <c r="C50" s="177" t="s">
         <v>190</v>
       </c>
@@ -10357,38 +10344,38 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="E41:G41"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="E42:G42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">

--- a/MiddleAssignment_LeTuanSang/TestDesign4/TestDesign4_LeTuanSang.xlsx
+++ b/MiddleAssignment_LeTuanSang/TestDesign4/TestDesign4_LeTuanSang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NashTechHomeWork_LeTuanSang\MiddleAssignment_LeTuanSang\TestDesign4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEAFAAD-0041-415F-B8D1-01C457169FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D57255E-3DF6-4DB5-A5B9-25EDF76A3AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G89" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="G90" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -177,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G160" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+    <comment ref="G161" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -202,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G162" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
+    <comment ref="G163" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -227,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G165" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
+    <comment ref="G166" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -252,7 +252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G178" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
+    <comment ref="G179" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -277,7 +277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H178" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000D000000}">
+    <comment ref="H179" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -302,7 +302,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G179" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
+    <comment ref="G180" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
       <text>
         <r>
           <rPr>
@@ -327,7 +327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H179" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000E000000}">
+    <comment ref="H180" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -352,7 +352,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G184" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
+    <comment ref="G185" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
       <text>
         <r>
           <rPr>
@@ -377,7 +377,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H184" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000F000000}">
+    <comment ref="H185" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -402,7 +402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G187" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
+    <comment ref="G188" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
       <text>
         <r>
           <rPr>
@@ -427,7 +427,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G202" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000A000000}">
+    <comment ref="G203" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -452,7 +452,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G204" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000B000000}">
+    <comment ref="G205" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -1310,9 +1310,6 @@
     <t xml:space="preserve">Check Label by select </t>
   </si>
   <si>
-    <t>Verify save successfully when input valid data all fields.</t>
-  </si>
-  <si>
     <t>Verify that can NOT save successfully when input invalid data all fields</t>
   </si>
   <si>
@@ -1329,6 +1326,9 @@
   </si>
   <si>
     <t>funtion Save, Cancel</t>
+  </si>
+  <si>
+    <t>Verify save successfully when input valid data all fields. Address created exists on database and displayed on Address list</t>
   </si>
 </sst>
 </file>
@@ -2197,7 +2197,7 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="261">
+  <cellXfs count="262">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
@@ -2802,6 +2802,9 @@
     <xf numFmtId="0" fontId="65" fillId="16" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2820,6 +2823,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2832,18 +2847,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2856,6 +2859,24 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2868,23 +2889,35 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="8" borderId="5" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="8" borderId="15" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="4" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="8" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="3" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="165" fontId="56" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="54" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="14" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="11" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2894,36 +2927,6 @@
     </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="14" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="56" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="54" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="3" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="8" borderId="5" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="8" borderId="15" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="4" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="8" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -3256,10 +3259,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'User Story 1'!$A$80:$A$150</c:f>
+              <c:f>'User Story 1'!$A$80:$A$151</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>61</c:v>
                 </c:pt>
@@ -3284,160 +3287,160 @@
                 <c:pt idx="7">
                   <c:v>68</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
@@ -3445,10 +3448,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'User Story 1'!$B$80:$B$150</c:f>
+              <c:f>'User Story 1'!$B$80:$B$151</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3473,9 +3476,6 @@
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3483,6 +3483,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3623,10 +3626,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'User Story 1'!$A$80:$A$150</c:f>
+              <c:f>'User Story 1'!$A$80:$A$151</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>61</c:v>
                 </c:pt>
@@ -3651,160 +3654,160 @@
                 <c:pt idx="7">
                   <c:v>68</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
@@ -3812,10 +3815,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'User Story 1'!$C$80:$C$150</c:f>
+              <c:f>'User Story 1'!$C$80:$C$151</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3954,10 +3957,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'User Story 1'!$A$80:$A$150</c:f>
+              <c:f>'User Story 1'!$A$80:$A$151</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>61</c:v>
                 </c:pt>
@@ -3982,160 +3985,160 @@
                 <c:pt idx="7">
                   <c:v>68</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
@@ -4143,10 +4146,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'User Story 1'!$D$80:$D$150</c:f>
+              <c:f>'User Story 1'!$D$80:$D$151</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4285,10 +4288,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'User Story 1'!$A$80:$A$150</c:f>
+              <c:f>'User Story 1'!$A$80:$A$151</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>61</c:v>
                 </c:pt>
@@ -4313,160 +4316,160 @@
                 <c:pt idx="7">
                   <c:v>68</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
@@ -4474,10 +4477,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'User Story 1'!$F$80:$F$150</c:f>
+              <c:f>'User Story 1'!$F$80:$F$151</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5121,37 +5124,37 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="222" t="s">
+      <c r="A4" s="223" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="222"/>
-      <c r="C4" s="222"/>
-      <c r="D4" s="222"/>
-      <c r="E4" s="222"/>
+      <c r="B4" s="223"/>
+      <c r="C4" s="223"/>
+      <c r="D4" s="223"/>
+      <c r="E4" s="223"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A5" s="223" t="s">
+      <c r="A5" s="224" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="223"/>
-      <c r="C5" s="224" t="s">
+      <c r="B5" s="224"/>
+      <c r="C5" s="225" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="224"/>
-      <c r="E5" s="224"/>
+      <c r="D5" s="225"/>
+      <c r="E5" s="225"/>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A6" s="225" t="s">
+      <c r="A6" s="226" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="225"/>
-      <c r="C6" s="221" t="s">
+      <c r="B6" s="226"/>
+      <c r="C6" s="222" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="221"/>
-      <c r="E6" s="221"/>
+      <c r="D6" s="222"/>
+      <c r="E6" s="222"/>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" customHeight="1">
@@ -5163,14 +5166,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" s="9" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A8" s="220" t="s">
+      <c r="A8" s="221" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="220"/>
-      <c r="C8" s="220"/>
-      <c r="D8" s="220"/>
-      <c r="E8" s="220"/>
-      <c r="F8" s="220"/>
+      <c r="B8" s="221"/>
+      <c r="C8" s="221"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
     </row>
     <row r="9" spans="1:6" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="10" t="s">
@@ -5253,14 +5256,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="221" t="s">
+      <c r="A13" s="222" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="221"/>
-      <c r="C13" s="221"/>
-      <c r="D13" s="221"/>
-      <c r="E13" s="221"/>
-      <c r="F13" s="221"/>
+      <c r="B13" s="222"/>
+      <c r="C13" s="222"/>
+      <c r="D13" s="222"/>
+      <c r="E13" s="222"/>
+      <c r="F13" s="222"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6"/>
@@ -5383,36 +5386,36 @@
       <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" customHeight="1">
-      <c r="B2" s="226" t="s">
+      <c r="B2" s="231" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="226"/>
-      <c r="H2" s="226"/>
-      <c r="I2" s="226"/>
-      <c r="J2" s="227" t="s">
+      <c r="C2" s="231"/>
+      <c r="D2" s="231"/>
+      <c r="E2" s="231"/>
+      <c r="F2" s="231"/>
+      <c r="G2" s="231"/>
+      <c r="H2" s="231"/>
+      <c r="I2" s="231"/>
+      <c r="J2" s="232" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="227"/>
+      <c r="K2" s="232"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" customHeight="1">
-      <c r="B3" s="228" t="s">
+      <c r="B3" s="233" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="228"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="228"/>
-      <c r="F3" s="229" t="s">
+      <c r="C3" s="233"/>
+      <c r="D3" s="233"/>
+      <c r="E3" s="233"/>
+      <c r="F3" s="234" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="229"/>
-      <c r="H3" s="229"/>
-      <c r="I3" s="229"/>
-      <c r="J3" s="227"/>
-      <c r="K3" s="227"/>
+      <c r="G3" s="234"/>
+      <c r="H3" s="234"/>
+      <c r="I3" s="234"/>
+      <c r="J3" s="232"/>
+      <c r="K3" s="232"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="B4" s="26"/>
@@ -5432,65 +5435,65 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A7" s="230" t="s">
+      <c r="A7" s="229" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="230"/>
-      <c r="C7" s="230"/>
-      <c r="D7" s="230"/>
-      <c r="E7" s="230"/>
-      <c r="F7" s="230"/>
-      <c r="G7" s="230"/>
-      <c r="H7" s="230"/>
-      <c r="I7" s="230"/>
+      <c r="B7" s="229"/>
+      <c r="C7" s="229"/>
+      <c r="D7" s="229"/>
+      <c r="E7" s="229"/>
+      <c r="F7" s="229"/>
+      <c r="G7" s="229"/>
+      <c r="H7" s="229"/>
+      <c r="I7" s="229"/>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A8" s="230"/>
-      <c r="B8" s="230"/>
-      <c r="C8" s="230"/>
-      <c r="D8" s="230"/>
-      <c r="E8" s="230"/>
-      <c r="F8" s="230"/>
-      <c r="G8" s="230"/>
-      <c r="H8" s="230"/>
-      <c r="I8" s="230"/>
+      <c r="A8" s="229"/>
+      <c r="B8" s="229"/>
+      <c r="C8" s="229"/>
+      <c r="D8" s="229"/>
+      <c r="E8" s="229"/>
+      <c r="F8" s="229"/>
+      <c r="G8" s="229"/>
+      <c r="H8" s="229"/>
+      <c r="I8" s="229"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A9" s="230" t="s">
+      <c r="A9" s="229" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="230"/>
-      <c r="C9" s="230"/>
-      <c r="D9" s="230"/>
-      <c r="E9" s="230"/>
-      <c r="F9" s="230"/>
-      <c r="G9" s="230"/>
-      <c r="H9" s="230"/>
-      <c r="I9" s="230"/>
+      <c r="B9" s="229"/>
+      <c r="C9" s="229"/>
+      <c r="D9" s="229"/>
+      <c r="E9" s="229"/>
+      <c r="F9" s="229"/>
+      <c r="G9" s="229"/>
+      <c r="H9" s="229"/>
+      <c r="I9" s="229"/>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
-      <c r="A10" s="230"/>
-      <c r="B10" s="230"/>
-      <c r="C10" s="230"/>
-      <c r="D10" s="230"/>
-      <c r="E10" s="230"/>
-      <c r="F10" s="230"/>
-      <c r="G10" s="230"/>
-      <c r="H10" s="230"/>
-      <c r="I10" s="230"/>
+      <c r="A10" s="229"/>
+      <c r="B10" s="229"/>
+      <c r="C10" s="229"/>
+      <c r="D10" s="229"/>
+      <c r="E10" s="229"/>
+      <c r="F10" s="229"/>
+      <c r="G10" s="229"/>
+      <c r="H10" s="229"/>
+      <c r="I10" s="229"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="231" t="s">
+      <c r="A11" s="230" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="231"/>
-      <c r="C11" s="231"/>
-      <c r="D11" s="231"/>
-      <c r="E11" s="231"/>
-      <c r="F11" s="231"/>
-      <c r="G11" s="231"/>
-      <c r="H11" s="231"/>
-      <c r="I11" s="231"/>
+      <c r="B11" s="230"/>
+      <c r="C11" s="230"/>
+      <c r="D11" s="230"/>
+      <c r="E11" s="230"/>
+      <c r="F11" s="230"/>
+      <c r="G11" s="230"/>
+      <c r="H11" s="230"/>
+      <c r="I11" s="230"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="30"/>
@@ -5512,65 +5515,65 @@
       <c r="A14" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="232" t="s">
+      <c r="B14" s="227" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="232"/>
-      <c r="D14" s="232"/>
-      <c r="E14" s="232"/>
-      <c r="F14" s="232"/>
-      <c r="G14" s="232"/>
-      <c r="H14" s="232"/>
-      <c r="I14" s="232"/>
-      <c r="J14" s="232"/>
-      <c r="K14" s="232"/>
+      <c r="C14" s="227"/>
+      <c r="D14" s="227"/>
+      <c r="E14" s="227"/>
+      <c r="F14" s="227"/>
+      <c r="G14" s="227"/>
+      <c r="H14" s="227"/>
+      <c r="I14" s="227"/>
+      <c r="J14" s="227"/>
+      <c r="K14" s="227"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
       <c r="A15" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="227" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="232"/>
-      <c r="D15" s="232"/>
-      <c r="E15" s="232"/>
-      <c r="F15" s="232"/>
-      <c r="G15" s="232"/>
-      <c r="H15" s="232"/>
-      <c r="I15" s="232"/>
-      <c r="J15" s="232"/>
-      <c r="K15" s="232"/>
+      <c r="C15" s="227"/>
+      <c r="D15" s="227"/>
+      <c r="E15" s="227"/>
+      <c r="F15" s="227"/>
+      <c r="G15" s="227"/>
+      <c r="H15" s="227"/>
+      <c r="I15" s="227"/>
+      <c r="J15" s="227"/>
+      <c r="K15" s="227"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1">
       <c r="A16" s="31"/>
-      <c r="B16" s="232" t="s">
+      <c r="B16" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="232"/>
-      <c r="D16" s="232"/>
-      <c r="E16" s="232"/>
-      <c r="F16" s="232"/>
-      <c r="G16" s="232"/>
-      <c r="H16" s="232"/>
-      <c r="I16" s="232"/>
-      <c r="J16" s="232"/>
-      <c r="K16" s="232"/>
+      <c r="C16" s="227"/>
+      <c r="D16" s="227"/>
+      <c r="E16" s="227"/>
+      <c r="F16" s="227"/>
+      <c r="G16" s="227"/>
+      <c r="H16" s="227"/>
+      <c r="I16" s="227"/>
+      <c r="J16" s="227"/>
+      <c r="K16" s="227"/>
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1">
       <c r="A17" s="31"/>
-      <c r="B17" s="232" t="s">
+      <c r="B17" s="227" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="232"/>
-      <c r="D17" s="232"/>
-      <c r="E17" s="232"/>
-      <c r="F17" s="232"/>
-      <c r="G17" s="232"/>
-      <c r="H17" s="232"/>
-      <c r="I17" s="232"/>
-      <c r="J17" s="232"/>
-      <c r="K17" s="232"/>
+      <c r="C17" s="227"/>
+      <c r="D17" s="227"/>
+      <c r="E17" s="227"/>
+      <c r="F17" s="227"/>
+      <c r="G17" s="227"/>
+      <c r="H17" s="227"/>
+      <c r="I17" s="227"/>
+      <c r="J17" s="227"/>
+      <c r="K17" s="227"/>
     </row>
     <row r="19" spans="1:14" ht="23.25">
       <c r="A19" s="29" t="s">
@@ -5581,40 +5584,40 @@
       <c r="A20" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="232" t="s">
+      <c r="B20" s="227" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="232"/>
-      <c r="D20" s="232"/>
-      <c r="E20" s="232"/>
-      <c r="F20" s="232"/>
-      <c r="G20" s="232"/>
+      <c r="C20" s="227"/>
+      <c r="D20" s="227"/>
+      <c r="E20" s="227"/>
+      <c r="F20" s="227"/>
+      <c r="G20" s="227"/>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1">
       <c r="A21" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="232" t="s">
+      <c r="B21" s="227" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="232"/>
-      <c r="D21" s="232"/>
-      <c r="E21" s="232"/>
-      <c r="F21" s="232"/>
-      <c r="G21" s="232"/>
+      <c r="C21" s="227"/>
+      <c r="D21" s="227"/>
+      <c r="E21" s="227"/>
+      <c r="F21" s="227"/>
+      <c r="G21" s="227"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
       <c r="A22" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="232" t="s">
+      <c r="B22" s="227" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="232"/>
-      <c r="D22" s="232"/>
-      <c r="E22" s="232"/>
-      <c r="F22" s="232"/>
-      <c r="G22" s="232"/>
+      <c r="C22" s="227"/>
+      <c r="D22" s="227"/>
+      <c r="E22" s="227"/>
+      <c r="F22" s="227"/>
+      <c r="G22" s="227"/>
     </row>
     <row r="24" spans="1:14" ht="23.25">
       <c r="A24" s="29" t="s">
@@ -5673,11 +5676,11 @@
       <c r="N27" s="34"/>
     </row>
     <row r="29" spans="1:14" ht="21.75" customHeight="1">
-      <c r="B29" s="233" t="s">
+      <c r="B29" s="228" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="233"/>
-      <c r="D29" s="233"/>
+      <c r="C29" s="228"/>
+      <c r="D29" s="228"/>
     </row>
     <row r="30" spans="1:14" ht="90" customHeight="1">
       <c r="B30" s="35"/>
@@ -5700,21 +5703,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="A7:I8"/>
+    <mergeCell ref="A9:I10"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B16:K16"/>
     <mergeCell ref="B17:K17"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A9:I10"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="A7:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5754,14 +5757,14 @@
       <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:10" s="40" customFormat="1" ht="25.5">
-      <c r="A2" s="234" t="s">
+      <c r="A2" s="235" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="234"/>
-      <c r="C2" s="234"/>
-      <c r="D2" s="234"/>
-      <c r="E2" s="234"/>
-      <c r="F2" s="234"/>
+      <c r="B2" s="235"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="235"/>
+      <c r="F2" s="235"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="41"/>
@@ -5944,12 +5947,12 @@
       <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" s="23" customFormat="1" ht="26.25">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="236" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
+      <c r="B2" s="236"/>
+      <c r="C2" s="236"/>
+      <c r="D2" s="236"/>
       <c r="E2" s="55"/>
       <c r="F2" s="56"/>
       <c r="G2" s="56"/>
@@ -6110,18 +6113,18 @@
       <c r="F14" s="62"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1">
-      <c r="A16" s="236" t="s">
+      <c r="A16" s="237" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="236"/>
+      <c r="B16" s="237"/>
       <c r="C16" s="65"/>
       <c r="D16" s="66"/>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A17" s="237" t="s">
+      <c r="A17" s="238" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="237"/>
+      <c r="B17" s="238"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="67"/>
@@ -6166,10 +6169,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AMJ204"/>
+  <dimension ref="A1:AMJ205"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -6186,10 +6189,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="23" customFormat="1" ht="14.25">
-      <c r="A1" s="238"/>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
+      <c r="A1" s="245"/>
+      <c r="B1" s="245"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
       <c r="E1" s="25"/>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
@@ -6199,14 +6202,14 @@
       <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:25" s="23" customFormat="1" ht="26.25">
-      <c r="A2" s="239" t="s">
+      <c r="A2" s="246" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="239"/>
-      <c r="C2" s="239"/>
-      <c r="D2" s="239"/>
+      <c r="B2" s="246"/>
+      <c r="C2" s="246"/>
+      <c r="D2" s="246"/>
       <c r="E2" s="71"/>
-      <c r="F2" s="240"/>
+      <c r="F2" s="247"/>
       <c r="G2" s="56"/>
       <c r="H2" s="56"/>
       <c r="I2" s="56"/>
@@ -6216,10 +6219,10 @@
     <row r="3" spans="1:25" s="23" customFormat="1" ht="23.25">
       <c r="A3" s="72"/>
       <c r="B3" s="73"/>
-      <c r="C3" s="241"/>
-      <c r="D3" s="241"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="248"/>
       <c r="E3" s="74"/>
-      <c r="F3" s="240"/>
+      <c r="F3" s="247"/>
       <c r="G3" s="56"/>
       <c r="H3" s="56"/>
       <c r="I3" s="56"/>
@@ -6342,15 +6345,15 @@
         <v>41</v>
       </c>
       <c r="B11" s="89">
-        <f>COUNTIF($G$18:$G$49756,"*Passed")</f>
+        <f>COUNTIF($G$18:$G$49757,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="C11" s="90">
-        <f>COUNTIF($H$18:$H$49756,"*Passed")</f>
+        <f>COUNTIF($H$18:$H$49757,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="D11" s="90">
-        <f>COUNTIF($I$18:$I$49756,"*Passed")</f>
+        <f>COUNTIF($I$18:$I$49757,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="E11" s="90"/>
@@ -6360,15 +6363,15 @@
         <v>43</v>
       </c>
       <c r="B12" s="89">
-        <f>COUNTIF($G$18:$G$49476,"*Failed*")</f>
+        <f>COUNTIF($G$18:$G$49477,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="C12" s="90">
-        <f>COUNTIF($H$18:$H$49476,"*Failed*")</f>
+        <f>COUNTIF($H$18:$H$49477,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="D12" s="90">
-        <f>COUNTIF($I$18:$I$49476,"*Failed*")</f>
+        <f>COUNTIF($I$18:$I$49477,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="E12" s="90"/>
@@ -6378,15 +6381,15 @@
         <v>45</v>
       </c>
       <c r="B13" s="89">
-        <f>COUNTIF($G$18:$G$49476,"*Not Run*")</f>
+        <f>COUNTIF($G$18:$G$49477,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="C13" s="90">
-        <f>COUNTIF($H$18:$H$49476,"*Not Run*")</f>
+        <f>COUNTIF($H$18:$H$49477,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="D13" s="90">
-        <f>COUNTIF($I$18:$I$49476,"*Not Run*")</f>
+        <f>COUNTIF($I$18:$I$49477,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="E13" s="90"/>
@@ -6401,15 +6404,15 @@
         <v>101</v>
       </c>
       <c r="B14" s="89">
-        <f>COUNTIF($G$18:$G$49476,"*NA*")</f>
+        <f>COUNTIF($G$18:$G$49477,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="C14" s="90">
-        <f>COUNTIF($H$18:$H$49476,"*NA*")</f>
+        <f>COUNTIF($H$18:$H$49477,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="D14" s="90">
-        <f>COUNTIF($I$18:$I$49476,"*NA*")</f>
+        <f>COUNTIF($I$18:$I$49477,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="E14" s="90"/>
@@ -6424,15 +6427,15 @@
         <v>102</v>
       </c>
       <c r="B15" s="89">
-        <f>COUNTIF($G$18:$G$49476,"*Passed in previous build*")</f>
+        <f>COUNTIF($G$18:$G$49477,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="C15" s="90">
-        <f>COUNTIF($H$18:$H$49476,"*Passed in previous build*")</f>
+        <f>COUNTIF($H$18:$H$49477,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="D15" s="90">
-        <f>COUNTIF($I$18:$I$49476,"*Passed in previous build*")</f>
+        <f>COUNTIF($I$18:$I$49477,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="E15" s="90"/>
@@ -6482,11 +6485,11 @@
     </row>
     <row r="18" spans="1:10" s="97" customFormat="1" ht="12.75">
       <c r="A18" s="100"/>
-      <c r="B18" s="246" t="s">
+      <c r="B18" s="240" t="s">
         <v>199</v>
       </c>
-      <c r="C18" s="246"/>
-      <c r="D18" s="246"/>
+      <c r="C18" s="240"/>
+      <c r="D18" s="240"/>
       <c r="E18" s="102"/>
       <c r="F18" s="101"/>
       <c r="G18" s="103"/>
@@ -7600,7 +7603,7 @@
     </row>
     <row r="84" spans="1:10" s="108" customFormat="1">
       <c r="A84" s="199">
-        <f t="shared" ref="A84:A91" ca="1" si="1">IF(OFFSET(A84,-1,0) ="",OFFSET(A84,-2,0)+1,OFFSET(A84,-1,0)+1 )</f>
+        <f t="shared" ref="A84:A92" ca="1" si="1">IF(OFFSET(A84,-1,0) ="",OFFSET(A84,-2,0)+1,OFFSET(A84,-1,0)+1 )</f>
         <v>65</v>
       </c>
       <c r="B84" s="194" t="s">
@@ -7638,7 +7641,7 @@
         <v>67</v>
       </c>
       <c r="B86" s="104" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C86" s="104"/>
       <c r="D86" s="105"/>
@@ -7649,13 +7652,13 @@
       <c r="I86" s="117"/>
       <c r="J86" s="118"/>
     </row>
-    <row r="87" spans="1:10" s="108" customFormat="1">
+    <row r="87" spans="1:10" s="108" customFormat="1" ht="30">
       <c r="A87" s="199">
         <f t="shared" ca="1" si="1"/>
         <v>68</v>
       </c>
       <c r="B87" s="109" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C87" s="109"/>
       <c r="D87" s="110"/>
@@ -7667,13 +7670,8 @@
       <c r="J87" s="118"/>
     </row>
     <row r="88" spans="1:10" s="108" customFormat="1">
-      <c r="A88" s="199">
-        <f t="shared" ca="1" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="B88" s="109" t="s">
-        <v>240</v>
-      </c>
+      <c r="A88" s="220"/>
+      <c r="B88" s="109"/>
       <c r="C88" s="109"/>
       <c r="D88" s="110"/>
       <c r="E88" s="112"/>
@@ -7683,49 +7681,49 @@
       <c r="I88" s="117"/>
       <c r="J88" s="118"/>
     </row>
-    <row r="89" spans="1:10" s="216" customFormat="1" ht="30">
+    <row r="89" spans="1:10" s="108" customFormat="1">
       <c r="A89" s="199">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B89" s="109" t="s">
-        <v>241</v>
-      </c>
-      <c r="C89" s="195"/>
-      <c r="D89" s="195"/>
-      <c r="E89" s="219" t="s">
-        <v>243</v>
-      </c>
-      <c r="F89" s="195"/>
-      <c r="G89" s="195"/>
-      <c r="H89" s="195"/>
-      <c r="I89" s="195"/>
-      <c r="J89" s="195"/>
-    </row>
-    <row r="90" spans="1:10" s="217" customFormat="1">
+        <v>239</v>
+      </c>
+      <c r="C89" s="109"/>
+      <c r="D89" s="110"/>
+      <c r="E89" s="112"/>
+      <c r="F89" s="115"/>
+      <c r="G89" s="117"/>
+      <c r="H89" s="117"/>
+      <c r="I89" s="117"/>
+      <c r="J89" s="118"/>
+    </row>
+    <row r="90" spans="1:10" s="216" customFormat="1" ht="30">
       <c r="A90" s="199">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="B90" s="194" t="s">
+        <v>70</v>
+      </c>
+      <c r="B90" s="109" t="s">
+        <v>240</v>
+      </c>
+      <c r="C90" s="195"/>
+      <c r="D90" s="195"/>
+      <c r="E90" s="219" t="s">
         <v>242</v>
       </c>
-      <c r="C90" s="185"/>
-      <c r="D90" s="185"/>
-      <c r="E90" s="185"/>
-      <c r="F90" s="187"/>
-      <c r="G90" s="188"/>
-      <c r="H90" s="188"/>
-      <c r="I90" s="188"/>
-      <c r="J90" s="189"/>
+      <c r="F90" s="195"/>
+      <c r="G90" s="195"/>
+      <c r="H90" s="195"/>
+      <c r="I90" s="195"/>
+      <c r="J90" s="195"/>
     </row>
     <row r="91" spans="1:10" s="217" customFormat="1">
       <c r="A91" s="199">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="B91" s="218" t="s">
-        <v>244</v>
+        <v>71</v>
+      </c>
+      <c r="B91" s="194" t="s">
+        <v>241</v>
       </c>
       <c r="C91" s="185"/>
       <c r="D91" s="185"/>
@@ -7737,8 +7735,13 @@
       <c r="J91" s="189"/>
     </row>
     <row r="92" spans="1:10" s="217" customFormat="1">
-      <c r="A92" s="188"/>
-      <c r="B92" s="194"/>
+      <c r="A92" s="199">
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B92" s="218" t="s">
+        <v>243</v>
+      </c>
       <c r="C92" s="185"/>
       <c r="D92" s="185"/>
       <c r="E92" s="185"/>
@@ -7750,7 +7753,7 @@
     </row>
     <row r="93" spans="1:10" s="217" customFormat="1">
       <c r="A93" s="188"/>
-      <c r="B93" s="218"/>
+      <c r="B93" s="194"/>
       <c r="C93" s="185"/>
       <c r="D93" s="185"/>
       <c r="E93" s="185"/>
@@ -7762,7 +7765,7 @@
     </row>
     <row r="94" spans="1:10" s="217" customFormat="1">
       <c r="A94" s="188"/>
-      <c r="B94" s="194"/>
+      <c r="B94" s="218"/>
       <c r="C94" s="185"/>
       <c r="D94" s="185"/>
       <c r="E94" s="185"/>
@@ -7772,11 +7775,8 @@
       <c r="I94" s="188"/>
       <c r="J94" s="189"/>
     </row>
-    <row r="95" spans="1:10" s="119" customFormat="1">
-      <c r="A95" s="32">
-        <f ca="1">IF(OFFSET(A95,-1,0) ="",OFFSET(A95,-2,0)+1,OFFSET(A95,-1,0)+1 )</f>
-        <v>1</v>
-      </c>
+    <row r="95" spans="1:10" s="217" customFormat="1">
+      <c r="A95" s="188"/>
       <c r="B95" s="194"/>
       <c r="C95" s="185"/>
       <c r="D95" s="185"/>
@@ -7790,7 +7790,7 @@
     <row r="96" spans="1:10" s="119" customFormat="1">
       <c r="A96" s="32">
         <f ca="1">IF(OFFSET(A96,-1,0) ="",OFFSET(A96,-2,0)+1,OFFSET(A96,-1,0)+1 )</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B96" s="194"/>
       <c r="C96" s="185"/>
@@ -7805,12 +7805,12 @@
     <row r="97" spans="1:11" s="119" customFormat="1">
       <c r="A97" s="32">
         <f ca="1">IF(OFFSET(A97,-1,0) ="",OFFSET(A97,-2,0)+1,OFFSET(A97,-1,0)+1 )</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B97" s="194"/>
       <c r="C97" s="185"/>
-      <c r="D97" s="188"/>
-      <c r="E97" s="188"/>
+      <c r="D97" s="185"/>
+      <c r="E97" s="185"/>
       <c r="F97" s="187"/>
       <c r="G97" s="188"/>
       <c r="H97" s="188"/>
@@ -7820,12 +7820,12 @@
     <row r="98" spans="1:11" s="119" customFormat="1">
       <c r="A98" s="32">
         <f ca="1">IF(OFFSET(A98,-1,0) ="",OFFSET(A98,-2,0)+1,OFFSET(A98,-1,0)+1 )</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B98" s="194"/>
       <c r="C98" s="185"/>
-      <c r="D98" s="185"/>
-      <c r="E98" s="185"/>
+      <c r="D98" s="188"/>
+      <c r="E98" s="188"/>
       <c r="F98" s="187"/>
       <c r="G98" s="188"/>
       <c r="H98" s="188"/>
@@ -7833,7 +7833,10 @@
       <c r="J98" s="189"/>
     </row>
     <row r="99" spans="1:11" s="119" customFormat="1">
-      <c r="A99" s="32"/>
+      <c r="A99" s="32">
+        <f ca="1">IF(OFFSET(A99,-1,0) ="",OFFSET(A99,-2,0)+1,OFFSET(A99,-1,0)+1 )</f>
+        <v>4</v>
+      </c>
       <c r="B99" s="194"/>
       <c r="C99" s="185"/>
       <c r="D99" s="185"/>
@@ -7845,25 +7848,21 @@
       <c r="J99" s="189"/>
     </row>
     <row r="100" spans="1:11" s="119" customFormat="1">
-      <c r="A100" s="32">
-        <f ca="1">IF(OFFSET(A100,-1,0) ="",OFFSET(A100,-2,0)+1,OFFSET(A100,-1,0)+1 )</f>
-        <v>5</v>
-      </c>
+      <c r="A100" s="32"/>
       <c r="B100" s="194"/>
-      <c r="C100" s="194"/>
+      <c r="C100" s="185"/>
       <c r="D100" s="185"/>
       <c r="E100" s="185"/>
-      <c r="F100" s="185"/>
-      <c r="G100" s="187"/>
+      <c r="F100" s="187"/>
+      <c r="G100" s="188"/>
       <c r="H100" s="188"/>
       <c r="I100" s="188"/>
-      <c r="J100" s="188"/>
-      <c r="K100" s="120"/>
+      <c r="J100" s="189"/>
     </row>
     <row r="101" spans="1:11" s="119" customFormat="1">
       <c r="A101" s="32">
         <f ca="1">IF(OFFSET(A101,-1,0) ="",OFFSET(A101,-2,0)+1,OFFSET(A101,-1,0)+1 )</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B101" s="194"/>
       <c r="C101" s="194"/>
@@ -7879,7 +7878,7 @@
     <row r="102" spans="1:11" s="119" customFormat="1">
       <c r="A102" s="32">
         <f ca="1">IF(OFFSET(A102,-1,0) ="",OFFSET(A102,-2,0)+1,OFFSET(A102,-1,0)+1 )</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B102" s="194"/>
       <c r="C102" s="194"/>
@@ -7895,7 +7894,7 @@
     <row r="103" spans="1:11" s="119" customFormat="1">
       <c r="A103" s="32">
         <f ca="1">IF(OFFSET(A103,-1,0) ="",OFFSET(A103,-2,0)+1,OFFSET(A103,-1,0)+1 )</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B103" s="194"/>
       <c r="C103" s="194"/>
@@ -7909,7 +7908,10 @@
       <c r="K103" s="120"/>
     </row>
     <row r="104" spans="1:11" s="119" customFormat="1">
-      <c r="A104" s="32"/>
+      <c r="A104" s="32">
+        <f ca="1">IF(OFFSET(A104,-1,0) ="",OFFSET(A104,-2,0)+1,OFFSET(A104,-1,0)+1 )</f>
+        <v>8</v>
+      </c>
       <c r="B104" s="194"/>
       <c r="C104" s="194"/>
       <c r="D104" s="185"/>
@@ -7922,10 +7924,7 @@
       <c r="K104" s="120"/>
     </row>
     <row r="105" spans="1:11" s="119" customFormat="1">
-      <c r="A105" s="32">
-        <f t="shared" ref="A105:A118" ca="1" si="2">IF(OFFSET(A105,-1,0) ="",OFFSET(A105,-2,0)+1,OFFSET(A105,-1,0)+1 )</f>
-        <v>9</v>
-      </c>
+      <c r="A105" s="32"/>
       <c r="B105" s="194"/>
       <c r="C105" s="194"/>
       <c r="D105" s="185"/>
@@ -7939,8 +7938,8 @@
     </row>
     <row r="106" spans="1:11" s="119" customFormat="1">
       <c r="A106" s="32">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <f t="shared" ref="A106:A119" ca="1" si="2">IF(OFFSET(A106,-1,0) ="",OFFSET(A106,-2,0)+1,OFFSET(A106,-1,0)+1 )</f>
+        <v>9</v>
       </c>
       <c r="B106" s="194"/>
       <c r="C106" s="194"/>
@@ -7956,13 +7955,13 @@
     <row r="107" spans="1:11" s="119" customFormat="1">
       <c r="A107" s="32">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B107" s="194"/>
       <c r="C107" s="194"/>
       <c r="D107" s="185"/>
       <c r="E107" s="185"/>
-      <c r="F107" s="196"/>
+      <c r="F107" s="185"/>
       <c r="G107" s="187"/>
       <c r="H107" s="188"/>
       <c r="I107" s="188"/>
@@ -7972,13 +7971,13 @@
     <row r="108" spans="1:11" s="119" customFormat="1">
       <c r="A108" s="32">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B108" s="194"/>
       <c r="C108" s="194"/>
       <c r="D108" s="185"/>
       <c r="E108" s="185"/>
-      <c r="F108" s="185"/>
+      <c r="F108" s="196"/>
       <c r="G108" s="187"/>
       <c r="H108" s="188"/>
       <c r="I108" s="188"/>
@@ -7988,13 +7987,13 @@
     <row r="109" spans="1:11" s="119" customFormat="1">
       <c r="A109" s="32">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B109" s="194"/>
       <c r="C109" s="194"/>
       <c r="D109" s="185"/>
       <c r="E109" s="185"/>
-      <c r="F109" s="188"/>
+      <c r="F109" s="185"/>
       <c r="G109" s="187"/>
       <c r="H109" s="188"/>
       <c r="I109" s="188"/>
@@ -8004,7 +8003,7 @@
     <row r="110" spans="1:11" s="119" customFormat="1">
       <c r="A110" s="32">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B110" s="194"/>
       <c r="C110" s="194"/>
@@ -8020,7 +8019,7 @@
     <row r="111" spans="1:11" s="119" customFormat="1">
       <c r="A111" s="32">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B111" s="194"/>
       <c r="C111" s="194"/>
@@ -8036,7 +8035,7 @@
     <row r="112" spans="1:11" s="119" customFormat="1">
       <c r="A112" s="32">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B112" s="194"/>
       <c r="C112" s="194"/>
@@ -8052,7 +8051,7 @@
     <row r="113" spans="1:11" s="119" customFormat="1">
       <c r="A113" s="32">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B113" s="194"/>
       <c r="C113" s="194"/>
@@ -8068,13 +8067,13 @@
     <row r="114" spans="1:11" s="119" customFormat="1">
       <c r="A114" s="32">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B114" s="194"/>
       <c r="C114" s="194"/>
       <c r="D114" s="185"/>
       <c r="E114" s="185"/>
-      <c r="F114" s="185"/>
+      <c r="F114" s="188"/>
       <c r="G114" s="187"/>
       <c r="H114" s="188"/>
       <c r="I114" s="188"/>
@@ -8084,7 +8083,7 @@
     <row r="115" spans="1:11" s="119" customFormat="1">
       <c r="A115" s="32">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B115" s="194"/>
       <c r="C115" s="194"/>
@@ -8100,7 +8099,7 @@
     <row r="116" spans="1:11" s="119" customFormat="1">
       <c r="A116" s="32">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B116" s="194"/>
       <c r="C116" s="194"/>
@@ -8116,7 +8115,7 @@
     <row r="117" spans="1:11" s="119" customFormat="1">
       <c r="A117" s="32">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B117" s="194"/>
       <c r="C117" s="194"/>
@@ -8132,7 +8131,7 @@
     <row r="118" spans="1:11" s="119" customFormat="1">
       <c r="A118" s="32">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B118" s="194"/>
       <c r="C118" s="194"/>
@@ -8146,7 +8145,10 @@
       <c r="K118" s="120"/>
     </row>
     <row r="119" spans="1:11" s="119" customFormat="1">
-      <c r="A119" s="32"/>
+      <c r="A119" s="32">
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
+      </c>
       <c r="B119" s="194"/>
       <c r="C119" s="194"/>
       <c r="D119" s="185"/>
@@ -8159,10 +8161,7 @@
       <c r="K119" s="120"/>
     </row>
     <row r="120" spans="1:11" s="119" customFormat="1">
-      <c r="A120" s="32">
-        <f ca="1">IF(OFFSET(A120,-1,0) ="",OFFSET(A120,-2,0)+1,OFFSET(A120,-1,0)+1 )</f>
-        <v>23</v>
-      </c>
+      <c r="A120" s="32"/>
       <c r="B120" s="194"/>
       <c r="C120" s="194"/>
       <c r="D120" s="185"/>
@@ -8177,7 +8176,7 @@
     <row r="121" spans="1:11" s="119" customFormat="1">
       <c r="A121" s="32">
         <f ca="1">IF(OFFSET(A121,-1,0) ="",OFFSET(A121,-2,0)+1,OFFSET(A121,-1,0)+1 )</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B121" s="194"/>
       <c r="C121" s="194"/>
@@ -8193,7 +8192,7 @@
     <row r="122" spans="1:11" s="119" customFormat="1">
       <c r="A122" s="32">
         <f ca="1">IF(OFFSET(A122,-1,0) ="",OFFSET(A122,-2,0)+1,OFFSET(A122,-1,0)+1 )</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B122" s="194"/>
       <c r="C122" s="194"/>
@@ -8209,13 +8208,13 @@
     <row r="123" spans="1:11" s="119" customFormat="1">
       <c r="A123" s="32">
         <f ca="1">IF(OFFSET(A123,-1,0) ="",OFFSET(A123,-2,0)+1,OFFSET(A123,-1,0)+1 )</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B123" s="194"/>
       <c r="C123" s="194"/>
       <c r="D123" s="185"/>
       <c r="E123" s="185"/>
-      <c r="F123" s="188"/>
+      <c r="F123" s="185"/>
       <c r="G123" s="187"/>
       <c r="H123" s="188"/>
       <c r="I123" s="188"/>
@@ -8223,7 +8222,10 @@
       <c r="K123" s="120"/>
     </row>
     <row r="124" spans="1:11" s="119" customFormat="1">
-      <c r="A124" s="32"/>
+      <c r="A124" s="32">
+        <f ca="1">IF(OFFSET(A124,-1,0) ="",OFFSET(A124,-2,0)+1,OFFSET(A124,-1,0)+1 )</f>
+        <v>26</v>
+      </c>
       <c r="B124" s="194"/>
       <c r="C124" s="194"/>
       <c r="D124" s="185"/>
@@ -8236,15 +8238,12 @@
       <c r="K124" s="120"/>
     </row>
     <row r="125" spans="1:11" s="119" customFormat="1">
-      <c r="A125" s="32">
-        <f ca="1">IF(OFFSET(A125,-1,0) ="",OFFSET(A125,-2,0)+1,OFFSET(A125,-1,0)+1 )</f>
-        <v>27</v>
-      </c>
+      <c r="A125" s="32"/>
       <c r="B125" s="194"/>
       <c r="C125" s="194"/>
       <c r="D125" s="185"/>
       <c r="E125" s="185"/>
-      <c r="F125" s="185"/>
+      <c r="F125" s="188"/>
       <c r="G125" s="187"/>
       <c r="H125" s="188"/>
       <c r="I125" s="188"/>
@@ -8254,7 +8253,7 @@
     <row r="126" spans="1:11" s="119" customFormat="1">
       <c r="A126" s="32">
         <f ca="1">IF(OFFSET(A126,-1,0) ="",OFFSET(A126,-2,0)+1,OFFSET(A126,-1,0)+1 )</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B126" s="194"/>
       <c r="C126" s="194"/>
@@ -8270,7 +8269,7 @@
     <row r="127" spans="1:11" s="119" customFormat="1">
       <c r="A127" s="32">
         <f ca="1">IF(OFFSET(A127,-1,0) ="",OFFSET(A127,-2,0)+1,OFFSET(A127,-1,0)+1 )</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B127" s="194"/>
       <c r="C127" s="194"/>
@@ -8284,7 +8283,10 @@
       <c r="K127" s="120"/>
     </row>
     <row r="128" spans="1:11" s="119" customFormat="1">
-      <c r="A128" s="32"/>
+      <c r="A128" s="32">
+        <f ca="1">IF(OFFSET(A128,-1,0) ="",OFFSET(A128,-2,0)+1,OFFSET(A128,-1,0)+1 )</f>
+        <v>29</v>
+      </c>
       <c r="B128" s="194"/>
       <c r="C128" s="194"/>
       <c r="D128" s="185"/>
@@ -8297,10 +8299,7 @@
       <c r="K128" s="120"/>
     </row>
     <row r="129" spans="1:11" s="119" customFormat="1">
-      <c r="A129" s="32">
-        <f t="shared" ref="A129:A142" ca="1" si="3">IF(OFFSET(A129,-1,0) ="",OFFSET(A129,-2,0)+1,OFFSET(A129,-1,0)+1 )</f>
-        <v>30</v>
-      </c>
+      <c r="A129" s="32"/>
       <c r="B129" s="194"/>
       <c r="C129" s="194"/>
       <c r="D129" s="185"/>
@@ -8314,8 +8313,8 @@
     </row>
     <row r="130" spans="1:11" s="119" customFormat="1">
       <c r="A130" s="32">
-        <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <f t="shared" ref="A130:A143" ca="1" si="3">IF(OFFSET(A130,-1,0) ="",OFFSET(A130,-2,0)+1,OFFSET(A130,-1,0)+1 )</f>
+        <v>30</v>
       </c>
       <c r="B130" s="194"/>
       <c r="C130" s="194"/>
@@ -8331,13 +8330,13 @@
     <row r="131" spans="1:11" s="119" customFormat="1">
       <c r="A131" s="32">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B131" s="194"/>
       <c r="C131" s="194"/>
       <c r="D131" s="185"/>
       <c r="E131" s="185"/>
-      <c r="F131" s="188"/>
+      <c r="F131" s="185"/>
       <c r="G131" s="187"/>
       <c r="H131" s="188"/>
       <c r="I131" s="188"/>
@@ -8347,13 +8346,13 @@
     <row r="132" spans="1:11" s="119" customFormat="1">
       <c r="A132" s="32">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B132" s="194"/>
       <c r="C132" s="194"/>
       <c r="D132" s="185"/>
       <c r="E132" s="185"/>
-      <c r="F132" s="185"/>
+      <c r="F132" s="188"/>
       <c r="G132" s="187"/>
       <c r="H132" s="188"/>
       <c r="I132" s="188"/>
@@ -8363,13 +8362,13 @@
     <row r="133" spans="1:11" s="119" customFormat="1">
       <c r="A133" s="32">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B133" s="194"/>
       <c r="C133" s="194"/>
       <c r="D133" s="185"/>
       <c r="E133" s="185"/>
-      <c r="F133" s="188"/>
+      <c r="F133" s="185"/>
       <c r="G133" s="187"/>
       <c r="H133" s="188"/>
       <c r="I133" s="188"/>
@@ -8379,7 +8378,7 @@
     <row r="134" spans="1:11" s="119" customFormat="1">
       <c r="A134" s="32">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B134" s="194"/>
       <c r="C134" s="194"/>
@@ -8395,13 +8394,13 @@
     <row r="135" spans="1:11" s="119" customFormat="1">
       <c r="A135" s="32">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B135" s="194"/>
       <c r="C135" s="194"/>
       <c r="D135" s="185"/>
       <c r="E135" s="185"/>
-      <c r="F135" s="185"/>
+      <c r="F135" s="188"/>
       <c r="G135" s="187"/>
       <c r="H135" s="188"/>
       <c r="I135" s="188"/>
@@ -8411,7 +8410,7 @@
     <row r="136" spans="1:11" s="119" customFormat="1">
       <c r="A136" s="32">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B136" s="194"/>
       <c r="C136" s="194"/>
@@ -8427,13 +8426,13 @@
     <row r="137" spans="1:11" s="119" customFormat="1">
       <c r="A137" s="32">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B137" s="194"/>
       <c r="C137" s="194"/>
       <c r="D137" s="185"/>
       <c r="E137" s="185"/>
-      <c r="F137" s="188"/>
+      <c r="F137" s="185"/>
       <c r="G137" s="187"/>
       <c r="H137" s="188"/>
       <c r="I137" s="188"/>
@@ -8443,7 +8442,7 @@
     <row r="138" spans="1:11" s="119" customFormat="1">
       <c r="A138" s="32">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B138" s="194"/>
       <c r="C138" s="194"/>
@@ -8459,7 +8458,7 @@
     <row r="139" spans="1:11" s="119" customFormat="1">
       <c r="A139" s="32">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B139" s="194"/>
       <c r="C139" s="194"/>
@@ -8475,7 +8474,7 @@
     <row r="140" spans="1:11" s="119" customFormat="1">
       <c r="A140" s="32">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B140" s="194"/>
       <c r="C140" s="194"/>
@@ -8491,7 +8490,7 @@
     <row r="141" spans="1:11" s="119" customFormat="1">
       <c r="A141" s="32">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B141" s="194"/>
       <c r="C141" s="194"/>
@@ -8507,7 +8506,7 @@
     <row r="142" spans="1:11" s="119" customFormat="1">
       <c r="A142" s="32">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B142" s="194"/>
       <c r="C142" s="194"/>
@@ -8521,12 +8520,15 @@
       <c r="K142" s="120"/>
     </row>
     <row r="143" spans="1:11" s="119" customFormat="1">
-      <c r="A143" s="32"/>
+      <c r="A143" s="32">
+        <f t="shared" ca="1" si="3"/>
+        <v>43</v>
+      </c>
       <c r="B143" s="194"/>
       <c r="C143" s="194"/>
       <c r="D143" s="185"/>
       <c r="E143" s="185"/>
-      <c r="F143" s="185"/>
+      <c r="F143" s="188"/>
       <c r="G143" s="187"/>
       <c r="H143" s="188"/>
       <c r="I143" s="188"/>
@@ -8534,10 +8536,7 @@
       <c r="K143" s="120"/>
     </row>
     <row r="144" spans="1:11" s="119" customFormat="1">
-      <c r="A144" s="32">
-        <f ca="1">IF(OFFSET(A144,-1,0) ="",OFFSET(A144,-2,0)+1,OFFSET(A144,-1,0)+1 )</f>
-        <v>44</v>
-      </c>
+      <c r="A144" s="32"/>
       <c r="B144" s="194"/>
       <c r="C144" s="194"/>
       <c r="D144" s="185"/>
@@ -8552,7 +8551,7 @@
     <row r="145" spans="1:11" s="119" customFormat="1">
       <c r="A145" s="32">
         <f ca="1">IF(OFFSET(A145,-1,0) ="",OFFSET(A145,-2,0)+1,OFFSET(A145,-1,0)+1 )</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B145" s="194"/>
       <c r="C145" s="194"/>
@@ -8568,7 +8567,7 @@
     <row r="146" spans="1:11" s="119" customFormat="1">
       <c r="A146" s="32">
         <f ca="1">IF(OFFSET(A146,-1,0) ="",OFFSET(A146,-2,0)+1,OFFSET(A146,-1,0)+1 )</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B146" s="194"/>
       <c r="C146" s="194"/>
@@ -8581,65 +8580,69 @@
       <c r="J146" s="188"/>
       <c r="K146" s="120"/>
     </row>
-    <row r="147" spans="1:11" s="119" customFormat="1" ht="14.25">
-      <c r="A147" s="32"/>
-      <c r="B147" s="195"/>
-      <c r="C147" s="195"/>
-      <c r="D147" s="195"/>
-      <c r="E147" s="195"/>
-      <c r="F147" s="195"/>
-      <c r="G147" s="195"/>
-      <c r="H147" s="195"/>
-      <c r="I147" s="195"/>
-      <c r="J147" s="195"/>
+    <row r="147" spans="1:11" s="119" customFormat="1">
+      <c r="A147" s="32">
+        <f ca="1">IF(OFFSET(A147,-1,0) ="",OFFSET(A147,-2,0)+1,OFFSET(A147,-1,0)+1 )</f>
+        <v>46</v>
+      </c>
+      <c r="B147" s="194"/>
+      <c r="C147" s="194"/>
+      <c r="D147" s="185"/>
+      <c r="E147" s="185"/>
+      <c r="F147" s="185"/>
+      <c r="G147" s="187"/>
+      <c r="H147" s="188"/>
+      <c r="I147" s="188"/>
+      <c r="J147" s="188"/>
       <c r="K147" s="120"/>
     </row>
-    <row r="148" spans="1:11" s="119" customFormat="1">
-      <c r="A148" s="32">
-        <f ca="1">IF(OFFSET(A148,-1,0) ="",OFFSET(A148,-2,0)+1,OFFSET(A148,-1,0)+1 )</f>
+    <row r="148" spans="1:11" s="119" customFormat="1" ht="14.25">
+      <c r="A148" s="32"/>
+      <c r="B148" s="195"/>
+      <c r="C148" s="195"/>
+      <c r="D148" s="195"/>
+      <c r="E148" s="195"/>
+      <c r="F148" s="195"/>
+      <c r="G148" s="195"/>
+      <c r="H148" s="195"/>
+      <c r="I148" s="195"/>
+      <c r="J148" s="195"/>
+      <c r="K148" s="120"/>
+    </row>
+    <row r="149" spans="1:11" s="119" customFormat="1">
+      <c r="A149" s="32">
+        <f ca="1">IF(OFFSET(A149,-1,0) ="",OFFSET(A149,-2,0)+1,OFFSET(A149,-1,0)+1 )</f>
         <v>47</v>
       </c>
-      <c r="B148" s="194"/>
-      <c r="C148" s="194"/>
-      <c r="D148" s="185"/>
-      <c r="E148" s="185"/>
-      <c r="F148" s="185"/>
-      <c r="G148" s="187"/>
-      <c r="H148" s="188"/>
-      <c r="I148" s="188"/>
-      <c r="J148" s="188"/>
-      <c r="K148" s="120"/>
-    </row>
-    <row r="149" spans="1:11" s="119" customFormat="1" ht="14.25">
-      <c r="A149" s="32"/>
-      <c r="B149" s="195"/>
-      <c r="C149" s="195"/>
-      <c r="D149" s="195"/>
-      <c r="E149" s="195"/>
-      <c r="F149" s="195"/>
-      <c r="G149" s="195"/>
-      <c r="H149" s="195"/>
-      <c r="I149" s="195"/>
-      <c r="J149" s="195"/>
+      <c r="B149" s="194"/>
+      <c r="C149" s="194"/>
+      <c r="D149" s="185"/>
+      <c r="E149" s="185"/>
+      <c r="F149" s="185"/>
+      <c r="G149" s="187"/>
+      <c r="H149" s="188"/>
+      <c r="I149" s="188"/>
+      <c r="J149" s="188"/>
       <c r="K149" s="120"/>
     </row>
-    <row r="150" spans="1:11" s="119" customFormat="1">
-      <c r="A150" s="32">
-        <f ca="1">IF(OFFSET(A150,-1,0) ="",OFFSET(A150,-2,0)+1,OFFSET(A150,-1,0)+1 )</f>
+    <row r="150" spans="1:11" s="119" customFormat="1" ht="14.25">
+      <c r="A150" s="32"/>
+      <c r="B150" s="195"/>
+      <c r="C150" s="195"/>
+      <c r="D150" s="195"/>
+      <c r="E150" s="195"/>
+      <c r="F150" s="195"/>
+      <c r="G150" s="195"/>
+      <c r="H150" s="195"/>
+      <c r="I150" s="195"/>
+      <c r="J150" s="195"/>
+      <c r="K150" s="120"/>
+    </row>
+    <row r="151" spans="1:11" s="119" customFormat="1">
+      <c r="A151" s="32">
+        <f ca="1">IF(OFFSET(A151,-1,0) ="",OFFSET(A151,-2,0)+1,OFFSET(A151,-1,0)+1 )</f>
         <v>48</v>
       </c>
-      <c r="B150" s="194"/>
-      <c r="C150" s="185"/>
-      <c r="D150" s="185"/>
-      <c r="E150" s="185"/>
-      <c r="F150" s="187"/>
-      <c r="G150" s="188"/>
-      <c r="H150" s="188"/>
-      <c r="I150" s="188"/>
-      <c r="J150" s="189"/>
-    </row>
-    <row r="151" spans="1:11" s="119" customFormat="1">
-      <c r="A151" s="121"/>
       <c r="B151" s="194"/>
       <c r="C151" s="185"/>
       <c r="D151" s="185"/>
@@ -8653,7 +8656,7 @@
     <row r="152" spans="1:11" s="119" customFormat="1">
       <c r="A152" s="121"/>
       <c r="B152" s="194"/>
-      <c r="C152" s="186"/>
+      <c r="C152" s="185"/>
       <c r="D152" s="185"/>
       <c r="E152" s="185"/>
       <c r="F152" s="187"/>
@@ -8689,7 +8692,7 @@
     <row r="155" spans="1:11" s="119" customFormat="1">
       <c r="A155" s="121"/>
       <c r="B155" s="194"/>
-      <c r="C155" s="185"/>
+      <c r="C155" s="186"/>
       <c r="D155" s="185"/>
       <c r="E155" s="185"/>
       <c r="F155" s="187"/>
@@ -8698,12 +8701,12 @@
       <c r="I155" s="188"/>
       <c r="J155" s="189"/>
     </row>
-    <row r="156" spans="1:11" s="123" customFormat="1">
+    <row r="156" spans="1:11" s="119" customFormat="1">
       <c r="A156" s="121"/>
-      <c r="B156" s="247"/>
-      <c r="C156" s="247"/>
-      <c r="D156" s="247"/>
-      <c r="E156" s="197"/>
+      <c r="B156" s="194"/>
+      <c r="C156" s="185"/>
+      <c r="D156" s="185"/>
+      <c r="E156" s="185"/>
       <c r="F156" s="187"/>
       <c r="G156" s="188"/>
       <c r="H156" s="188"/>
@@ -8712,10 +8715,10 @@
     </row>
     <row r="157" spans="1:11" s="123" customFormat="1">
       <c r="A157" s="121"/>
-      <c r="B157" s="190"/>
-      <c r="C157" s="191"/>
-      <c r="D157" s="191"/>
-      <c r="E157" s="191"/>
+      <c r="B157" s="241"/>
+      <c r="C157" s="241"/>
+      <c r="D157" s="241"/>
+      <c r="E157" s="197"/>
       <c r="F157" s="187"/>
       <c r="G157" s="188"/>
       <c r="H157" s="188"/>
@@ -8807,7 +8810,7 @@
       <c r="J164" s="189"/>
     </row>
     <row r="165" spans="1:10" s="123" customFormat="1">
-      <c r="A165" s="124"/>
+      <c r="A165" s="121"/>
       <c r="B165" s="190"/>
       <c r="C165" s="191"/>
       <c r="D165" s="191"/>
@@ -8836,11 +8839,11 @@
       <c r="C167" s="191"/>
       <c r="D167" s="191"/>
       <c r="E167" s="191"/>
-      <c r="F167" s="192"/>
-      <c r="G167" s="193"/>
-      <c r="H167" s="193"/>
-      <c r="I167" s="193"/>
-      <c r="J167" s="192"/>
+      <c r="F167" s="187"/>
+      <c r="G167" s="188"/>
+      <c r="H167" s="188"/>
+      <c r="I167" s="188"/>
+      <c r="J167" s="189"/>
     </row>
     <row r="168" spans="1:10" s="123" customFormat="1">
       <c r="A168" s="124"/>
@@ -8848,11 +8851,11 @@
       <c r="C168" s="191"/>
       <c r="D168" s="191"/>
       <c r="E168" s="191"/>
-      <c r="F168" s="187"/>
-      <c r="G168" s="188"/>
-      <c r="H168" s="188"/>
-      <c r="I168" s="188"/>
-      <c r="J168" s="189"/>
+      <c r="F168" s="192"/>
+      <c r="G168" s="193"/>
+      <c r="H168" s="193"/>
+      <c r="I168" s="193"/>
+      <c r="J168" s="192"/>
     </row>
     <row r="169" spans="1:10" s="123" customFormat="1">
       <c r="A169" s="124"/>
@@ -8896,23 +8899,23 @@
       <c r="C172" s="191"/>
       <c r="D172" s="191"/>
       <c r="E172" s="191"/>
-      <c r="F172" s="192"/>
-      <c r="G172" s="193"/>
-      <c r="H172" s="193"/>
-      <c r="I172" s="193"/>
-      <c r="J172" s="192"/>
+      <c r="F172" s="187"/>
+      <c r="G172" s="188"/>
+      <c r="H172" s="188"/>
+      <c r="I172" s="188"/>
+      <c r="J172" s="189"/>
     </row>
     <row r="173" spans="1:10" s="123" customFormat="1">
-      <c r="A173" s="122"/>
+      <c r="A173" s="124"/>
       <c r="B173" s="190"/>
       <c r="C173" s="191"/>
       <c r="D173" s="191"/>
       <c r="E173" s="191"/>
-      <c r="F173" s="187"/>
-      <c r="G173" s="188"/>
-      <c r="H173" s="188"/>
-      <c r="I173" s="188"/>
-      <c r="J173" s="189"/>
+      <c r="F173" s="192"/>
+      <c r="G173" s="193"/>
+      <c r="H173" s="193"/>
+      <c r="I173" s="193"/>
+      <c r="J173" s="192"/>
     </row>
     <row r="174" spans="1:10" s="123" customFormat="1">
       <c r="A174" s="122"/>
@@ -8939,28 +8942,28 @@
       <c r="J175" s="189"/>
     </row>
     <row r="176" spans="1:10" s="123" customFormat="1">
-      <c r="A176" s="125"/>
+      <c r="A176" s="122"/>
       <c r="B176" s="190"/>
       <c r="C176" s="191"/>
       <c r="D176" s="191"/>
       <c r="E176" s="191"/>
-      <c r="F176" s="192"/>
-      <c r="G176" s="193"/>
-      <c r="H176" s="193"/>
-      <c r="I176" s="193"/>
-      <c r="J176" s="192"/>
+      <c r="F176" s="187"/>
+      <c r="G176" s="188"/>
+      <c r="H176" s="188"/>
+      <c r="I176" s="188"/>
+      <c r="J176" s="189"/>
     </row>
     <row r="177" spans="1:10" s="123" customFormat="1">
-      <c r="A177" s="122"/>
-      <c r="B177" s="194"/>
-      <c r="C177" s="188"/>
-      <c r="D177" s="187"/>
-      <c r="E177" s="187"/>
-      <c r="F177" s="187"/>
-      <c r="G177" s="188"/>
-      <c r="H177" s="188"/>
-      <c r="I177" s="188"/>
-      <c r="J177" s="189"/>
+      <c r="A177" s="125"/>
+      <c r="B177" s="190"/>
+      <c r="C177" s="191"/>
+      <c r="D177" s="191"/>
+      <c r="E177" s="191"/>
+      <c r="F177" s="192"/>
+      <c r="G177" s="193"/>
+      <c r="H177" s="193"/>
+      <c r="I177" s="193"/>
+      <c r="J177" s="192"/>
     </row>
     <row r="178" spans="1:10" s="123" customFormat="1">
       <c r="A178" s="122"/>
@@ -9082,29 +9085,29 @@
       <c r="I187" s="188"/>
       <c r="J187" s="189"/>
     </row>
-    <row r="188" spans="1:10" s="123" customFormat="1" ht="14.25">
-      <c r="A188" s="125"/>
-      <c r="B188" s="245"/>
-      <c r="C188" s="245"/>
-      <c r="D188" s="245"/>
-      <c r="E188" s="198"/>
-      <c r="F188" s="192"/>
-      <c r="G188" s="193"/>
-      <c r="H188" s="193"/>
-      <c r="I188" s="193"/>
-      <c r="J188" s="192"/>
-    </row>
-    <row r="189" spans="1:10" s="123" customFormat="1">
-      <c r="A189" s="122"/>
-      <c r="B189" s="194"/>
-      <c r="C189" s="188"/>
-      <c r="D189" s="187"/>
-      <c r="E189" s="187"/>
-      <c r="F189" s="187"/>
-      <c r="G189" s="188"/>
-      <c r="H189" s="188"/>
-      <c r="I189" s="188"/>
-      <c r="J189" s="189"/>
+    <row r="188" spans="1:10" s="123" customFormat="1">
+      <c r="A188" s="122"/>
+      <c r="B188" s="194"/>
+      <c r="C188" s="188"/>
+      <c r="D188" s="187"/>
+      <c r="E188" s="187"/>
+      <c r="F188" s="187"/>
+      <c r="G188" s="188"/>
+      <c r="H188" s="188"/>
+      <c r="I188" s="188"/>
+      <c r="J188" s="189"/>
+    </row>
+    <row r="189" spans="1:10" s="123" customFormat="1" ht="14.25">
+      <c r="A189" s="125"/>
+      <c r="B189" s="239"/>
+      <c r="C189" s="239"/>
+      <c r="D189" s="239"/>
+      <c r="E189" s="198"/>
+      <c r="F189" s="192"/>
+      <c r="G189" s="193"/>
+      <c r="H189" s="193"/>
+      <c r="I189" s="193"/>
+      <c r="J189" s="192"/>
     </row>
     <row r="190" spans="1:10" s="123" customFormat="1">
       <c r="A190" s="122"/>
@@ -9130,29 +9133,29 @@
       <c r="I191" s="188"/>
       <c r="J191" s="189"/>
     </row>
-    <row r="192" spans="1:10" s="123" customFormat="1" ht="14.25">
-      <c r="A192" s="125"/>
-      <c r="B192" s="245"/>
-      <c r="C192" s="245"/>
-      <c r="D192" s="245"/>
-      <c r="E192" s="198"/>
-      <c r="F192" s="192"/>
-      <c r="G192" s="193"/>
-      <c r="H192" s="193"/>
-      <c r="I192" s="193"/>
-      <c r="J192" s="192"/>
-    </row>
-    <row r="193" spans="1:10" s="123" customFormat="1">
-      <c r="A193" s="122"/>
-      <c r="B193" s="194"/>
-      <c r="C193" s="188"/>
-      <c r="D193" s="187"/>
-      <c r="E193" s="187"/>
-      <c r="F193" s="187"/>
-      <c r="G193" s="188"/>
-      <c r="H193" s="188"/>
-      <c r="I193" s="188"/>
-      <c r="J193" s="189"/>
+    <row r="192" spans="1:10" s="123" customFormat="1">
+      <c r="A192" s="122"/>
+      <c r="B192" s="194"/>
+      <c r="C192" s="188"/>
+      <c r="D192" s="187"/>
+      <c r="E192" s="187"/>
+      <c r="F192" s="187"/>
+      <c r="G192" s="188"/>
+      <c r="H192" s="188"/>
+      <c r="I192" s="188"/>
+      <c r="J192" s="189"/>
+    </row>
+    <row r="193" spans="1:10" s="123" customFormat="1" ht="14.25">
+      <c r="A193" s="125"/>
+      <c r="B193" s="239"/>
+      <c r="C193" s="239"/>
+      <c r="D193" s="239"/>
+      <c r="E193" s="198"/>
+      <c r="F193" s="192"/>
+      <c r="G193" s="193"/>
+      <c r="H193" s="193"/>
+      <c r="I193" s="193"/>
+      <c r="J193" s="192"/>
     </row>
     <row r="194" spans="1:10" s="123" customFormat="1">
       <c r="A194" s="122"/>
@@ -9178,29 +9181,29 @@
       <c r="I195" s="188"/>
       <c r="J195" s="189"/>
     </row>
-    <row r="196" spans="1:10" s="123" customFormat="1" ht="14.25">
-      <c r="A196" s="125"/>
-      <c r="B196" s="245"/>
-      <c r="C196" s="245"/>
-      <c r="D196" s="245"/>
-      <c r="E196" s="198"/>
-      <c r="F196" s="192"/>
-      <c r="G196" s="193"/>
-      <c r="H196" s="193"/>
-      <c r="I196" s="193"/>
-      <c r="J196" s="192"/>
-    </row>
-    <row r="197" spans="1:10" s="123" customFormat="1">
-      <c r="A197" s="122"/>
-      <c r="B197" s="194"/>
-      <c r="C197" s="188"/>
-      <c r="D197" s="187"/>
-      <c r="E197" s="187"/>
-      <c r="F197" s="187"/>
-      <c r="G197" s="188"/>
-      <c r="H197" s="188"/>
-      <c r="I197" s="188"/>
-      <c r="J197" s="189"/>
+    <row r="196" spans="1:10" s="123" customFormat="1">
+      <c r="A196" s="122"/>
+      <c r="B196" s="194"/>
+      <c r="C196" s="188"/>
+      <c r="D196" s="187"/>
+      <c r="E196" s="187"/>
+      <c r="F196" s="187"/>
+      <c r="G196" s="188"/>
+      <c r="H196" s="188"/>
+      <c r="I196" s="188"/>
+      <c r="J196" s="189"/>
+    </row>
+    <row r="197" spans="1:10" s="123" customFormat="1" ht="14.25">
+      <c r="A197" s="125"/>
+      <c r="B197" s="239"/>
+      <c r="C197" s="239"/>
+      <c r="D197" s="239"/>
+      <c r="E197" s="198"/>
+      <c r="F197" s="192"/>
+      <c r="G197" s="193"/>
+      <c r="H197" s="193"/>
+      <c r="I197" s="193"/>
+      <c r="J197" s="192"/>
     </row>
     <row r="198" spans="1:10" s="123" customFormat="1">
       <c r="A198" s="122"/>
@@ -9214,29 +9217,29 @@
       <c r="I198" s="188"/>
       <c r="J198" s="189"/>
     </row>
-    <row r="199" spans="1:10" s="123" customFormat="1" ht="14.25">
-      <c r="A199" s="125"/>
-      <c r="B199" s="245"/>
-      <c r="C199" s="245"/>
-      <c r="D199" s="245"/>
-      <c r="E199" s="198"/>
-      <c r="F199" s="192"/>
-      <c r="G199" s="193"/>
-      <c r="H199" s="193"/>
-      <c r="I199" s="193"/>
-      <c r="J199" s="192"/>
-    </row>
-    <row r="200" spans="1:10" s="123" customFormat="1">
-      <c r="A200" s="122"/>
-      <c r="B200" s="194"/>
-      <c r="C200" s="188"/>
-      <c r="D200" s="187"/>
-      <c r="E200" s="187"/>
-      <c r="F200" s="187"/>
-      <c r="G200" s="188"/>
-      <c r="H200" s="188"/>
-      <c r="I200" s="188"/>
-      <c r="J200" s="189"/>
+    <row r="199" spans="1:10" s="123" customFormat="1">
+      <c r="A199" s="122"/>
+      <c r="B199" s="194"/>
+      <c r="C199" s="188"/>
+      <c r="D199" s="187"/>
+      <c r="E199" s="187"/>
+      <c r="F199" s="187"/>
+      <c r="G199" s="188"/>
+      <c r="H199" s="188"/>
+      <c r="I199" s="188"/>
+      <c r="J199" s="189"/>
+    </row>
+    <row r="200" spans="1:10" s="123" customFormat="1" ht="14.25">
+      <c r="A200" s="125"/>
+      <c r="B200" s="239"/>
+      <c r="C200" s="239"/>
+      <c r="D200" s="239"/>
+      <c r="E200" s="198"/>
+      <c r="F200" s="192"/>
+      <c r="G200" s="193"/>
+      <c r="H200" s="193"/>
+      <c r="I200" s="193"/>
+      <c r="J200" s="192"/>
     </row>
     <row r="201" spans="1:10" s="123" customFormat="1">
       <c r="A201" s="122"/>
@@ -9286,24 +9289,36 @@
       <c r="I204" s="188"/>
       <c r="J204" s="189"/>
     </row>
+    <row r="205" spans="1:10" s="123" customFormat="1">
+      <c r="A205" s="122"/>
+      <c r="B205" s="194"/>
+      <c r="C205" s="188"/>
+      <c r="D205" s="187"/>
+      <c r="E205" s="187"/>
+      <c r="F205" s="187"/>
+      <c r="G205" s="188"/>
+      <c r="H205" s="188"/>
+      <c r="I205" s="188"/>
+      <c r="J205" s="189"/>
+    </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B199:D199"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B156:D156"/>
-    <mergeCell ref="B188:D188"/>
-    <mergeCell ref="B192:D192"/>
-    <mergeCell ref="B196:D196"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B200:D200"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B157:D157"/>
+    <mergeCell ref="B189:D189"/>
+    <mergeCell ref="B193:D193"/>
+    <mergeCell ref="B197:D197"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="G16:I17" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -9314,11 +9329,11 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G205:I262" xr:uid="{00000000-0002-0000-0500-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G206:I263" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="H100:J149 G150:I204 G19:I99" xr:uid="{00000000-0002-0000-0500-000003000000}">
+    <dataValidation type="list" allowBlank="1" sqref="H101:J150 G151:I205 G19:I100" xr:uid="{00000000-0002-0000-0500-000003000000}">
       <formula1>$A$11:$A$15</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -9367,13 +9382,13 @@
     </row>
     <row r="2" spans="1:12" s="131" customFormat="1" ht="26.25">
       <c r="A2" s="130"/>
-      <c r="C2" s="248" t="s">
+      <c r="C2" s="259" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="248"/>
-      <c r="E2" s="248"/>
-      <c r="F2" s="248"/>
-      <c r="G2" s="248"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
+      <c r="F2" s="259"/>
+      <c r="G2" s="259"/>
       <c r="H2" s="132" t="s">
         <v>111</v>
       </c>
@@ -9384,15 +9399,15 @@
     </row>
     <row r="3" spans="1:12" s="131" customFormat="1" ht="23.25">
       <c r="A3" s="130"/>
-      <c r="C3" s="249" t="s">
+      <c r="C3" s="260" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="249"/>
+      <c r="D3" s="260"/>
       <c r="E3" s="134"/>
-      <c r="F3" s="250" t="s">
+      <c r="F3" s="261" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="250"/>
+      <c r="G3" s="261"/>
       <c r="H3" s="133"/>
       <c r="I3" s="133"/>
       <c r="J3" s="135"/>
@@ -9417,10 +9432,10 @@
       <c r="L5" s="140"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="251" t="s">
+      <c r="B6" s="255" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="251"/>
+      <c r="C6" s="255"/>
       <c r="D6" s="142"/>
       <c r="E6" s="142"/>
       <c r="F6" s="142"/>
@@ -9589,11 +9604,11 @@
       <c r="G13" s="146"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B14" s="251" t="s">
+      <c r="B14" s="255" t="s">
         <v>144</v>
       </c>
-      <c r="C14" s="251"/>
-      <c r="D14" s="251"/>
+      <c r="C14" s="255"/>
+      <c r="D14" s="255"/>
       <c r="E14" s="142"/>
       <c r="F14" s="142"/>
       <c r="G14" s="143"/>
@@ -9769,11 +9784,11 @@
       <c r="G22" s="146"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B23" s="251" t="s">
+      <c r="B23" s="255" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="251"/>
-      <c r="D23" s="251"/>
+      <c r="C23" s="255"/>
+      <c r="D23" s="255"/>
       <c r="E23" s="142"/>
       <c r="F23" s="142"/>
       <c r="G23" s="143"/>
@@ -9819,10 +9834,10 @@
       <c r="F26" s="148" t="s">
         <v>161</v>
       </c>
-      <c r="G26" s="252" t="s">
+      <c r="G26" s="258" t="s">
         <v>107</v>
       </c>
-      <c r="H26" s="252"/>
+      <c r="H26" s="258"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="155">
@@ -9847,8 +9862,8 @@
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="253"/>
-      <c r="H27" s="253"/>
+      <c r="G27" s="256"/>
+      <c r="H27" s="256"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
       <c r="A28" s="155">
@@ -9873,8 +9888,8 @@
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="253"/>
-      <c r="H28" s="253"/>
+      <c r="G28" s="256"/>
+      <c r="H28" s="256"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
       <c r="A29" s="155">
@@ -9899,8 +9914,8 @@
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="253"/>
-      <c r="H29" s="253"/>
+      <c r="G29" s="256"/>
+      <c r="H29" s="256"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
       <c r="A30" s="155">
@@ -9925,8 +9940,8 @@
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="253"/>
-      <c r="H30" s="253"/>
+      <c r="G30" s="256"/>
+      <c r="H30" s="256"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1">
       <c r="A31" s="155"/>
@@ -9947,8 +9962,8 @@
         <f>SUM(F27:F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="253"/>
-      <c r="H31" s="253"/>
+      <c r="G31" s="256"/>
+      <c r="H31" s="256"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1">
       <c r="A32" s="161"/>
@@ -9986,10 +10001,10 @@
       <c r="E34" s="148" t="s">
         <v>120</v>
       </c>
-      <c r="F34" s="254" t="s">
+      <c r="F34" s="252" t="s">
         <v>123</v>
       </c>
-      <c r="G34" s="254"/>
+      <c r="G34" s="252"/>
     </row>
     <row r="35" spans="1:12" s="154" customFormat="1" ht="14.25">
       <c r="A35" s="150"/>
@@ -10005,8 +10020,8 @@
       <c r="E35" s="159" t="s">
         <v>128</v>
       </c>
-      <c r="F35" s="255"/>
-      <c r="G35" s="255"/>
+      <c r="F35" s="257"/>
+      <c r="G35" s="257"/>
       <c r="H35" s="153"/>
       <c r="I35" s="153"/>
       <c r="J35" s="153"/>
@@ -10029,8 +10044,8 @@
       <c r="E36" s="160" t="s">
         <v>134</v>
       </c>
-      <c r="F36" s="253"/>
-      <c r="G36" s="253"/>
+      <c r="F36" s="256"/>
+      <c r="G36" s="256"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1">
       <c r="A37" s="155">
@@ -10048,8 +10063,8 @@
       <c r="E37" s="160" t="s">
         <v>134</v>
       </c>
-      <c r="F37" s="253"/>
-      <c r="G37" s="253"/>
+      <c r="F37" s="256"/>
+      <c r="G37" s="256"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1">
       <c r="A38" s="161"/>
@@ -10062,10 +10077,10 @@
       <c r="H38" s="165"/>
     </row>
     <row r="39" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B39" s="251" t="s">
+      <c r="B39" s="255" t="s">
         <v>177</v>
       </c>
-      <c r="C39" s="251"/>
+      <c r="C39" s="255"/>
       <c r="D39" s="142"/>
       <c r="E39" s="142"/>
       <c r="F39" s="142"/>
@@ -10089,15 +10104,15 @@
       <c r="B41" s="148" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="254" t="s">
+      <c r="C41" s="252" t="s">
         <v>179</v>
       </c>
-      <c r="D41" s="254"/>
-      <c r="E41" s="254" t="s">
+      <c r="D41" s="252"/>
+      <c r="E41" s="252" t="s">
         <v>180</v>
       </c>
-      <c r="F41" s="254"/>
-      <c r="G41" s="254"/>
+      <c r="F41" s="252"/>
+      <c r="G41" s="252"/>
       <c r="H41" s="147" t="s">
         <v>181</v>
       </c>
@@ -10109,15 +10124,15 @@
       <c r="B42" s="169" t="s">
         <v>182</v>
       </c>
-      <c r="C42" s="256" t="s">
+      <c r="C42" s="254" t="s">
         <v>183</v>
       </c>
-      <c r="D42" s="256"/>
-      <c r="E42" s="256" t="s">
+      <c r="D42" s="254"/>
+      <c r="E42" s="254" t="s">
         <v>184</v>
       </c>
-      <c r="F42" s="256"/>
-      <c r="G42" s="256"/>
+      <c r="F42" s="254"/>
+      <c r="G42" s="254"/>
       <c r="H42" s="170"/>
     </row>
     <row r="43" spans="1:12" ht="34.5" customHeight="1">
@@ -10127,15 +10142,15 @@
       <c r="B43" s="169" t="s">
         <v>182</v>
       </c>
-      <c r="C43" s="256" t="s">
+      <c r="C43" s="254" t="s">
         <v>183</v>
       </c>
-      <c r="D43" s="256"/>
-      <c r="E43" s="256" t="s">
+      <c r="D43" s="254"/>
+      <c r="E43" s="254" t="s">
         <v>184</v>
       </c>
-      <c r="F43" s="256"/>
-      <c r="G43" s="256"/>
+      <c r="F43" s="254"/>
+      <c r="G43" s="254"/>
       <c r="H43" s="170"/>
     </row>
     <row r="44" spans="1:12" ht="34.5" customHeight="1">
@@ -10145,15 +10160,15 @@
       <c r="B44" s="169" t="s">
         <v>182</v>
       </c>
-      <c r="C44" s="256" t="s">
+      <c r="C44" s="254" t="s">
         <v>183</v>
       </c>
-      <c r="D44" s="256"/>
-      <c r="E44" s="256" t="s">
+      <c r="D44" s="254"/>
+      <c r="E44" s="254" t="s">
         <v>184</v>
       </c>
-      <c r="F44" s="256"/>
-      <c r="G44" s="256"/>
+      <c r="F44" s="254"/>
+      <c r="G44" s="254"/>
       <c r="H44" s="170"/>
     </row>
     <row r="45" spans="1:12">
@@ -10165,10 +10180,10 @@
       <c r="G45" s="146"/>
     </row>
     <row r="46" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B46" s="251" t="s">
+      <c r="B46" s="255" t="s">
         <v>185</v>
       </c>
-      <c r="C46" s="251"/>
+      <c r="C46" s="255"/>
       <c r="D46" s="142"/>
       <c r="E46" s="142"/>
       <c r="F46" s="142"/>
@@ -10186,25 +10201,25 @@
       <c r="G47" s="146"/>
     </row>
     <row r="48" spans="1:12" s="174" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="258" t="s">
+      <c r="A48" s="250" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="259" t="s">
+      <c r="B48" s="251" t="s">
         <v>187</v>
       </c>
-      <c r="C48" s="254" t="s">
+      <c r="C48" s="252" t="s">
         <v>188</v>
       </c>
-      <c r="D48" s="254"/>
-      <c r="E48" s="254"/>
-      <c r="F48" s="254"/>
-      <c r="G48" s="260" t="s">
+      <c r="D48" s="252"/>
+      <c r="E48" s="252"/>
+      <c r="F48" s="252"/>
+      <c r="G48" s="253" t="s">
         <v>153</v>
       </c>
-      <c r="H48" s="260" t="s">
+      <c r="H48" s="253" t="s">
         <v>187</v>
       </c>
-      <c r="I48" s="257" t="s">
+      <c r="I48" s="249" t="s">
         <v>189</v>
       </c>
       <c r="J48" s="173"/>
@@ -10212,8 +10227,8 @@
       <c r="L48" s="173"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="258"/>
-      <c r="B49" s="259"/>
+      <c r="A49" s="250"/>
+      <c r="B49" s="251"/>
       <c r="C49" s="175" t="s">
         <v>162</v>
       </c>
@@ -10226,13 +10241,13 @@
       <c r="F49" s="176" t="s">
         <v>165</v>
       </c>
-      <c r="G49" s="260"/>
-      <c r="H49" s="260"/>
-      <c r="I49" s="257"/>
+      <c r="G49" s="253"/>
+      <c r="H49" s="253"/>
+      <c r="I49" s="249"/>
     </row>
     <row r="50" spans="1:9" ht="38.25">
-      <c r="A50" s="258"/>
-      <c r="B50" s="259"/>
+      <c r="A50" s="250"/>
+      <c r="B50" s="251"/>
       <c r="C50" s="177" t="s">
         <v>190</v>
       </c>
@@ -10344,38 +10359,38 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="I48:I49"/>
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="C48:F48"/>
     <mergeCell ref="G48:G49"/>
     <mergeCell ref="H48:H49"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">

--- a/MiddleAssignment_LeTuanSang/TestDesign4/TestDesign4_LeTuanSang.xlsx
+++ b/MiddleAssignment_LeTuanSang/TestDesign4/TestDesign4_LeTuanSang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NashTechHomeWork_LeTuanSang\MiddleAssignment_LeTuanSang\TestDesign4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D57255E-3DF6-4DB5-A5B9-25EDF76A3AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C119585-8295-4F48-83DB-FABAF20F48C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,7 +482,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="247">
   <si>
     <r>
       <rPr>
@@ -1329,6 +1329,9 @@
   </si>
   <si>
     <t>Verify save successfully when input valid data all fields. Address created exists on database and displayed on Address list</t>
+  </si>
+  <si>
+    <t>Verify that can NOT save successfully when not input  data all fields</t>
   </si>
 </sst>
 </file>
@@ -2823,30 +2826,30 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2859,6 +2862,27 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="17" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2868,26 +2892,32 @@
     <xf numFmtId="0" fontId="41" fillId="17" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="14" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="56" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="54" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="3" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="15" fillId="8" borderId="5" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2898,35 +2928,8 @@
     <xf numFmtId="164" fontId="15" fillId="8" borderId="4" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="15" fillId="8" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="3" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="56" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="54" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="14" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="11" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -3474,6 +3477,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
@@ -5386,36 +5392,36 @@
       <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" customHeight="1">
-      <c r="B2" s="231" t="s">
+      <c r="B2" s="227" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231"/>
-      <c r="F2" s="231"/>
-      <c r="G2" s="231"/>
-      <c r="H2" s="231"/>
-      <c r="I2" s="231"/>
-      <c r="J2" s="232" t="s">
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
+      <c r="H2" s="227"/>
+      <c r="I2" s="227"/>
+      <c r="J2" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="232"/>
+      <c r="K2" s="228"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" customHeight="1">
-      <c r="B3" s="233" t="s">
+      <c r="B3" s="229" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="233"/>
-      <c r="D3" s="233"/>
-      <c r="E3" s="233"/>
-      <c r="F3" s="234" t="s">
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="230" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="232"/>
-      <c r="K3" s="232"/>
+      <c r="G3" s="230"/>
+      <c r="H3" s="230"/>
+      <c r="I3" s="230"/>
+      <c r="J3" s="228"/>
+      <c r="K3" s="228"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="B4" s="26"/>
@@ -5435,65 +5441,65 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A7" s="229" t="s">
+      <c r="A7" s="231" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="229"/>
-      <c r="C7" s="229"/>
-      <c r="D7" s="229"/>
-      <c r="E7" s="229"/>
-      <c r="F7" s="229"/>
-      <c r="G7" s="229"/>
-      <c r="H7" s="229"/>
-      <c r="I7" s="229"/>
+      <c r="B7" s="231"/>
+      <c r="C7" s="231"/>
+      <c r="D7" s="231"/>
+      <c r="E7" s="231"/>
+      <c r="F7" s="231"/>
+      <c r="G7" s="231"/>
+      <c r="H7" s="231"/>
+      <c r="I7" s="231"/>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A8" s="229"/>
-      <c r="B8" s="229"/>
-      <c r="C8" s="229"/>
-      <c r="D8" s="229"/>
-      <c r="E8" s="229"/>
-      <c r="F8" s="229"/>
-      <c r="G8" s="229"/>
-      <c r="H8" s="229"/>
-      <c r="I8" s="229"/>
+      <c r="A8" s="231"/>
+      <c r="B8" s="231"/>
+      <c r="C8" s="231"/>
+      <c r="D8" s="231"/>
+      <c r="E8" s="231"/>
+      <c r="F8" s="231"/>
+      <c r="G8" s="231"/>
+      <c r="H8" s="231"/>
+      <c r="I8" s="231"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A9" s="229" t="s">
+      <c r="A9" s="231" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="229"/>
-      <c r="C9" s="229"/>
-      <c r="D9" s="229"/>
-      <c r="E9" s="229"/>
-      <c r="F9" s="229"/>
-      <c r="G9" s="229"/>
-      <c r="H9" s="229"/>
-      <c r="I9" s="229"/>
+      <c r="B9" s="231"/>
+      <c r="C9" s="231"/>
+      <c r="D9" s="231"/>
+      <c r="E9" s="231"/>
+      <c r="F9" s="231"/>
+      <c r="G9" s="231"/>
+      <c r="H9" s="231"/>
+      <c r="I9" s="231"/>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
-      <c r="A10" s="229"/>
-      <c r="B10" s="229"/>
-      <c r="C10" s="229"/>
-      <c r="D10" s="229"/>
-      <c r="E10" s="229"/>
-      <c r="F10" s="229"/>
-      <c r="G10" s="229"/>
-      <c r="H10" s="229"/>
-      <c r="I10" s="229"/>
+      <c r="A10" s="231"/>
+      <c r="B10" s="231"/>
+      <c r="C10" s="231"/>
+      <c r="D10" s="231"/>
+      <c r="E10" s="231"/>
+      <c r="F10" s="231"/>
+      <c r="G10" s="231"/>
+      <c r="H10" s="231"/>
+      <c r="I10" s="231"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="230" t="s">
+      <c r="A11" s="232" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="230"/>
-      <c r="C11" s="230"/>
-      <c r="D11" s="230"/>
-      <c r="E11" s="230"/>
-      <c r="F11" s="230"/>
-      <c r="G11" s="230"/>
-      <c r="H11" s="230"/>
-      <c r="I11" s="230"/>
+      <c r="B11" s="232"/>
+      <c r="C11" s="232"/>
+      <c r="D11" s="232"/>
+      <c r="E11" s="232"/>
+      <c r="F11" s="232"/>
+      <c r="G11" s="232"/>
+      <c r="H11" s="232"/>
+      <c r="I11" s="232"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="30"/>
@@ -5515,65 +5521,65 @@
       <c r="A14" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="227" t="s">
+      <c r="B14" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="227"/>
-      <c r="D14" s="227"/>
-      <c r="E14" s="227"/>
-      <c r="F14" s="227"/>
-      <c r="G14" s="227"/>
-      <c r="H14" s="227"/>
-      <c r="I14" s="227"/>
-      <c r="J14" s="227"/>
-      <c r="K14" s="227"/>
+      <c r="C14" s="233"/>
+      <c r="D14" s="233"/>
+      <c r="E14" s="233"/>
+      <c r="F14" s="233"/>
+      <c r="G14" s="233"/>
+      <c r="H14" s="233"/>
+      <c r="I14" s="233"/>
+      <c r="J14" s="233"/>
+      <c r="K14" s="233"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
       <c r="A15" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="227" t="s">
+      <c r="B15" s="233" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="227"/>
-      <c r="D15" s="227"/>
-      <c r="E15" s="227"/>
-      <c r="F15" s="227"/>
-      <c r="G15" s="227"/>
-      <c r="H15" s="227"/>
-      <c r="I15" s="227"/>
-      <c r="J15" s="227"/>
-      <c r="K15" s="227"/>
+      <c r="C15" s="233"/>
+      <c r="D15" s="233"/>
+      <c r="E15" s="233"/>
+      <c r="F15" s="233"/>
+      <c r="G15" s="233"/>
+      <c r="H15" s="233"/>
+      <c r="I15" s="233"/>
+      <c r="J15" s="233"/>
+      <c r="K15" s="233"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1">
       <c r="A16" s="31"/>
-      <c r="B16" s="227" t="s">
+      <c r="B16" s="233" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="227"/>
-      <c r="D16" s="227"/>
-      <c r="E16" s="227"/>
-      <c r="F16" s="227"/>
-      <c r="G16" s="227"/>
-      <c r="H16" s="227"/>
-      <c r="I16" s="227"/>
-      <c r="J16" s="227"/>
-      <c r="K16" s="227"/>
+      <c r="C16" s="233"/>
+      <c r="D16" s="233"/>
+      <c r="E16" s="233"/>
+      <c r="F16" s="233"/>
+      <c r="G16" s="233"/>
+      <c r="H16" s="233"/>
+      <c r="I16" s="233"/>
+      <c r="J16" s="233"/>
+      <c r="K16" s="233"/>
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1">
       <c r="A17" s="31"/>
-      <c r="B17" s="227" t="s">
+      <c r="B17" s="233" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="227"/>
-      <c r="D17" s="227"/>
-      <c r="E17" s="227"/>
-      <c r="F17" s="227"/>
-      <c r="G17" s="227"/>
-      <c r="H17" s="227"/>
-      <c r="I17" s="227"/>
-      <c r="J17" s="227"/>
-      <c r="K17" s="227"/>
+      <c r="C17" s="233"/>
+      <c r="D17" s="233"/>
+      <c r="E17" s="233"/>
+      <c r="F17" s="233"/>
+      <c r="G17" s="233"/>
+      <c r="H17" s="233"/>
+      <c r="I17" s="233"/>
+      <c r="J17" s="233"/>
+      <c r="K17" s="233"/>
     </row>
     <row r="19" spans="1:14" ht="23.25">
       <c r="A19" s="29" t="s">
@@ -5584,40 +5590,40 @@
       <c r="A20" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="227" t="s">
+      <c r="B20" s="233" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="227"/>
-      <c r="D20" s="227"/>
-      <c r="E20" s="227"/>
-      <c r="F20" s="227"/>
-      <c r="G20" s="227"/>
+      <c r="C20" s="233"/>
+      <c r="D20" s="233"/>
+      <c r="E20" s="233"/>
+      <c r="F20" s="233"/>
+      <c r="G20" s="233"/>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1">
       <c r="A21" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="227" t="s">
+      <c r="B21" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="227"/>
-      <c r="D21" s="227"/>
-      <c r="E21" s="227"/>
-      <c r="F21" s="227"/>
-      <c r="G21" s="227"/>
+      <c r="C21" s="233"/>
+      <c r="D21" s="233"/>
+      <c r="E21" s="233"/>
+      <c r="F21" s="233"/>
+      <c r="G21" s="233"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
       <c r="A22" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="233" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="227"/>
-      <c r="D22" s="227"/>
-      <c r="E22" s="227"/>
-      <c r="F22" s="227"/>
-      <c r="G22" s="227"/>
+      <c r="C22" s="233"/>
+      <c r="D22" s="233"/>
+      <c r="E22" s="233"/>
+      <c r="F22" s="233"/>
+      <c r="G22" s="233"/>
     </row>
     <row r="24" spans="1:14" ht="23.25">
       <c r="A24" s="29" t="s">
@@ -5676,11 +5682,11 @@
       <c r="N27" s="34"/>
     </row>
     <row r="29" spans="1:14" ht="21.75" customHeight="1">
-      <c r="B29" s="228" t="s">
+      <c r="B29" s="234" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="228"/>
-      <c r="D29" s="228"/>
+      <c r="C29" s="234"/>
+      <c r="D29" s="234"/>
     </row>
     <row r="30" spans="1:14" ht="90" customHeight="1">
       <c r="B30" s="35"/>
@@ -5703,21 +5709,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A9:I10"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B16:K16"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="J2:K3"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="A7:I8"/>
-    <mergeCell ref="A9:I10"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B29:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6171,8 +6177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMJ205"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -6189,10 +6195,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="23" customFormat="1" ht="14.25">
-      <c r="A1" s="245"/>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
+      <c r="A1" s="239"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
       <c r="E1" s="25"/>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
@@ -6202,14 +6208,14 @@
       <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:25" s="23" customFormat="1" ht="26.25">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="240" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
+      <c r="B2" s="240"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
       <c r="E2" s="71"/>
-      <c r="F2" s="247"/>
+      <c r="F2" s="241"/>
       <c r="G2" s="56"/>
       <c r="H2" s="56"/>
       <c r="I2" s="56"/>
@@ -6219,10 +6225,10 @@
     <row r="3" spans="1:25" s="23" customFormat="1" ht="23.25">
       <c r="A3" s="72"/>
       <c r="B3" s="73"/>
-      <c r="C3" s="248"/>
-      <c r="D3" s="248"/>
+      <c r="C3" s="242"/>
+      <c r="D3" s="242"/>
       <c r="E3" s="74"/>
-      <c r="F3" s="247"/>
+      <c r="F3" s="241"/>
       <c r="G3" s="56"/>
       <c r="H3" s="56"/>
       <c r="I3" s="56"/>
@@ -6233,9 +6239,9 @@
       <c r="A4" s="75" t="s">
         <v>197</v>
       </c>
-      <c r="B4" s="242"/>
-      <c r="C4" s="242"/>
-      <c r="D4" s="242"/>
+      <c r="B4" s="243"/>
+      <c r="C4" s="243"/>
+      <c r="D4" s="243"/>
       <c r="E4" s="76"/>
       <c r="F4" s="77"/>
       <c r="G4" s="77"/>
@@ -6250,9 +6256,9 @@
       <c r="A5" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="242"/>
-      <c r="C5" s="242"/>
-      <c r="D5" s="242"/>
+      <c r="B5" s="243"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
       <c r="E5" s="76"/>
       <c r="F5" s="77"/>
       <c r="G5" s="77"/>
@@ -6267,9 +6273,9 @@
       <c r="A6" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="242"/>
-      <c r="C6" s="242"/>
-      <c r="D6" s="242"/>
+      <c r="B6" s="243"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="243"/>
       <c r="E6" s="76"/>
       <c r="F6" s="77"/>
       <c r="G6" s="77"/>
@@ -6281,11 +6287,11 @@
       <c r="A7" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="242" t="s">
+      <c r="B7" s="243" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="242"/>
-      <c r="D7" s="242"/>
+      <c r="C7" s="243"/>
+      <c r="D7" s="243"/>
       <c r="E7" s="76"/>
       <c r="F7" s="77"/>
       <c r="G7" s="77"/>
@@ -6298,9 +6304,9 @@
       <c r="A8" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="243"/>
-      <c r="C8" s="243"/>
-      <c r="D8" s="243"/>
+      <c r="B8" s="244"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="244"/>
       <c r="E8" s="82"/>
       <c r="F8" s="77"/>
     </row>
@@ -6452,11 +6458,11 @@
       <c r="D16" s="94"/>
       <c r="E16" s="94"/>
       <c r="F16" s="95"/>
-      <c r="G16" s="244" t="s">
+      <c r="G16" s="245" t="s">
         <v>99</v>
       </c>
-      <c r="H16" s="244"/>
-      <c r="I16" s="244"/>
+      <c r="H16" s="245"/>
+      <c r="I16" s="245"/>
       <c r="J16" s="96"/>
     </row>
     <row r="17" spans="1:10" s="97" customFormat="1" ht="51">
@@ -6485,11 +6491,11 @@
     </row>
     <row r="18" spans="1:10" s="97" customFormat="1" ht="12.75">
       <c r="A18" s="100"/>
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="247" t="s">
         <v>199</v>
       </c>
-      <c r="C18" s="240"/>
-      <c r="D18" s="240"/>
+      <c r="C18" s="247"/>
+      <c r="D18" s="247"/>
       <c r="E18" s="102"/>
       <c r="F18" s="101"/>
       <c r="G18" s="103"/>
@@ -7671,10 +7677,12 @@
     </row>
     <row r="88" spans="1:10" s="108" customFormat="1">
       <c r="A88" s="220"/>
-      <c r="B88" s="109"/>
+      <c r="B88" s="109" t="s">
+        <v>246</v>
+      </c>
       <c r="C88" s="109"/>
       <c r="D88" s="110"/>
-      <c r="E88" s="112"/>
+      <c r="E88" s="219"/>
       <c r="F88" s="115"/>
       <c r="G88" s="117"/>
       <c r="H88" s="117"/>
@@ -8715,9 +8723,9 @@
     </row>
     <row r="157" spans="1:11" s="123" customFormat="1">
       <c r="A157" s="121"/>
-      <c r="B157" s="241"/>
-      <c r="C157" s="241"/>
-      <c r="D157" s="241"/>
+      <c r="B157" s="248"/>
+      <c r="C157" s="248"/>
+      <c r="D157" s="248"/>
       <c r="E157" s="197"/>
       <c r="F157" s="187"/>
       <c r="G157" s="188"/>
@@ -9099,9 +9107,9 @@
     </row>
     <row r="189" spans="1:10" s="123" customFormat="1" ht="14.25">
       <c r="A189" s="125"/>
-      <c r="B189" s="239"/>
-      <c r="C189" s="239"/>
-      <c r="D189" s="239"/>
+      <c r="B189" s="246"/>
+      <c r="C189" s="246"/>
+      <c r="D189" s="246"/>
       <c r="E189" s="198"/>
       <c r="F189" s="192"/>
       <c r="G189" s="193"/>
@@ -9147,9 +9155,9 @@
     </row>
     <row r="193" spans="1:10" s="123" customFormat="1" ht="14.25">
       <c r="A193" s="125"/>
-      <c r="B193" s="239"/>
-      <c r="C193" s="239"/>
-      <c r="D193" s="239"/>
+      <c r="B193" s="246"/>
+      <c r="C193" s="246"/>
+      <c r="D193" s="246"/>
       <c r="E193" s="198"/>
       <c r="F193" s="192"/>
       <c r="G193" s="193"/>
@@ -9195,9 +9203,9 @@
     </row>
     <row r="197" spans="1:10" s="123" customFormat="1" ht="14.25">
       <c r="A197" s="125"/>
-      <c r="B197" s="239"/>
-      <c r="C197" s="239"/>
-      <c r="D197" s="239"/>
+      <c r="B197" s="246"/>
+      <c r="C197" s="246"/>
+      <c r="D197" s="246"/>
       <c r="E197" s="198"/>
       <c r="F197" s="192"/>
       <c r="G197" s="193"/>
@@ -9231,9 +9239,9 @@
     </row>
     <row r="200" spans="1:10" s="123" customFormat="1" ht="14.25">
       <c r="A200" s="125"/>
-      <c r="B200" s="239"/>
-      <c r="C200" s="239"/>
-      <c r="D200" s="239"/>
+      <c r="B200" s="246"/>
+      <c r="C200" s="246"/>
+      <c r="D200" s="246"/>
       <c r="E200" s="198"/>
       <c r="F200" s="192"/>
       <c r="G200" s="193"/>
@@ -9303,22 +9311,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G16:I16"/>
     <mergeCell ref="B200:D200"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B157:D157"/>
     <mergeCell ref="B189:D189"/>
     <mergeCell ref="B193:D193"/>
     <mergeCell ref="B197:D197"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="G16:I17" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -9382,13 +9390,13 @@
     </row>
     <row r="2" spans="1:12" s="131" customFormat="1" ht="26.25">
       <c r="A2" s="130"/>
-      <c r="C2" s="259" t="s">
+      <c r="C2" s="249" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="259"/>
-      <c r="E2" s="259"/>
-      <c r="F2" s="259"/>
-      <c r="G2" s="259"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
+      <c r="G2" s="249"/>
       <c r="H2" s="132" t="s">
         <v>111</v>
       </c>
@@ -9399,15 +9407,15 @@
     </row>
     <row r="3" spans="1:12" s="131" customFormat="1" ht="23.25">
       <c r="A3" s="130"/>
-      <c r="C3" s="260" t="s">
+      <c r="C3" s="250" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="260"/>
+      <c r="D3" s="250"/>
       <c r="E3" s="134"/>
-      <c r="F3" s="261" t="s">
+      <c r="F3" s="251" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="261"/>
+      <c r="G3" s="251"/>
       <c r="H3" s="133"/>
       <c r="I3" s="133"/>
       <c r="J3" s="135"/>
@@ -9432,10 +9440,10 @@
       <c r="L5" s="140"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="255" t="s">
+      <c r="B6" s="252" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="255"/>
+      <c r="C6" s="252"/>
       <c r="D6" s="142"/>
       <c r="E6" s="142"/>
       <c r="F6" s="142"/>
@@ -9604,11 +9612,11 @@
       <c r="G13" s="146"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B14" s="255" t="s">
+      <c r="B14" s="252" t="s">
         <v>144</v>
       </c>
-      <c r="C14" s="255"/>
-      <c r="D14" s="255"/>
+      <c r="C14" s="252"/>
+      <c r="D14" s="252"/>
       <c r="E14" s="142"/>
       <c r="F14" s="142"/>
       <c r="G14" s="143"/>
@@ -9784,11 +9792,11 @@
       <c r="G22" s="146"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B23" s="255" t="s">
+      <c r="B23" s="252" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="255"/>
-      <c r="D23" s="255"/>
+      <c r="C23" s="252"/>
+      <c r="D23" s="252"/>
       <c r="E23" s="142"/>
       <c r="F23" s="142"/>
       <c r="G23" s="143"/>
@@ -9834,10 +9842,10 @@
       <c r="F26" s="148" t="s">
         <v>161</v>
       </c>
-      <c r="G26" s="258" t="s">
+      <c r="G26" s="253" t="s">
         <v>107</v>
       </c>
-      <c r="H26" s="258"/>
+      <c r="H26" s="253"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="155">
@@ -9862,8 +9870,8 @@
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="256"/>
-      <c r="H27" s="256"/>
+      <c r="G27" s="254"/>
+      <c r="H27" s="254"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
       <c r="A28" s="155">
@@ -9888,8 +9896,8 @@
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="256"/>
-      <c r="H28" s="256"/>
+      <c r="G28" s="254"/>
+      <c r="H28" s="254"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
       <c r="A29" s="155">
@@ -9914,8 +9922,8 @@
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="256"/>
-      <c r="H29" s="256"/>
+      <c r="G29" s="254"/>
+      <c r="H29" s="254"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
       <c r="A30" s="155">
@@ -9940,8 +9948,8 @@
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="256"/>
-      <c r="H30" s="256"/>
+      <c r="G30" s="254"/>
+      <c r="H30" s="254"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1">
       <c r="A31" s="155"/>
@@ -9962,8 +9970,8 @@
         <f>SUM(F27:F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="256"/>
-      <c r="H31" s="256"/>
+      <c r="G31" s="254"/>
+      <c r="H31" s="254"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1">
       <c r="A32" s="161"/>
@@ -10001,10 +10009,10 @@
       <c r="E34" s="148" t="s">
         <v>120</v>
       </c>
-      <c r="F34" s="252" t="s">
+      <c r="F34" s="255" t="s">
         <v>123</v>
       </c>
-      <c r="G34" s="252"/>
+      <c r="G34" s="255"/>
     </row>
     <row r="35" spans="1:12" s="154" customFormat="1" ht="14.25">
       <c r="A35" s="150"/>
@@ -10020,8 +10028,8 @@
       <c r="E35" s="159" t="s">
         <v>128</v>
       </c>
-      <c r="F35" s="257"/>
-      <c r="G35" s="257"/>
+      <c r="F35" s="256"/>
+      <c r="G35" s="256"/>
       <c r="H35" s="153"/>
       <c r="I35" s="153"/>
       <c r="J35" s="153"/>
@@ -10044,8 +10052,8 @@
       <c r="E36" s="160" t="s">
         <v>134</v>
       </c>
-      <c r="F36" s="256"/>
-      <c r="G36" s="256"/>
+      <c r="F36" s="254"/>
+      <c r="G36" s="254"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1">
       <c r="A37" s="155">
@@ -10063,8 +10071,8 @@
       <c r="E37" s="160" t="s">
         <v>134</v>
       </c>
-      <c r="F37" s="256"/>
-      <c r="G37" s="256"/>
+      <c r="F37" s="254"/>
+      <c r="G37" s="254"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1">
       <c r="A38" s="161"/>
@@ -10077,10 +10085,10 @@
       <c r="H38" s="165"/>
     </row>
     <row r="39" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B39" s="255" t="s">
+      <c r="B39" s="252" t="s">
         <v>177</v>
       </c>
-      <c r="C39" s="255"/>
+      <c r="C39" s="252"/>
       <c r="D39" s="142"/>
       <c r="E39" s="142"/>
       <c r="F39" s="142"/>
@@ -10104,15 +10112,15 @@
       <c r="B41" s="148" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="252" t="s">
+      <c r="C41" s="255" t="s">
         <v>179</v>
       </c>
-      <c r="D41" s="252"/>
-      <c r="E41" s="252" t="s">
+      <c r="D41" s="255"/>
+      <c r="E41" s="255" t="s">
         <v>180</v>
       </c>
-      <c r="F41" s="252"/>
-      <c r="G41" s="252"/>
+      <c r="F41" s="255"/>
+      <c r="G41" s="255"/>
       <c r="H41" s="147" t="s">
         <v>181</v>
       </c>
@@ -10124,15 +10132,15 @@
       <c r="B42" s="169" t="s">
         <v>182</v>
       </c>
-      <c r="C42" s="254" t="s">
+      <c r="C42" s="257" t="s">
         <v>183</v>
       </c>
-      <c r="D42" s="254"/>
-      <c r="E42" s="254" t="s">
+      <c r="D42" s="257"/>
+      <c r="E42" s="257" t="s">
         <v>184</v>
       </c>
-      <c r="F42" s="254"/>
-      <c r="G42" s="254"/>
+      <c r="F42" s="257"/>
+      <c r="G42" s="257"/>
       <c r="H42" s="170"/>
     </row>
     <row r="43" spans="1:12" ht="34.5" customHeight="1">
@@ -10142,15 +10150,15 @@
       <c r="B43" s="169" t="s">
         <v>182</v>
       </c>
-      <c r="C43" s="254" t="s">
+      <c r="C43" s="257" t="s">
         <v>183</v>
       </c>
-      <c r="D43" s="254"/>
-      <c r="E43" s="254" t="s">
+      <c r="D43" s="257"/>
+      <c r="E43" s="257" t="s">
         <v>184</v>
       </c>
-      <c r="F43" s="254"/>
-      <c r="G43" s="254"/>
+      <c r="F43" s="257"/>
+      <c r="G43" s="257"/>
       <c r="H43" s="170"/>
     </row>
     <row r="44" spans="1:12" ht="34.5" customHeight="1">
@@ -10160,15 +10168,15 @@
       <c r="B44" s="169" t="s">
         <v>182</v>
       </c>
-      <c r="C44" s="254" t="s">
+      <c r="C44" s="257" t="s">
         <v>183</v>
       </c>
-      <c r="D44" s="254"/>
-      <c r="E44" s="254" t="s">
+      <c r="D44" s="257"/>
+      <c r="E44" s="257" t="s">
         <v>184</v>
       </c>
-      <c r="F44" s="254"/>
-      <c r="G44" s="254"/>
+      <c r="F44" s="257"/>
+      <c r="G44" s="257"/>
       <c r="H44" s="170"/>
     </row>
     <row r="45" spans="1:12">
@@ -10180,10 +10188,10 @@
       <c r="G45" s="146"/>
     </row>
     <row r="46" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B46" s="255" t="s">
+      <c r="B46" s="252" t="s">
         <v>185</v>
       </c>
-      <c r="C46" s="255"/>
+      <c r="C46" s="252"/>
       <c r="D46" s="142"/>
       <c r="E46" s="142"/>
       <c r="F46" s="142"/>
@@ -10201,25 +10209,25 @@
       <c r="G47" s="146"/>
     </row>
     <row r="48" spans="1:12" s="174" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="250" t="s">
+      <c r="A48" s="259" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="251" t="s">
+      <c r="B48" s="260" t="s">
         <v>187</v>
       </c>
-      <c r="C48" s="252" t="s">
+      <c r="C48" s="255" t="s">
         <v>188</v>
       </c>
-      <c r="D48" s="252"/>
-      <c r="E48" s="252"/>
-      <c r="F48" s="252"/>
-      <c r="G48" s="253" t="s">
+      <c r="D48" s="255"/>
+      <c r="E48" s="255"/>
+      <c r="F48" s="255"/>
+      <c r="G48" s="261" t="s">
         <v>153</v>
       </c>
-      <c r="H48" s="253" t="s">
+      <c r="H48" s="261" t="s">
         <v>187</v>
       </c>
-      <c r="I48" s="249" t="s">
+      <c r="I48" s="258" t="s">
         <v>189</v>
       </c>
       <c r="J48" s="173"/>
@@ -10227,8 +10235,8 @@
       <c r="L48" s="173"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="250"/>
-      <c r="B49" s="251"/>
+      <c r="A49" s="259"/>
+      <c r="B49" s="260"/>
       <c r="C49" s="175" t="s">
         <v>162</v>
       </c>
@@ -10241,13 +10249,13 @@
       <c r="F49" s="176" t="s">
         <v>165</v>
       </c>
-      <c r="G49" s="253"/>
-      <c r="H49" s="253"/>
-      <c r="I49" s="249"/>
+      <c r="G49" s="261"/>
+      <c r="H49" s="261"/>
+      <c r="I49" s="258"/>
     </row>
     <row r="50" spans="1:9" ht="38.25">
-      <c r="A50" s="250"/>
-      <c r="B50" s="251"/>
+      <c r="A50" s="259"/>
+      <c r="B50" s="260"/>
       <c r="C50" s="177" t="s">
         <v>190</v>
       </c>
@@ -10359,38 +10367,38 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="E41:G41"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="E42:G42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">

--- a/MiddleAssignment_LeTuanSang/TestDesign4/TestDesign4_LeTuanSang.xlsx
+++ b/MiddleAssignment_LeTuanSang/TestDesign4/TestDesign4_LeTuanSang.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NashTechHomeWork_LeTuanSang\MiddleAssignment_LeTuanSang\TestDesign4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\sang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C119585-8295-4F48-83DB-FABAF20F48C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3051A3E9-F8AF-4EDD-8CB2-AB24151AFFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,10 +43,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -116,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000C000000}">
+    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -134,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000010000000}">
+    <comment ref="I17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -152,32 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G90" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF323232"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Nguyen Dao Thi Binh:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Bug ID: 13050</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G161" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+    <comment ref="G165" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -202,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G163" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
+    <comment ref="G167" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -227,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G166" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
+    <comment ref="G170" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
       <text>
         <r>
           <rPr>
@@ -252,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G179" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
+    <comment ref="G183" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
       <text>
         <r>
           <rPr>
@@ -277,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H179" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000D000000}">
+    <comment ref="H183" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
       <text>
         <r>
           <rPr>
@@ -302,7 +276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G180" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
+    <comment ref="G184" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -327,7 +301,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H180" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000E000000}">
+    <comment ref="H184" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -352,7 +326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G185" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
+    <comment ref="G189" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -377,7 +351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H185" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000F000000}">
+    <comment ref="H189" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -402,7 +376,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G188" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
+    <comment ref="G192" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -427,7 +401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G203" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000A000000}">
+    <comment ref="G207" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -452,7 +426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G205" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000B000000}">
+    <comment ref="G209" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000010000000}">
       <text>
         <r>
           <rPr>
@@ -482,7 +456,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="263">
   <si>
     <r>
       <rPr>
@@ -899,9 +873,6 @@
     <t>Note</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1193,18 +1164,6 @@
     <t>Validate</t>
   </si>
   <si>
-    <t>Check Full name by pasting data</t>
-  </si>
-  <si>
-    <t>Check that show error message if input 1 Numeric</t>
-  </si>
-  <si>
-    <t>Check that show error message if leave blank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check that show error message if input invalid data </t>
-  </si>
-  <si>
     <t>Check if X button show up when input data and can click to clear data</t>
   </si>
   <si>
@@ -1214,33 +1173,15 @@
     <t>Check Full name when input URL, SQL, HTTP GET, SQL Injection, XSS</t>
   </si>
   <si>
-    <t>Check that show error message if input 1 Alphanumeric</t>
-  </si>
-  <si>
     <t>Check  if input 2 Alphanumeric</t>
   </si>
   <si>
-    <t>2-50 Alphanumeric</t>
-  </si>
-  <si>
     <t>Check  if input 50 Alphanumeric</t>
   </si>
   <si>
-    <t>Check that show error message if input  51 Alphanumeric</t>
-  </si>
-  <si>
     <t>Check  if input 10 Numeric</t>
   </si>
   <si>
-    <t>Check  if input &gt;10 Numeric</t>
-  </si>
-  <si>
-    <t>Check if input data existsed on another Address</t>
-  </si>
-  <si>
-    <t>Check if input data existsed on another Account</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
@@ -1250,30 +1191,12 @@
     <t>Check  if input 350 Alphanumeric</t>
   </si>
   <si>
-    <t>Check that show error message if input 351 Alphanumeric</t>
-  </si>
-  <si>
-    <t>Check that show error message if input &lt;5 Alphanumeric</t>
-  </si>
-  <si>
     <t>Check when input URL, SQL, HTTP GET, SQL Injection, XSS</t>
   </si>
   <si>
-    <t>Check by pasting data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check inicial status </t>
-  </si>
-  <si>
-    <t>Check inicial status</t>
-  </si>
-  <si>
     <t>Verify that automatic trim the space</t>
   </si>
   <si>
-    <t xml:space="preserve">Check Full name by pasting data( only trim </t>
-  </si>
-  <si>
     <t>Province</t>
   </si>
   <si>
@@ -1283,55 +1206,154 @@
     <t xml:space="preserve">Check Province by select </t>
   </si>
   <si>
-    <t>Check value of the Province droplist is sort ascending</t>
-  </si>
-  <si>
     <t>District</t>
   </si>
   <si>
-    <t>Check the change of District when changing the Province</t>
-  </si>
-  <si>
     <t>Ward</t>
   </si>
   <si>
-    <t>Check the change of Ward when changing the District</t>
-  </si>
-  <si>
-    <t>Check value of the Ward droplist is sort ascending</t>
-  </si>
-  <si>
     <t>Check value of the District droplist is sort ascending</t>
   </si>
   <si>
     <t>Label for delivery</t>
   </si>
   <si>
-    <t xml:space="preserve">Check Label by select </t>
-  </si>
-  <si>
     <t>Verify that can NOT save successfully when input invalid data all fields</t>
   </si>
   <si>
-    <t>Verify that can NOT save successfully when input invalid data in single fiels</t>
-  </si>
-  <si>
     <t>Check if create Address that is the same as an existing one</t>
   </si>
   <si>
-    <t>cover by validate case</t>
-  </si>
-  <si>
-    <t>Check if click on Cancel button, back to previous page</t>
-  </si>
-  <si>
     <t>funtion Save, Cancel</t>
   </si>
   <si>
-    <t>Verify save successfully when input valid data all fields. Address created exists on database and displayed on Address list</t>
-  </si>
-  <si>
-    <t>Verify that can NOT save successfully when not input  data all fields</t>
+    <t>Check allow to copy &amp; paste value</t>
+  </si>
+  <si>
+    <t>Main Function</t>
+  </si>
+  <si>
+    <t>Check if X icon show up when input data and can click to clear data</t>
+  </si>
+  <si>
+    <t>Check initial status</t>
+  </si>
+  <si>
+    <t>Check  if input data in the range from 2-50 Alphanumeric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that automatic trim the space </t>
+  </si>
+  <si>
+    <t>Verify that automatic trim the space before and after</t>
+  </si>
+  <si>
+    <t>Check  if input 11 Numeric</t>
+  </si>
+  <si>
+    <t>Check that show error message if input 9 Numeric</t>
+  </si>
+  <si>
+    <t>Check  if input special character</t>
+  </si>
+  <si>
+    <t>Check  if input alphabetical character</t>
+  </si>
+  <si>
+    <t>Check Province by select second value</t>
+  </si>
+  <si>
+    <t>Check Province droplist has a scroll bar</t>
+  </si>
+  <si>
+    <t>Check NOT allow to copy &amp; paste value</t>
+  </si>
+  <si>
+    <t>Check  Only clickable when Province option is selected</t>
+  </si>
+  <si>
+    <t>Check District by input data</t>
+  </si>
+  <si>
+    <t>Check District by select</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check District by select second value </t>
+  </si>
+  <si>
+    <t>Check District droplist has a scroll bar</t>
+  </si>
+  <si>
+    <t>Check value of the Province droplist is 63 provinces and sort ascending</t>
+  </si>
+  <si>
+    <t>Check District will be updated when Province value is changed</t>
+  </si>
+  <si>
+    <t>Check Ward will be updated when Province value is changed</t>
+  </si>
+  <si>
+    <t>Check Ward by input data</t>
+  </si>
+  <si>
+    <t>Check Ward by select</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Ward by select second value </t>
+  </si>
+  <si>
+    <t>Check Ward droplist has a scroll bar</t>
+  </si>
+  <si>
+    <t>Check only clickable when District option is selected</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>Verify that can NOT save successfully when not input data all fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Home and Office button is clickable </t>
+  </si>
+  <si>
+    <t>Check Home and Office icon</t>
+  </si>
+  <si>
+    <t>. Address created exists on database and displayed on Address list</t>
+  </si>
+  <si>
+    <t>Verify save successfully when input valid data all fields as Home</t>
+  </si>
+  <si>
+    <t>Verify save successfully when input valid data all fields as Office</t>
+  </si>
+  <si>
+    <t>Check multi address for one persion</t>
+  </si>
+  <si>
+    <t>Check if click on Cancel button when input nothing</t>
+  </si>
+  <si>
+    <t>Check if click on Cancel button when input valid data all fields</t>
+  </si>
+  <si>
+    <t>Check mandatory of this field</t>
+  </si>
+  <si>
+    <t>Check  if input 1 Alphanumeric</t>
+  </si>
+  <si>
+    <t>Check  if input  51 Alphanumeric</t>
+  </si>
+  <si>
+    <t>Check  if input 4 Alphanumeric</t>
+  </si>
+  <si>
+    <t>Check  if input 6 Alphanumeric</t>
+  </si>
+  <si>
+    <t>Check  if input 351 Alphanumeric</t>
   </si>
 </sst>
 </file>
@@ -1345,7 +1367,7 @@
     <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="168" formatCode="[$-409]0.00%"/>
   </numFmts>
-  <fonts count="66">
+  <fonts count="67">
     <font>
       <sz val="11"/>
       <color rgb="FF323232"/>
@@ -1832,8 +1854,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1948,8 +1977,14 @@
         <bgColor rgb="FFD6D6D6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2150,6 +2185,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2200,7 +2265,7 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="262">
+  <cellXfs count="267">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
@@ -2784,9 +2849,6 @@
     <xf numFmtId="0" fontId="37" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="17" borderId="3" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2794,10 +2856,6 @@
     <xf numFmtId="0" fontId="41" fillId="17" borderId="11" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="64" fillId="17" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2808,6 +2866,30 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="11" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2933,33 +3015,33 @@
     </xf>
   </cellXfs>
   <cellStyles count="27">
-    <cellStyle name="background" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="background 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="body_tyext" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="document title" xfId="6" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="group" xfId="7" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Header" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Heading 3" xfId="9" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="background" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="background 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="body_tyext" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="document title" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="group" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Header" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Heading 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Normal 2 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Normal 2 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Normal 3" xfId="14" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Normal 4" xfId="15" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Normal 6" xfId="16" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Normal_GUI - Checklist" xfId="17" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Normal_Sheet1" xfId="18" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="page title" xfId="19" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Paragrap title" xfId="20" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Paragrap title 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Percent 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Table header" xfId="23" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Table header 2" xfId="24" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="table_cell" xfId="25" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="標準_040802 債権ＤＢ" xfId="26" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Normal 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 2 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 2 3" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 3" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 4" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal 6" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal_GUI - Checklist" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal_Sheet1" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="page title" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Paragrap title" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Paragrap title 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Percent 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Table header" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Table header 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="table_cell" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="標準_040802 債権ＤＢ" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -3138,77 +3220,104 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'User Story 1'!$B$57:$B$79</c:f>
+              <c:f>'User Story 1'!$B$54:$B$85</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>Check when input URL, SQL, HTTP GET, SQL Injection, XSS</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Check by pasting data</c:v>
+                  <c:v>Check allow to copy &amp; paste value</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Check if X button show up when input data and can click to clear data</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Check if input data existsed on another Account</c:v>
+                  <c:v>Province</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Check if input data existsed on another Address</c:v>
+                  <c:v>Check initial status</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Province</c:v>
+                  <c:v>Check mandatory of this field</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Check inicial status </c:v>
+                  <c:v>Check value of the Province droplist is 63 provinces and sort ascending</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Check that show error message if leave blank</c:v>
+                  <c:v>Check Province by input data</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Check value of the Province droplist is sort ascending</c:v>
+                  <c:v>Check Province by select </c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Check Province by input data</c:v>
+                  <c:v>Check Province by select second value</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Check Province by select </c:v>
+                  <c:v>Check NOT allow to copy &amp; paste value</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Check Province droplist has a scroll bar</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>District</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Check inicial status </c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>Check that show error message if leave blank</c:v>
+                  <c:v>Check initial status</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Check mandatory of this field</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Check  Only clickable when Province option is selected</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>Check value of the District droplist is sort ascending</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>Check the change of District when changing the Province</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Check Province by input data</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>Check Province by select </c:v>
+                  <c:v>Check District will be updated when Province value is changed</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>Check District by input data</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Check District by select</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Check District by select second value </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Check NOT allow to copy &amp; paste value</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Check District droplist has a scroll bar</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>Ward</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>Check inicial status </c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Check that show error message if leave blank</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Check value of the Ward droplist is sort ascending</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Check the change of Ward when changing the District</c:v>
+                <c:pt idx="24">
+                  <c:v>Check initial status</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Check mandatory of this field</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Check only clickable when District option is selected</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Check value of the District droplist is sort ascending</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Check Ward will be updated when Province value is changed</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Check Ward by input data</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Check Ward by select</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Check Ward by select second value </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3262,17 +3371,14 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'User Story 1'!$A$80:$A$151</c:f>
+              <c:f>'User Story 1'!$A$86:$A$155</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
-                  <c:v>61</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="3">
@@ -3284,10 +3390,10 @@
                 <c:pt idx="5">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="9">
@@ -3302,159 +3408,45 @@
                 <c:pt idx="12">
                   <c:v>72</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4</c:v>
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>48</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'User Story 1'!$B$80:$B$151</c:f>
+              <c:f>'User Story 1'!$B$86:$B$155</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3492,6 +3484,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3508,77 +3506,104 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'User Story 1'!$C$57:$C$79</c:f>
+              <c:f>'User Story 1'!$C$54:$C$85</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>Check when input URL, SQL, HTTP GET, SQL Injection, XSS</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Check by pasting data</c:v>
+                  <c:v>Check allow to copy &amp; paste value</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Check if X button show up when input data and can click to clear data</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Check if input data existsed on another Account</c:v>
+                  <c:v>Province</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Check if input data existsed on another Address</c:v>
+                  <c:v>Check initial status</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Province</c:v>
+                  <c:v>Check mandatory of this field</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Check inicial status </c:v>
+                  <c:v>Check value of the Province droplist is 63 provinces and sort ascending</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Check that show error message if leave blank</c:v>
+                  <c:v>Check Province by input data</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Check value of the Province droplist is sort ascending</c:v>
+                  <c:v>Check Province by select </c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Check Province by input data</c:v>
+                  <c:v>Check Province by select second value</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Check Province by select </c:v>
+                  <c:v>Check NOT allow to copy &amp; paste value</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Check Province droplist has a scroll bar</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>District</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Check inicial status </c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>Check that show error message if leave blank</c:v>
+                  <c:v>Check initial status</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Check mandatory of this field</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Check  Only clickable when Province option is selected</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>Check value of the District droplist is sort ascending</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>Check the change of District when changing the Province</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Check Province by input data</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>Check Province by select </c:v>
+                  <c:v>Check District will be updated when Province value is changed</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>Check District by input data</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Check District by select</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Check District by select second value </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Check NOT allow to copy &amp; paste value</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Check District droplist has a scroll bar</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>Ward</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>Check inicial status </c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Check that show error message if leave blank</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Check value of the Ward droplist is sort ascending</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Check the change of Ward when changing the District</c:v>
+                <c:pt idx="24">
+                  <c:v>Check initial status</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Check mandatory of this field</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Check only clickable when District option is selected</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Check value of the District droplist is sort ascending</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Check Ward will be updated when Province value is changed</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Check Ward by input data</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Check Ward by select</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Check Ward by select second value </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3632,17 +3657,14 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'User Story 1'!$A$80:$A$151</c:f>
+              <c:f>'User Story 1'!$A$86:$A$155</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
-                  <c:v>61</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="3">
@@ -3654,10 +3676,10 @@
                 <c:pt idx="5">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="9">
@@ -3672,159 +3694,45 @@
                 <c:pt idx="12">
                   <c:v>72</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4</c:v>
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>48</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'User Story 1'!$C$80:$C$151</c:f>
+              <c:f>'User Story 1'!$C$86:$C$155</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="70"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3839,77 +3747,104 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'User Story 1'!$D$57:$D$79</c:f>
+              <c:f>'User Story 1'!$D$54:$D$85</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>Check when input URL, SQL, HTTP GET, SQL Injection, XSS</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Check by pasting data</c:v>
+                  <c:v>Check allow to copy &amp; paste value</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Check if X button show up when input data and can click to clear data</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Check if input data existsed on another Account</c:v>
+                  <c:v>Province</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Check if input data existsed on another Address</c:v>
+                  <c:v>Check initial status</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Province</c:v>
+                  <c:v>Check mandatory of this field</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Check inicial status </c:v>
+                  <c:v>Check value of the Province droplist is 63 provinces and sort ascending</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Check that show error message if leave blank</c:v>
+                  <c:v>Check Province by input data</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Check value of the Province droplist is sort ascending</c:v>
+                  <c:v>Check Province by select </c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Check Province by input data</c:v>
+                  <c:v>Check Province by select second value</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Check Province by select </c:v>
+                  <c:v>Check NOT allow to copy &amp; paste value</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Check Province droplist has a scroll bar</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>District</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Check inicial status </c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>Check that show error message if leave blank</c:v>
+                  <c:v>Check initial status</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Check mandatory of this field</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Check  Only clickable when Province option is selected</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>Check value of the District droplist is sort ascending</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>Check the change of District when changing the Province</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Check Province by input data</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>Check Province by select </c:v>
+                  <c:v>Check District will be updated when Province value is changed</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>Check District by input data</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Check District by select</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Check District by select second value </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Check NOT allow to copy &amp; paste value</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Check District droplist has a scroll bar</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>Ward</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>Check inicial status </c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Check that show error message if leave blank</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Check value of the Ward droplist is sort ascending</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Check the change of Ward when changing the District</c:v>
+                <c:pt idx="24">
+                  <c:v>Check initial status</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Check mandatory of this field</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Check only clickable when District option is selected</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Check value of the District droplist is sort ascending</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Check Ward will be updated when Province value is changed</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Check Ward by input data</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Check Ward by select</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Check Ward by select second value </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3963,17 +3898,14 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'User Story 1'!$A$80:$A$151</c:f>
+              <c:f>'User Story 1'!$A$86:$A$155</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
-                  <c:v>61</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="3">
@@ -3985,10 +3917,10 @@
                 <c:pt idx="5">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="9">
@@ -4003,159 +3935,45 @@
                 <c:pt idx="12">
                   <c:v>72</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4</c:v>
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>48</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'User Story 1'!$D$80:$D$151</c:f>
+              <c:f>'User Story 1'!$D$86:$D$155</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="70"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4170,77 +3988,104 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'User Story 1'!$F$57:$F$79</c:f>
+              <c:f>'User Story 1'!$F$54:$F$85</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>Check when input URL, SQL, HTTP GET, SQL Injection, XSS</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Check by pasting data</c:v>
+                  <c:v>Check allow to copy &amp; paste value</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Check if X button show up when input data and can click to clear data</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Check if input data existsed on another Account</c:v>
+                  <c:v>Province</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Check if input data existsed on another Address</c:v>
+                  <c:v>Check initial status</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Province</c:v>
+                  <c:v>Check mandatory of this field</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Check inicial status </c:v>
+                  <c:v>Check value of the Province droplist is 63 provinces and sort ascending</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Check that show error message if leave blank</c:v>
+                  <c:v>Check Province by input data</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Check value of the Province droplist is sort ascending</c:v>
+                  <c:v>Check Province by select </c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Check Province by input data</c:v>
+                  <c:v>Check Province by select second value</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Check Province by select </c:v>
+                  <c:v>Check NOT allow to copy &amp; paste value</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Check Province droplist has a scroll bar</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>District</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Check inicial status </c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>Check that show error message if leave blank</c:v>
+                  <c:v>Check initial status</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Check mandatory of this field</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Check  Only clickable when Province option is selected</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>Check value of the District droplist is sort ascending</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>Check the change of District when changing the Province</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Check Province by input data</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>Check Province by select </c:v>
+                  <c:v>Check District will be updated when Province value is changed</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>Check District by input data</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Check District by select</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Check District by select second value </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Check NOT allow to copy &amp; paste value</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Check District droplist has a scroll bar</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>Ward</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>Check inicial status </c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Check that show error message if leave blank</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Check value of the Ward droplist is sort ascending</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Check the change of Ward when changing the District</c:v>
+                <c:pt idx="24">
+                  <c:v>Check initial status</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Check mandatory of this field</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Check only clickable when District option is selected</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Check value of the District droplist is sort ascending</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Check Ward will be updated when Province value is changed</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Check Ward by input data</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Check Ward by select</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Check Ward by select second value </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4294,17 +4139,14 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'User Story 1'!$A$80:$A$151</c:f>
+              <c:f>'User Story 1'!$A$86:$A$155</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
-                  <c:v>61</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="3">
@@ -4316,10 +4158,10 @@
                 <c:pt idx="5">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="9">
@@ -4334,159 +4176,48 @@
                 <c:pt idx="12">
                   <c:v>72</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4</c:v>
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>48</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'User Story 1'!$F$80:$F$151</c:f>
+              <c:f>'User Story 1'!$F$86:$F$155</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="70"/>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5130,37 +4861,37 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="223" t="s">
+      <c r="A4" s="228" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="223"/>
-      <c r="C4" s="223"/>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
+      <c r="B4" s="228"/>
+      <c r="C4" s="228"/>
+      <c r="D4" s="228"/>
+      <c r="E4" s="228"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A5" s="224" t="s">
+      <c r="A5" s="229" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="224"/>
-      <c r="C5" s="225" t="s">
+      <c r="B5" s="229"/>
+      <c r="C5" s="230" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="225"/>
-      <c r="E5" s="225"/>
+      <c r="D5" s="230"/>
+      <c r="E5" s="230"/>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A6" s="226" t="s">
+      <c r="A6" s="231" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="226"/>
-      <c r="C6" s="222" t="s">
+      <c r="B6" s="231"/>
+      <c r="C6" s="227" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="222"/>
-      <c r="E6" s="222"/>
+      <c r="D6" s="227"/>
+      <c r="E6" s="227"/>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" customHeight="1">
@@ -5172,14 +4903,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" s="9" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A8" s="221" t="s">
+      <c r="A8" s="226" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="221"/>
-      <c r="C8" s="221"/>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
+      <c r="B8" s="226"/>
+      <c r="C8" s="226"/>
+      <c r="D8" s="226"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="226"/>
     </row>
     <row r="9" spans="1:6" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="10" t="s">
@@ -5262,14 +4993,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="222" t="s">
+      <c r="A13" s="227" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="222"/>
-      <c r="C13" s="222"/>
-      <c r="D13" s="222"/>
-      <c r="E13" s="222"/>
-      <c r="F13" s="222"/>
+      <c r="B13" s="227"/>
+      <c r="C13" s="227"/>
+      <c r="D13" s="227"/>
+      <c r="E13" s="227"/>
+      <c r="F13" s="227"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6"/>
@@ -5392,36 +5123,36 @@
       <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" customHeight="1">
-      <c r="B2" s="227" t="s">
+      <c r="B2" s="232" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
-      <c r="G2" s="227"/>
-      <c r="H2" s="227"/>
-      <c r="I2" s="227"/>
-      <c r="J2" s="228" t="s">
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="H2" s="232"/>
+      <c r="I2" s="232"/>
+      <c r="J2" s="233" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="228"/>
+      <c r="K2" s="233"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" customHeight="1">
-      <c r="B3" s="229" t="s">
+      <c r="B3" s="234" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="229"/>
-      <c r="D3" s="229"/>
-      <c r="E3" s="229"/>
-      <c r="F3" s="230" t="s">
+      <c r="C3" s="234"/>
+      <c r="D3" s="234"/>
+      <c r="E3" s="234"/>
+      <c r="F3" s="235" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="230"/>
-      <c r="H3" s="230"/>
-      <c r="I3" s="230"/>
-      <c r="J3" s="228"/>
-      <c r="K3" s="228"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="233"/>
+      <c r="K3" s="233"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="B4" s="26"/>
@@ -5441,65 +5172,65 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A7" s="231" t="s">
+      <c r="A7" s="236" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="231"/>
-      <c r="C7" s="231"/>
-      <c r="D7" s="231"/>
-      <c r="E7" s="231"/>
-      <c r="F7" s="231"/>
-      <c r="G7" s="231"/>
-      <c r="H7" s="231"/>
-      <c r="I7" s="231"/>
+      <c r="B7" s="236"/>
+      <c r="C7" s="236"/>
+      <c r="D7" s="236"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="236"/>
+      <c r="G7" s="236"/>
+      <c r="H7" s="236"/>
+      <c r="I7" s="236"/>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A8" s="231"/>
-      <c r="B8" s="231"/>
-      <c r="C8" s="231"/>
-      <c r="D8" s="231"/>
-      <c r="E8" s="231"/>
-      <c r="F8" s="231"/>
-      <c r="G8" s="231"/>
-      <c r="H8" s="231"/>
-      <c r="I8" s="231"/>
+      <c r="A8" s="236"/>
+      <c r="B8" s="236"/>
+      <c r="C8" s="236"/>
+      <c r="D8" s="236"/>
+      <c r="E8" s="236"/>
+      <c r="F8" s="236"/>
+      <c r="G8" s="236"/>
+      <c r="H8" s="236"/>
+      <c r="I8" s="236"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A9" s="231" t="s">
+      <c r="A9" s="236" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="231"/>
-      <c r="C9" s="231"/>
-      <c r="D9" s="231"/>
-      <c r="E9" s="231"/>
-      <c r="F9" s="231"/>
-      <c r="G9" s="231"/>
-      <c r="H9" s="231"/>
-      <c r="I9" s="231"/>
+      <c r="B9" s="236"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="236"/>
+      <c r="F9" s="236"/>
+      <c r="G9" s="236"/>
+      <c r="H9" s="236"/>
+      <c r="I9" s="236"/>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
-      <c r="A10" s="231"/>
-      <c r="B10" s="231"/>
-      <c r="C10" s="231"/>
-      <c r="D10" s="231"/>
-      <c r="E10" s="231"/>
-      <c r="F10" s="231"/>
-      <c r="G10" s="231"/>
-      <c r="H10" s="231"/>
-      <c r="I10" s="231"/>
+      <c r="A10" s="236"/>
+      <c r="B10" s="236"/>
+      <c r="C10" s="236"/>
+      <c r="D10" s="236"/>
+      <c r="E10" s="236"/>
+      <c r="F10" s="236"/>
+      <c r="G10" s="236"/>
+      <c r="H10" s="236"/>
+      <c r="I10" s="236"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="232" t="s">
+      <c r="A11" s="237" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="232"/>
-      <c r="C11" s="232"/>
-      <c r="D11" s="232"/>
-      <c r="E11" s="232"/>
-      <c r="F11" s="232"/>
-      <c r="G11" s="232"/>
-      <c r="H11" s="232"/>
-      <c r="I11" s="232"/>
+      <c r="B11" s="237"/>
+      <c r="C11" s="237"/>
+      <c r="D11" s="237"/>
+      <c r="E11" s="237"/>
+      <c r="F11" s="237"/>
+      <c r="G11" s="237"/>
+      <c r="H11" s="237"/>
+      <c r="I11" s="237"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="30"/>
@@ -5521,65 +5252,65 @@
       <c r="A14" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="233" t="s">
+      <c r="B14" s="238" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="233"/>
-      <c r="D14" s="233"/>
-      <c r="E14" s="233"/>
-      <c r="F14" s="233"/>
-      <c r="G14" s="233"/>
-      <c r="H14" s="233"/>
-      <c r="I14" s="233"/>
-      <c r="J14" s="233"/>
-      <c r="K14" s="233"/>
+      <c r="C14" s="238"/>
+      <c r="D14" s="238"/>
+      <c r="E14" s="238"/>
+      <c r="F14" s="238"/>
+      <c r="G14" s="238"/>
+      <c r="H14" s="238"/>
+      <c r="I14" s="238"/>
+      <c r="J14" s="238"/>
+      <c r="K14" s="238"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
       <c r="A15" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="233" t="s">
+      <c r="B15" s="238" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="233"/>
-      <c r="D15" s="233"/>
-      <c r="E15" s="233"/>
-      <c r="F15" s="233"/>
-      <c r="G15" s="233"/>
-      <c r="H15" s="233"/>
-      <c r="I15" s="233"/>
-      <c r="J15" s="233"/>
-      <c r="K15" s="233"/>
+      <c r="C15" s="238"/>
+      <c r="D15" s="238"/>
+      <c r="E15" s="238"/>
+      <c r="F15" s="238"/>
+      <c r="G15" s="238"/>
+      <c r="H15" s="238"/>
+      <c r="I15" s="238"/>
+      <c r="J15" s="238"/>
+      <c r="K15" s="238"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1">
       <c r="A16" s="31"/>
-      <c r="B16" s="233" t="s">
+      <c r="B16" s="238" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="233"/>
-      <c r="D16" s="233"/>
-      <c r="E16" s="233"/>
-      <c r="F16" s="233"/>
-      <c r="G16" s="233"/>
-      <c r="H16" s="233"/>
-      <c r="I16" s="233"/>
-      <c r="J16" s="233"/>
-      <c r="K16" s="233"/>
+      <c r="C16" s="238"/>
+      <c r="D16" s="238"/>
+      <c r="E16" s="238"/>
+      <c r="F16" s="238"/>
+      <c r="G16" s="238"/>
+      <c r="H16" s="238"/>
+      <c r="I16" s="238"/>
+      <c r="J16" s="238"/>
+      <c r="K16" s="238"/>
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1">
       <c r="A17" s="31"/>
-      <c r="B17" s="233" t="s">
+      <c r="B17" s="238" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="233"/>
-      <c r="D17" s="233"/>
-      <c r="E17" s="233"/>
-      <c r="F17" s="233"/>
-      <c r="G17" s="233"/>
-      <c r="H17" s="233"/>
-      <c r="I17" s="233"/>
-      <c r="J17" s="233"/>
-      <c r="K17" s="233"/>
+      <c r="C17" s="238"/>
+      <c r="D17" s="238"/>
+      <c r="E17" s="238"/>
+      <c r="F17" s="238"/>
+      <c r="G17" s="238"/>
+      <c r="H17" s="238"/>
+      <c r="I17" s="238"/>
+      <c r="J17" s="238"/>
+      <c r="K17" s="238"/>
     </row>
     <row r="19" spans="1:14" ht="23.25">
       <c r="A19" s="29" t="s">
@@ -5590,40 +5321,40 @@
       <c r="A20" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="233" t="s">
+      <c r="B20" s="238" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="233"/>
-      <c r="D20" s="233"/>
-      <c r="E20" s="233"/>
-      <c r="F20" s="233"/>
-      <c r="G20" s="233"/>
+      <c r="C20" s="238"/>
+      <c r="D20" s="238"/>
+      <c r="E20" s="238"/>
+      <c r="F20" s="238"/>
+      <c r="G20" s="238"/>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1">
       <c r="A21" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="233" t="s">
+      <c r="B21" s="238" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="233"/>
-      <c r="D21" s="233"/>
-      <c r="E21" s="233"/>
-      <c r="F21" s="233"/>
-      <c r="G21" s="233"/>
+      <c r="C21" s="238"/>
+      <c r="D21" s="238"/>
+      <c r="E21" s="238"/>
+      <c r="F21" s="238"/>
+      <c r="G21" s="238"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
       <c r="A22" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="233" t="s">
+      <c r="B22" s="238" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="233"/>
-      <c r="D22" s="233"/>
-      <c r="E22" s="233"/>
-      <c r="F22" s="233"/>
-      <c r="G22" s="233"/>
+      <c r="C22" s="238"/>
+      <c r="D22" s="238"/>
+      <c r="E22" s="238"/>
+      <c r="F22" s="238"/>
+      <c r="G22" s="238"/>
     </row>
     <row r="24" spans="1:14" ht="23.25">
       <c r="A24" s="29" t="s">
@@ -5682,11 +5413,11 @@
       <c r="N27" s="34"/>
     </row>
     <row r="29" spans="1:14" ht="21.75" customHeight="1">
-      <c r="B29" s="234" t="s">
+      <c r="B29" s="239" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="234"/>
-      <c r="D29" s="234"/>
+      <c r="C29" s="239"/>
+      <c r="D29" s="239"/>
     </row>
     <row r="30" spans="1:14" ht="90" customHeight="1">
       <c r="B30" s="35"/>
@@ -5763,14 +5494,14 @@
       <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:10" s="40" customFormat="1" ht="25.5">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="240" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
+      <c r="B2" s="240"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="240"/>
+      <c r="F2" s="240"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="41"/>
@@ -5953,12 +5684,12 @@
       <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" s="23" customFormat="1" ht="26.25">
-      <c r="A2" s="236" t="s">
+      <c r="A2" s="241" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="236"/>
-      <c r="C2" s="236"/>
-      <c r="D2" s="236"/>
+      <c r="B2" s="241"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
       <c r="E2" s="55"/>
       <c r="F2" s="56"/>
       <c r="G2" s="56"/>
@@ -6119,18 +5850,18 @@
       <c r="F14" s="62"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1">
-      <c r="A16" s="237" t="s">
+      <c r="A16" s="242" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="237"/>
+      <c r="B16" s="242"/>
       <c r="C16" s="65"/>
       <c r="D16" s="66"/>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A17" s="238" t="s">
+      <c r="A17" s="243" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="238"/>
+      <c r="B17" s="243"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="67"/>
@@ -6175,10 +5906,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AMJ205"/>
+  <dimension ref="A1:AMJ209"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -6195,10 +5926,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="23" customFormat="1" ht="14.25">
-      <c r="A1" s="239"/>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
+      <c r="A1" s="244"/>
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
       <c r="E1" s="25"/>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
@@ -6208,14 +5939,14 @@
       <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:25" s="23" customFormat="1" ht="26.25">
-      <c r="A2" s="240" t="s">
+      <c r="A2" s="245" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="240"/>
-      <c r="C2" s="240"/>
-      <c r="D2" s="240"/>
+      <c r="B2" s="245"/>
+      <c r="C2" s="245"/>
+      <c r="D2" s="245"/>
       <c r="E2" s="71"/>
-      <c r="F2" s="241"/>
+      <c r="F2" s="246"/>
       <c r="G2" s="56"/>
       <c r="H2" s="56"/>
       <c r="I2" s="56"/>
@@ -6225,10 +5956,10 @@
     <row r="3" spans="1:25" s="23" customFormat="1" ht="23.25">
       <c r="A3" s="72"/>
       <c r="B3" s="73"/>
-      <c r="C3" s="242"/>
-      <c r="D3" s="242"/>
+      <c r="C3" s="247"/>
+      <c r="D3" s="247"/>
       <c r="E3" s="74"/>
-      <c r="F3" s="241"/>
+      <c r="F3" s="246"/>
       <c r="G3" s="56"/>
       <c r="H3" s="56"/>
       <c r="I3" s="56"/>
@@ -6237,11 +5968,11 @@
     </row>
     <row r="4" spans="1:25" s="79" customFormat="1" ht="38.25">
       <c r="A4" s="75" t="s">
-        <v>197</v>
-      </c>
-      <c r="B4" s="243"/>
-      <c r="C4" s="243"/>
-      <c r="D4" s="243"/>
+        <v>196</v>
+      </c>
+      <c r="B4" s="248"/>
+      <c r="C4" s="248"/>
+      <c r="D4" s="248"/>
       <c r="E4" s="76"/>
       <c r="F4" s="77"/>
       <c r="G4" s="77"/>
@@ -6256,9 +5987,9 @@
       <c r="A5" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="243"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
       <c r="E5" s="76"/>
       <c r="F5" s="77"/>
       <c r="G5" s="77"/>
@@ -6273,9 +6004,9 @@
       <c r="A6" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="243"/>
-      <c r="C6" s="243"/>
-      <c r="D6" s="243"/>
+      <c r="B6" s="248"/>
+      <c r="C6" s="248"/>
+      <c r="D6" s="248"/>
       <c r="E6" s="76"/>
       <c r="F6" s="77"/>
       <c r="G6" s="77"/>
@@ -6287,11 +6018,11 @@
       <c r="A7" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="243" t="s">
+      <c r="B7" s="248" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="243"/>
-      <c r="D7" s="243"/>
+      <c r="C7" s="248"/>
+      <c r="D7" s="248"/>
       <c r="E7" s="76"/>
       <c r="F7" s="77"/>
       <c r="G7" s="77"/>
@@ -6304,9 +6035,9 @@
       <c r="A8" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="244"/>
-      <c r="C8" s="244"/>
-      <c r="D8" s="244"/>
+      <c r="B8" s="249"/>
+      <c r="C8" s="249"/>
+      <c r="D8" s="249"/>
       <c r="E8" s="82"/>
       <c r="F8" s="77"/>
     </row>
@@ -6351,15 +6082,15 @@
         <v>41</v>
       </c>
       <c r="B11" s="89">
-        <f>COUNTIF($G$18:$G$49757,"*Passed")</f>
+        <f>COUNTIF($G$18:$G$49761,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="C11" s="90">
-        <f>COUNTIF($H$18:$H$49757,"*Passed")</f>
+        <f>COUNTIF($H$18:$H$49761,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="D11" s="90">
-        <f>COUNTIF($I$18:$I$49757,"*Passed")</f>
+        <f>COUNTIF($I$18:$I$49761,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="E11" s="90"/>
@@ -6369,15 +6100,15 @@
         <v>43</v>
       </c>
       <c r="B12" s="89">
-        <f>COUNTIF($G$18:$G$49477,"*Failed*")</f>
+        <f>COUNTIF($G$18:$G$49481,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="C12" s="90">
-        <f>COUNTIF($H$18:$H$49477,"*Failed*")</f>
+        <f>COUNTIF($H$18:$H$49481,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="D12" s="90">
-        <f>COUNTIF($I$18:$I$49477,"*Failed*")</f>
+        <f>COUNTIF($I$18:$I$49481,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="E12" s="90"/>
@@ -6387,15 +6118,15 @@
         <v>45</v>
       </c>
       <c r="B13" s="89">
-        <f>COUNTIF($G$18:$G$49477,"*Not Run*")</f>
+        <f>COUNTIF($G$18:$G$49481,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="C13" s="90">
-        <f>COUNTIF($H$18:$H$49477,"*Not Run*")</f>
+        <f>COUNTIF($H$18:$H$49481,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="D13" s="90">
-        <f>COUNTIF($I$18:$I$49477,"*Not Run*")</f>
+        <f>COUNTIF($I$18:$I$49481,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="E13" s="90"/>
@@ -6410,15 +6141,15 @@
         <v>101</v>
       </c>
       <c r="B14" s="89">
-        <f>COUNTIF($G$18:$G$49477,"*NA*")</f>
+        <f>COUNTIF($G$18:$G$49481,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="C14" s="90">
-        <f>COUNTIF($H$18:$H$49477,"*NA*")</f>
+        <f>COUNTIF($H$18:$H$49481,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="D14" s="90">
-        <f>COUNTIF($I$18:$I$49477,"*NA*")</f>
+        <f>COUNTIF($I$18:$I$49481,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="E14" s="90"/>
@@ -6433,15 +6164,15 @@
         <v>102</v>
       </c>
       <c r="B15" s="89">
-        <f>COUNTIF($G$18:$G$49477,"*Passed in previous build*")</f>
+        <f>COUNTIF($G$18:$G$49481,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="C15" s="90">
-        <f>COUNTIF($H$18:$H$49477,"*Passed in previous build*")</f>
+        <f>COUNTIF($H$18:$H$49481,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="D15" s="90">
-        <f>COUNTIF($I$18:$I$49477,"*Passed in previous build*")</f>
+        <f>COUNTIF($I$18:$I$49481,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="E15" s="90"/>
@@ -6458,11 +6189,11 @@
       <c r="D16" s="94"/>
       <c r="E16" s="94"/>
       <c r="F16" s="95"/>
-      <c r="G16" s="245" t="s">
+      <c r="G16" s="250" t="s">
         <v>99</v>
       </c>
-      <c r="H16" s="245"/>
-      <c r="I16" s="245"/>
+      <c r="H16" s="250"/>
+      <c r="I16" s="250"/>
       <c r="J16" s="96"/>
     </row>
     <row r="17" spans="1:10" s="97" customFormat="1" ht="51">
@@ -6491,11 +6222,11 @@
     </row>
     <row r="18" spans="1:10" s="97" customFormat="1" ht="12.75">
       <c r="A18" s="100"/>
-      <c r="B18" s="247" t="s">
-        <v>199</v>
-      </c>
-      <c r="C18" s="247"/>
-      <c r="D18" s="247"/>
+      <c r="B18" s="252" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="252"/>
+      <c r="D18" s="252"/>
       <c r="E18" s="102"/>
       <c r="F18" s="101"/>
       <c r="G18" s="103"/>
@@ -6506,7 +6237,7 @@
     <row r="19" spans="1:10" s="108" customFormat="1">
       <c r="A19" s="32"/>
       <c r="B19" s="104" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C19" s="105"/>
       <c r="D19" s="105"/>
@@ -6519,11 +6250,11 @@
     </row>
     <row r="20" spans="1:10" s="108" customFormat="1">
       <c r="A20" s="32">
-        <f t="shared" ref="A20:A83" ca="1" si="0">IF(OFFSET(A20,-1,0) ="",OFFSET(A20,-2,0)+1,OFFSET(A20,-1,0)+1 )</f>
+        <f t="shared" ref="A20:A90" ca="1" si="0">IF(OFFSET(A20,-1,0) ="",OFFSET(A20,-2,0)+1,OFFSET(A20,-1,0)+1 )</f>
         <v>1</v>
       </c>
       <c r="B20" s="109" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C20" s="110"/>
       <c r="D20" s="110"/>
@@ -6540,7 +6271,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="109" t="s">
-        <v>202</v>
+        <v>257</v>
       </c>
       <c r="C21" s="110"/>
       <c r="D21" s="110"/>
@@ -6552,37 +6283,37 @@
       <c r="J21" s="107"/>
     </row>
     <row r="22" spans="1:10" s="108" customFormat="1">
-      <c r="A22" s="32">
+      <c r="A22" s="220">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="B22" s="109" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="C22" s="110"/>
       <c r="D22" s="110"/>
       <c r="E22" s="110"/>
       <c r="F22" s="111"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
+      <c r="G22" s="220"/>
+      <c r="H22" s="220"/>
+      <c r="I22" s="220"/>
       <c r="J22" s="107"/>
     </row>
     <row r="23" spans="1:10" s="108" customFormat="1">
-      <c r="A23" s="199">
+      <c r="A23" s="32">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="B23" s="109" t="s">
-        <v>208</v>
+        <v>258</v>
       </c>
       <c r="C23" s="110"/>
       <c r="D23" s="110"/>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
-      <c r="G23" s="199"/>
-      <c r="H23" s="199"/>
-      <c r="I23" s="199"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
       <c r="J23" s="107"/>
     </row>
     <row r="24" spans="1:10" s="108" customFormat="1">
@@ -6590,8 +6321,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
-      <c r="B24" s="200" t="s">
-        <v>209</v>
+      <c r="B24" s="109" t="s">
+        <v>202</v>
       </c>
       <c r="C24" s="110"/>
       <c r="D24" s="110"/>
@@ -6607,8 +6338,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
-      <c r="B25" s="109" t="s">
-        <v>210</v>
+      <c r="B25" s="200" t="s">
+        <v>224</v>
       </c>
       <c r="C25" s="110"/>
       <c r="D25" s="110"/>
@@ -6625,15 +6356,15 @@
         <v>7</v>
       </c>
       <c r="B26" s="109" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C26" s="110"/>
-      <c r="D26" s="204"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="206"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="199"/>
+      <c r="H26" s="199"/>
+      <c r="I26" s="199"/>
       <c r="J26" s="107"/>
     </row>
     <row r="27" spans="1:10" s="108" customFormat="1">
@@ -6642,15 +6373,15 @@
         <v>8</v>
       </c>
       <c r="B27" s="109" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="C27" s="110"/>
       <c r="D27" s="204"/>
-      <c r="E27" s="110"/>
+      <c r="E27" s="115"/>
       <c r="F27" s="206"/>
-      <c r="G27" s="199"/>
-      <c r="H27" s="199"/>
-      <c r="I27" s="199"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
       <c r="J27" s="107"/>
     </row>
     <row r="28" spans="1:10" s="108" customFormat="1">
@@ -6659,15 +6390,15 @@
         <v>9</v>
       </c>
       <c r="B28" s="109" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="C28" s="110"/>
       <c r="D28" s="204"/>
       <c r="E28" s="110"/>
       <c r="F28" s="206"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
+      <c r="G28" s="199"/>
+      <c r="H28" s="199"/>
+      <c r="I28" s="199"/>
       <c r="J28" s="107"/>
     </row>
     <row r="29" spans="1:10" s="108" customFormat="1">
@@ -6676,7 +6407,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="109" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C29" s="110"/>
       <c r="D29" s="204"/>
@@ -6692,8 +6423,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>11</v>
       </c>
-      <c r="B30" s="109" t="s">
-        <v>226</v>
+      <c r="B30" s="222" t="s">
+        <v>220</v>
       </c>
       <c r="C30" s="110"/>
       <c r="D30" s="204"/>
@@ -6710,7 +6441,7 @@
         <v>12</v>
       </c>
       <c r="B31" s="109" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="C31" s="110"/>
       <c r="D31" s="204"/>
@@ -6722,17 +6453,14 @@
       <c r="J31" s="107"/>
     </row>
     <row r="32" spans="1:10" s="108" customFormat="1">
-      <c r="A32" s="199">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B32" s="109" t="s">
-        <v>215</v>
-      </c>
-      <c r="C32" s="110"/>
-      <c r="D32" s="204"/>
-      <c r="E32" s="210"/>
-      <c r="F32" s="206"/>
+      <c r="A32" s="199"/>
+      <c r="B32" s="104" t="s">
+        <v>200</v>
+      </c>
+      <c r="C32" s="105"/>
+      <c r="D32" s="205"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="207"/>
       <c r="G32" s="32"/>
       <c r="H32" s="32"/>
       <c r="I32" s="32"/>
@@ -6741,15 +6469,15 @@
     <row r="33" spans="1:10" s="108" customFormat="1">
       <c r="A33" s="199">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33" s="109" t="s">
-        <v>214</v>
-      </c>
-      <c r="C33" s="110"/>
-      <c r="D33" s="204"/>
-      <c r="E33" s="210"/>
-      <c r="F33" s="206"/>
+        <v>223</v>
+      </c>
+      <c r="C33" s="201"/>
+      <c r="D33" s="208"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="209"/>
       <c r="G33" s="199"/>
       <c r="H33" s="199"/>
       <c r="I33" s="199"/>
@@ -6758,32 +6486,32 @@
     <row r="34" spans="1:10" s="108" customFormat="1">
       <c r="A34" s="199">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B34" s="104" t="s">
-        <v>205</v>
-      </c>
-      <c r="C34" s="105"/>
-      <c r="D34" s="205"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="207"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
+        <v>14</v>
+      </c>
+      <c r="B34" s="109" t="s">
+        <v>257</v>
+      </c>
+      <c r="C34" s="201"/>
+      <c r="D34" s="201"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="202"/>
+      <c r="G34" s="199"/>
+      <c r="H34" s="199"/>
+      <c r="I34" s="199"/>
       <c r="J34" s="107"/>
     </row>
     <row r="35" spans="1:10" s="108" customFormat="1">
       <c r="A35" s="199">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35" s="109" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C35" s="201"/>
-      <c r="D35" s="208"/>
-      <c r="E35" s="203"/>
-      <c r="F35" s="209"/>
+      <c r="D35" s="201"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="202"/>
       <c r="G35" s="199"/>
       <c r="H35" s="199"/>
       <c r="I35" s="199"/>
@@ -6792,14 +6520,14 @@
     <row r="36" spans="1:10" s="108" customFormat="1">
       <c r="A36" s="199">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36" s="109" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C36" s="201"/>
       <c r="D36" s="201"/>
-      <c r="E36" s="110"/>
+      <c r="E36" s="203"/>
       <c r="F36" s="202"/>
       <c r="G36" s="199"/>
       <c r="H36" s="199"/>
@@ -6809,10 +6537,10 @@
     <row r="37" spans="1:10" s="108" customFormat="1">
       <c r="A37" s="199">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37" s="109" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="C37" s="201"/>
       <c r="D37" s="201"/>
@@ -6824,43 +6552,43 @@
       <c r="J37" s="107"/>
     </row>
     <row r="38" spans="1:10" s="108" customFormat="1">
-      <c r="A38" s="199">
+      <c r="A38" s="220">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B38" s="109" t="s">
+        <v>229</v>
+      </c>
+      <c r="C38" s="201"/>
+      <c r="D38" s="201"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="202"/>
+      <c r="G38" s="220"/>
+      <c r="H38" s="220"/>
+      <c r="I38" s="220"/>
+      <c r="J38" s="107"/>
+    </row>
+    <row r="39" spans="1:10" s="108" customFormat="1">
+      <c r="A39" s="220">
         <f t="shared" ca="1" si="0"/>
         <v>19</v>
       </c>
-      <c r="B38" s="109" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="201"/>
-      <c r="D38" s="201"/>
-      <c r="E38" s="203"/>
-      <c r="F38" s="202"/>
-      <c r="G38" s="199"/>
-      <c r="H38" s="199"/>
-      <c r="I38" s="199"/>
-      <c r="J38" s="107"/>
-    </row>
-    <row r="39" spans="1:10" s="108" customFormat="1">
-      <c r="A39" s="199">
-        <f t="shared" ca="1" si="0"/>
-        <v>20</v>
-      </c>
       <c r="B39" s="109" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="C39" s="201"/>
       <c r="D39" s="201"/>
       <c r="E39" s="110"/>
       <c r="F39" s="202"/>
-      <c r="G39" s="199"/>
-      <c r="H39" s="199"/>
-      <c r="I39" s="199"/>
+      <c r="G39" s="220"/>
+      <c r="H39" s="220"/>
+      <c r="I39" s="220"/>
       <c r="J39" s="107"/>
     </row>
     <row r="40" spans="1:10" s="108" customFormat="1">
       <c r="A40" s="199">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B40" s="109" t="s">
         <v>225</v>
@@ -6877,32 +6605,32 @@
     <row r="41" spans="1:10" s="108" customFormat="1">
       <c r="A41" s="199">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B41" s="109" t="s">
-        <v>203</v>
-      </c>
-      <c r="C41" s="201"/>
-      <c r="D41" s="201"/>
+        <v>201</v>
+      </c>
+      <c r="C41" s="109"/>
+      <c r="D41" s="110"/>
       <c r="E41" s="110"/>
-      <c r="F41" s="202"/>
-      <c r="G41" s="199"/>
-      <c r="H41" s="199"/>
-      <c r="I41" s="199"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
       <c r="J41" s="107"/>
     </row>
     <row r="42" spans="1:10" s="108" customFormat="1">
       <c r="A42" s="199">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B42" s="109" t="s">
-        <v>206</v>
+        <v>22</v>
+      </c>
+      <c r="B42" s="222" t="s">
+        <v>220</v>
       </c>
       <c r="C42" s="109"/>
       <c r="D42" s="110"/>
       <c r="E42" s="110"/>
-      <c r="F42" s="110"/>
+      <c r="F42" s="113"/>
       <c r="G42" s="32"/>
       <c r="H42" s="32"/>
       <c r="I42" s="32"/>
@@ -6911,10 +6639,10 @@
     <row r="43" spans="1:10" s="108" customFormat="1">
       <c r="A43" s="199">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B43" s="109" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C43" s="109"/>
       <c r="D43" s="110"/>
@@ -6926,17 +6654,14 @@
       <c r="J43" s="107"/>
     </row>
     <row r="44" spans="1:10" s="108" customFormat="1">
-      <c r="A44" s="199">
-        <f t="shared" ca="1" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B44" s="109" t="s">
-        <v>204</v>
-      </c>
-      <c r="C44" s="109"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="110"/>
-      <c r="F44" s="113"/>
+      <c r="A44" s="199"/>
+      <c r="B44" s="104" t="s">
+        <v>205</v>
+      </c>
+      <c r="C44" s="104"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="114"/>
       <c r="G44" s="32"/>
       <c r="H44" s="32"/>
       <c r="I44" s="32"/>
@@ -6945,34 +6670,32 @@
     <row r="45" spans="1:10" s="108" customFormat="1">
       <c r="A45" s="199">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B45" s="109" t="s">
-        <v>215</v>
-      </c>
-      <c r="C45" s="109"/>
-      <c r="D45" s="110" t="s">
-        <v>108</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="C45" s="185"/>
+      <c r="D45" s="185"/>
       <c r="E45" s="110"/>
-      <c r="F45" s="113"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
+      <c r="F45" s="188"/>
+      <c r="G45" s="199"/>
+      <c r="H45" s="199"/>
+      <c r="I45" s="199"/>
       <c r="J45" s="107"/>
     </row>
     <row r="46" spans="1:10" s="108" customFormat="1">
       <c r="A46" s="199">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B46" s="109" t="s">
-        <v>214</v>
-      </c>
-      <c r="C46" s="109"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="110"/>
-      <c r="F46" s="113"/>
+        <v>25</v>
+      </c>
+      <c r="B46" s="194" t="s">
+        <v>257</v>
+      </c>
+      <c r="C46" s="185"/>
+      <c r="D46" s="185"/>
+      <c r="E46" s="185"/>
+      <c r="F46" s="188"/>
       <c r="G46" s="199"/>
       <c r="H46" s="199"/>
       <c r="I46" s="199"/>
@@ -6981,27 +6704,27 @@
     <row r="47" spans="1:10" s="108" customFormat="1">
       <c r="A47" s="199">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B47" s="104" t="s">
-        <v>216</v>
-      </c>
-      <c r="C47" s="104"/>
-      <c r="D47" s="105"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="114"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
+        <v>26</v>
+      </c>
+      <c r="B47" s="194" t="s">
+        <v>260</v>
+      </c>
+      <c r="C47" s="185"/>
+      <c r="D47" s="185"/>
+      <c r="E47" s="185"/>
+      <c r="F47" s="188"/>
+      <c r="G47" s="199"/>
+      <c r="H47" s="199"/>
+      <c r="I47" s="199"/>
       <c r="J47" s="107"/>
     </row>
     <row r="48" spans="1:10" s="108" customFormat="1">
       <c r="A48" s="199">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B48" s="194" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="C48" s="185"/>
       <c r="D48" s="185"/>
@@ -7015,78 +6738,78 @@
     <row r="49" spans="1:10" s="108" customFormat="1">
       <c r="A49" s="199">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B49" s="194" t="s">
-        <v>202</v>
+        <v>28</v>
+      </c>
+      <c r="B49" s="200" t="s">
+        <v>261</v>
       </c>
       <c r="C49" s="185"/>
       <c r="D49" s="185"/>
-      <c r="E49" s="185"/>
-      <c r="F49" s="188"/>
-      <c r="G49" s="199"/>
-      <c r="H49" s="199"/>
-      <c r="I49" s="199"/>
+      <c r="E49" s="110"/>
+      <c r="F49" s="187"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
       <c r="J49" s="107"/>
     </row>
     <row r="50" spans="1:10" s="108" customFormat="1">
       <c r="A50" s="199">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B50" s="194" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C50" s="185"/>
       <c r="D50" s="185"/>
       <c r="E50" s="185"/>
-      <c r="F50" s="188"/>
-      <c r="G50" s="199"/>
-      <c r="H50" s="199"/>
-      <c r="I50" s="199"/>
+      <c r="F50" s="187"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
       <c r="J50" s="107"/>
     </row>
     <row r="51" spans="1:10" s="108" customFormat="1">
       <c r="A51" s="199">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B51" s="194" t="s">
-        <v>217</v>
+        <v>262</v>
       </c>
       <c r="C51" s="185"/>
       <c r="D51" s="185"/>
       <c r="E51" s="185"/>
-      <c r="F51" s="188"/>
-      <c r="G51" s="199"/>
-      <c r="H51" s="199"/>
-      <c r="I51" s="199"/>
+      <c r="F51" s="187"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
       <c r="J51" s="107"/>
     </row>
     <row r="52" spans="1:10" s="108" customFormat="1">
       <c r="A52" s="199">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B52" s="211" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="194" t="s">
         <v>209</v>
       </c>
       <c r="C52" s="185"/>
       <c r="D52" s="185"/>
       <c r="E52" s="185"/>
       <c r="F52" s="187"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
+      <c r="G52" s="199"/>
+      <c r="H52" s="199"/>
+      <c r="I52" s="199"/>
       <c r="J52" s="107"/>
     </row>
     <row r="53" spans="1:10" s="108" customFormat="1">
       <c r="A53" s="199">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B53" s="194" t="s">
-        <v>218</v>
+        <v>32</v>
+      </c>
+      <c r="B53" s="109" t="s">
+        <v>229</v>
       </c>
       <c r="C53" s="185"/>
       <c r="D53" s="185"/>
@@ -7100,15 +6823,15 @@
     <row r="54" spans="1:10" s="108" customFormat="1">
       <c r="A54" s="199">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B54" s="194" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C54" s="185"/>
       <c r="D54" s="185"/>
       <c r="E54" s="185"/>
-      <c r="F54" s="187"/>
+      <c r="F54" s="211"/>
       <c r="G54" s="32"/>
       <c r="H54" s="32"/>
       <c r="I54" s="32"/>
@@ -7117,49 +6840,46 @@
     <row r="55" spans="1:10" s="108" customFormat="1">
       <c r="A55" s="199">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B55" s="194" t="s">
-        <v>225</v>
+        <v>34</v>
+      </c>
+      <c r="B55" s="222" t="s">
+        <v>220</v>
       </c>
       <c r="C55" s="185"/>
       <c r="D55" s="185"/>
-      <c r="E55" s="185"/>
-      <c r="F55" s="187"/>
-      <c r="G55" s="199"/>
-      <c r="H55" s="199"/>
-      <c r="I55" s="199"/>
+      <c r="E55" s="218"/>
+      <c r="F55" s="211"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
       <c r="J55" s="107"/>
     </row>
     <row r="56" spans="1:10" s="108" customFormat="1">
       <c r="A56" s="199">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B56" s="194" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C56" s="185"/>
       <c r="D56" s="185"/>
-      <c r="E56" s="185"/>
-      <c r="F56" s="187"/>
+      <c r="E56" s="212"/>
+      <c r="F56" s="211"/>
       <c r="G56" s="32"/>
       <c r="H56" s="32"/>
       <c r="I56" s="32"/>
       <c r="J56" s="107"/>
     </row>
     <row r="57" spans="1:10" s="108" customFormat="1">
-      <c r="A57" s="199">
-        <f t="shared" ca="1" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B57" s="194" t="s">
-        <v>221</v>
-      </c>
-      <c r="C57" s="185"/>
-      <c r="D57" s="185"/>
-      <c r="E57" s="185"/>
-      <c r="F57" s="212"/>
+      <c r="A57" s="199"/>
+      <c r="B57" s="104" t="s">
+        <v>210</v>
+      </c>
+      <c r="C57" s="104"/>
+      <c r="D57" s="105"/>
+      <c r="E57" s="105"/>
+      <c r="F57" s="105"/>
       <c r="G57" s="32"/>
       <c r="H57" s="32"/>
       <c r="I57" s="32"/>
@@ -7168,15 +6888,15 @@
     <row r="58" spans="1:10" s="108" customFormat="1">
       <c r="A58" s="199">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B58" s="194" t="s">
-        <v>222</v>
-      </c>
-      <c r="C58" s="185"/>
-      <c r="D58" s="185"/>
-      <c r="E58" s="213"/>
-      <c r="F58" s="212"/>
+        <v>36</v>
+      </c>
+      <c r="B58" s="109" t="s">
+        <v>223</v>
+      </c>
+      <c r="C58" s="109"/>
+      <c r="D58" s="110"/>
+      <c r="E58" s="110"/>
+      <c r="F58" s="110"/>
       <c r="G58" s="32"/>
       <c r="H58" s="32"/>
       <c r="I58" s="32"/>
@@ -7185,15 +6905,15 @@
     <row r="59" spans="1:10" s="108" customFormat="1">
       <c r="A59" s="199">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B59" s="194" t="s">
-        <v>204</v>
-      </c>
-      <c r="C59" s="185"/>
-      <c r="D59" s="185"/>
-      <c r="E59" s="213"/>
-      <c r="F59" s="212"/>
+        <v>257</v>
+      </c>
+      <c r="C59" s="109"/>
+      <c r="D59" s="110"/>
+      <c r="E59" s="110"/>
+      <c r="F59" s="110"/>
       <c r="G59" s="32"/>
       <c r="H59" s="32"/>
       <c r="I59" s="32"/>
@@ -7202,15 +6922,15 @@
     <row r="60" spans="1:10" s="108" customFormat="1">
       <c r="A60" s="199">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B60" s="194" t="s">
-        <v>215</v>
-      </c>
-      <c r="C60" s="185"/>
-      <c r="D60" s="185"/>
-      <c r="E60" s="213"/>
-      <c r="F60" s="212"/>
+        <v>38</v>
+      </c>
+      <c r="B60" s="109" t="s">
+        <v>239</v>
+      </c>
+      <c r="C60" s="109"/>
+      <c r="D60" s="110"/>
+      <c r="E60" s="112"/>
+      <c r="F60" s="113"/>
       <c r="G60" s="32"/>
       <c r="H60" s="32"/>
       <c r="I60" s="32"/>
@@ -7219,15 +6939,15 @@
     <row r="61" spans="1:10" s="108" customFormat="1">
       <c r="A61" s="199">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B61" s="194" t="s">
-        <v>214</v>
-      </c>
-      <c r="C61" s="185"/>
-      <c r="D61" s="185"/>
-      <c r="E61" s="213"/>
-      <c r="F61" s="212"/>
+        <v>39</v>
+      </c>
+      <c r="B61" s="109" t="s">
+        <v>211</v>
+      </c>
+      <c r="C61" s="109"/>
+      <c r="D61" s="110"/>
+      <c r="E61" s="112"/>
+      <c r="F61" s="113"/>
       <c r="G61" s="32"/>
       <c r="H61" s="32"/>
       <c r="I61" s="32"/>
@@ -7236,83 +6956,80 @@
     <row r="62" spans="1:10" s="108" customFormat="1">
       <c r="A62" s="199">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B62" s="104" t="s">
-        <v>227</v>
-      </c>
-      <c r="C62" s="104"/>
-      <c r="D62" s="105"/>
-      <c r="E62" s="105"/>
-      <c r="F62" s="105"/>
+        <v>40</v>
+      </c>
+      <c r="B62" s="109" t="s">
+        <v>212</v>
+      </c>
+      <c r="C62" s="109"/>
+      <c r="D62" s="110"/>
+      <c r="E62" s="112"/>
+      <c r="F62" s="113"/>
       <c r="G62" s="32"/>
       <c r="H62" s="32"/>
       <c r="I62" s="32"/>
       <c r="J62" s="107"/>
     </row>
     <row r="63" spans="1:10" s="108" customFormat="1">
-      <c r="A63" s="199">
+      <c r="A63" s="220">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B63" s="194" t="s">
-        <v>223</v>
+        <v>41</v>
+      </c>
+      <c r="B63" s="109" t="s">
+        <v>231</v>
       </c>
       <c r="C63" s="109"/>
       <c r="D63" s="110"/>
-      <c r="E63" s="110"/>
-      <c r="F63" s="110"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="32"/>
+      <c r="E63" s="224"/>
+      <c r="F63" s="113"/>
+      <c r="G63" s="220"/>
+      <c r="H63" s="220"/>
+      <c r="I63" s="220"/>
       <c r="J63" s="107"/>
     </row>
     <row r="64" spans="1:10" s="108" customFormat="1">
-      <c r="A64" s="199">
+      <c r="A64" s="220">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B64" s="194" t="s">
-        <v>202</v>
+        <v>42</v>
+      </c>
+      <c r="B64" s="222" t="s">
+        <v>233</v>
       </c>
       <c r="C64" s="109"/>
       <c r="D64" s="110"/>
-      <c r="E64" s="110"/>
-      <c r="F64" s="110"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="32"/>
+      <c r="E64" s="210"/>
+      <c r="F64" s="113"/>
+      <c r="G64" s="220"/>
+      <c r="H64" s="220"/>
+      <c r="I64" s="220"/>
       <c r="J64" s="107"/>
     </row>
     <row r="65" spans="1:10" s="108" customFormat="1">
-      <c r="A65" s="199">
+      <c r="A65" s="220">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B65" s="109" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C65" s="109"/>
       <c r="D65" s="110"/>
-      <c r="E65" s="112"/>
+      <c r="E65" s="225"/>
       <c r="F65" s="113"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="32"/>
+      <c r="G65" s="220"/>
+      <c r="H65" s="220"/>
+      <c r="I65" s="220"/>
       <c r="J65" s="107"/>
     </row>
     <row r="66" spans="1:10" s="108" customFormat="1">
-      <c r="A66" s="199">
-        <f t="shared" ca="1" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B66" s="109" t="s">
-        <v>228</v>
-      </c>
-      <c r="C66" s="109"/>
-      <c r="D66" s="110"/>
-      <c r="E66" s="112"/>
-      <c r="F66" s="113"/>
+      <c r="A66" s="199"/>
+      <c r="B66" s="104" t="s">
+        <v>213</v>
+      </c>
+      <c r="C66" s="104"/>
+      <c r="D66" s="105"/>
+      <c r="E66" s="105"/>
+      <c r="F66" s="114"/>
       <c r="G66" s="32"/>
       <c r="H66" s="32"/>
       <c r="I66" s="32"/>
@@ -7321,61 +7038,61 @@
     <row r="67" spans="1:10" s="108" customFormat="1">
       <c r="A67" s="199">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B67" s="109" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C67" s="109"/>
       <c r="D67" s="110"/>
-      <c r="E67" s="112"/>
-      <c r="F67" s="113"/>
+      <c r="E67" s="110"/>
+      <c r="F67" s="110"/>
       <c r="G67" s="32"/>
       <c r="H67" s="32"/>
       <c r="I67" s="32"/>
       <c r="J67" s="107"/>
     </row>
     <row r="68" spans="1:10" s="108" customFormat="1">
-      <c r="A68" s="199">
+      <c r="A68" s="220">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B68" s="104" t="s">
-        <v>231</v>
-      </c>
-      <c r="C68" s="104"/>
-      <c r="D68" s="105"/>
-      <c r="E68" s="105"/>
-      <c r="F68" s="114"/>
+        <v>45</v>
+      </c>
+      <c r="B68" s="194" t="s">
+        <v>257</v>
+      </c>
+      <c r="C68" s="109"/>
+      <c r="D68" s="110"/>
+      <c r="E68" s="110"/>
+      <c r="F68" s="110"/>
       <c r="G68" s="32"/>
       <c r="H68" s="32"/>
       <c r="I68" s="32"/>
       <c r="J68" s="107"/>
     </row>
     <row r="69" spans="1:10" s="108" customFormat="1">
-      <c r="A69" s="199">
+      <c r="A69" s="220">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B69" s="194" t="s">
-        <v>223</v>
+        <v>46</v>
+      </c>
+      <c r="B69" s="213" t="s">
+        <v>234</v>
       </c>
       <c r="C69" s="109"/>
       <c r="D69" s="110"/>
       <c r="E69" s="110"/>
       <c r="F69" s="110"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="32"/>
-      <c r="I69" s="32"/>
+      <c r="G69" s="220"/>
+      <c r="H69" s="220"/>
+      <c r="I69" s="220"/>
       <c r="J69" s="107"/>
     </row>
     <row r="70" spans="1:10" s="108" customFormat="1">
-      <c r="A70" s="199">
+      <c r="A70" s="220">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B70" s="194" t="s">
-        <v>202</v>
+        <v>47</v>
+      </c>
+      <c r="B70" s="109" t="s">
+        <v>215</v>
       </c>
       <c r="C70" s="109"/>
       <c r="D70" s="110"/>
@@ -7387,148 +7104,145 @@
       <c r="J70" s="107"/>
     </row>
     <row r="71" spans="1:10" s="108" customFormat="1">
-      <c r="A71" s="199">
+      <c r="A71" s="220">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B71" s="109" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C71" s="109"/>
       <c r="D71" s="110"/>
-      <c r="E71" s="110"/>
+      <c r="E71" s="218"/>
       <c r="F71" s="110"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="32"/>
+      <c r="G71" s="199"/>
+      <c r="H71" s="199"/>
+      <c r="I71" s="199"/>
       <c r="J71" s="107"/>
     </row>
     <row r="72" spans="1:10" s="108" customFormat="1">
-      <c r="A72" s="199">
+      <c r="A72" s="220">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B72" s="109" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C72" s="109"/>
       <c r="D72" s="110"/>
-      <c r="E72" s="215"/>
+      <c r="E72" s="112"/>
       <c r="F72" s="110"/>
-      <c r="G72" s="199"/>
-      <c r="H72" s="199"/>
-      <c r="I72" s="199"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="32"/>
       <c r="J72" s="107"/>
     </row>
     <row r="73" spans="1:10" s="108" customFormat="1">
-      <c r="A73" s="199">
+      <c r="A73" s="220">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B73" s="109" t="s">
-        <v>228</v>
-      </c>
-      <c r="C73" s="109"/>
-      <c r="D73" s="110"/>
-      <c r="E73" s="112"/>
-      <c r="F73" s="110"/>
+        <v>236</v>
+      </c>
+      <c r="C73" s="213"/>
+      <c r="D73" s="201"/>
+      <c r="E73" s="219"/>
+      <c r="F73" s="201"/>
       <c r="G73" s="32"/>
       <c r="H73" s="32"/>
       <c r="I73" s="32"/>
       <c r="J73" s="107"/>
     </row>
     <row r="74" spans="1:10" s="108" customFormat="1">
-      <c r="A74" s="199">
+      <c r="A74" s="220">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B74" s="109" t="s">
-        <v>229</v>
-      </c>
-      <c r="C74" s="214"/>
+        <v>237</v>
+      </c>
+      <c r="C74" s="213"/>
       <c r="D74" s="201"/>
-      <c r="E74" s="201"/>
+      <c r="E74" s="219"/>
       <c r="F74" s="201"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="32"/>
-      <c r="I74" s="32"/>
+      <c r="G74" s="220"/>
+      <c r="H74" s="220"/>
+      <c r="I74" s="220"/>
       <c r="J74" s="107"/>
     </row>
     <row r="75" spans="1:10" s="108" customFormat="1">
-      <c r="A75" s="199">
+      <c r="A75" s="220">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B75" s="104" t="s">
+        <v>52</v>
+      </c>
+      <c r="B75" s="222" t="s">
         <v>233</v>
       </c>
-      <c r="C75" s="104"/>
-      <c r="D75" s="105"/>
-      <c r="E75" s="105"/>
-      <c r="F75" s="105"/>
-      <c r="G75" s="199"/>
-      <c r="H75" s="199"/>
-      <c r="I75" s="199"/>
+      <c r="C75" s="213"/>
+      <c r="D75" s="201"/>
+      <c r="E75" s="219"/>
+      <c r="F75" s="201"/>
+      <c r="G75" s="220"/>
+      <c r="H75" s="220"/>
+      <c r="I75" s="220"/>
       <c r="J75" s="107"/>
     </row>
     <row r="76" spans="1:10" s="108" customFormat="1">
-      <c r="A76" s="199">
+      <c r="A76" s="220">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="B76" s="194" t="s">
+        <v>53</v>
+      </c>
+      <c r="B76" s="109" t="s">
+        <v>238</v>
+      </c>
+      <c r="C76" s="213"/>
+      <c r="D76" s="201"/>
+      <c r="E76" s="219"/>
+      <c r="F76" s="201"/>
+      <c r="G76" s="220"/>
+      <c r="H76" s="220"/>
+      <c r="I76" s="220"/>
+      <c r="J76" s="107"/>
+    </row>
+    <row r="77" spans="1:10" s="108" customFormat="1">
+      <c r="A77" s="220"/>
+      <c r="B77" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="C77" s="104"/>
+      <c r="D77" s="105"/>
+      <c r="E77" s="105"/>
+      <c r="F77" s="105"/>
+      <c r="G77" s="199"/>
+      <c r="H77" s="199"/>
+      <c r="I77" s="199"/>
+      <c r="J77" s="107"/>
+    </row>
+    <row r="78" spans="1:10" s="108" customFormat="1">
+      <c r="A78" s="220">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B78" s="109" t="s">
         <v>223</v>
-      </c>
-      <c r="C76" s="109"/>
-      <c r="D76" s="110"/>
-      <c r="E76" s="110"/>
-      <c r="F76" s="110"/>
-      <c r="G76" s="32"/>
-      <c r="H76" s="32"/>
-      <c r="I76" s="32"/>
-      <c r="J76" s="107"/>
-    </row>
-    <row r="77" spans="1:10" s="108" customFormat="1">
-      <c r="A77" s="199">
-        <f t="shared" ca="1" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="B77" s="194" t="s">
-        <v>202</v>
-      </c>
-      <c r="C77" s="109"/>
-      <c r="D77" s="110"/>
-      <c r="E77" s="110"/>
-      <c r="F77" s="110"/>
-      <c r="G77" s="32"/>
-      <c r="H77" s="32"/>
-      <c r="I77" s="32"/>
-      <c r="J77" s="107"/>
-    </row>
-    <row r="78" spans="1:10" s="108" customFormat="1">
-      <c r="A78" s="199">
-        <f t="shared" ca="1" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="B78" s="109" t="s">
-        <v>235</v>
       </c>
       <c r="C78" s="109"/>
       <c r="D78" s="110"/>
       <c r="E78" s="110"/>
-      <c r="F78" s="113"/>
+      <c r="F78" s="110"/>
       <c r="G78" s="32"/>
       <c r="H78" s="32"/>
       <c r="I78" s="32"/>
       <c r="J78" s="107"/>
     </row>
     <row r="79" spans="1:10" s="108" customFormat="1">
-      <c r="A79" s="199">
+      <c r="A79" s="220">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="B79" s="109" t="s">
-        <v>234</v>
+        <v>55</v>
+      </c>
+      <c r="B79" s="194" t="s">
+        <v>257</v>
       </c>
       <c r="C79" s="109"/>
       <c r="D79" s="110"/>
@@ -7540,97 +7254,97 @@
       <c r="J79" s="107"/>
     </row>
     <row r="80" spans="1:10" s="108" customFormat="1">
-      <c r="A80" s="199">
+      <c r="A80" s="220">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="B80" s="109" t="s">
-        <v>228</v>
+        <v>56</v>
+      </c>
+      <c r="B80" s="213" t="s">
+        <v>246</v>
       </c>
       <c r="C80" s="109"/>
       <c r="D80" s="110"/>
       <c r="E80" s="110"/>
-      <c r="F80" s="113"/>
-      <c r="G80" s="32"/>
-      <c r="H80" s="32"/>
-      <c r="I80" s="32"/>
+      <c r="F80" s="110"/>
+      <c r="G80" s="220"/>
+      <c r="H80" s="220"/>
+      <c r="I80" s="220"/>
       <c r="J80" s="107"/>
     </row>
     <row r="81" spans="1:10" s="108" customFormat="1">
-      <c r="A81" s="199">
+      <c r="A81" s="220">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B81" s="109" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="C81" s="109"/>
       <c r="D81" s="110"/>
       <c r="E81" s="110"/>
-      <c r="F81" s="113"/>
-      <c r="G81" s="32"/>
-      <c r="H81" s="32"/>
-      <c r="I81" s="32"/>
+      <c r="F81" s="110"/>
+      <c r="G81" s="220"/>
+      <c r="H81" s="220"/>
+      <c r="I81" s="220"/>
       <c r="J81" s="107"/>
     </row>
     <row r="82" spans="1:10" s="108" customFormat="1">
-      <c r="A82" s="199">
+      <c r="A82" s="220">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="B82" s="104" t="s">
-        <v>237</v>
-      </c>
-      <c r="C82" s="104"/>
-      <c r="D82" s="105"/>
-      <c r="E82" s="184"/>
-      <c r="F82" s="105"/>
-      <c r="G82" s="32"/>
-      <c r="H82" s="32"/>
-      <c r="I82" s="32"/>
+        <v>58</v>
+      </c>
+      <c r="B82" s="109" t="s">
+        <v>241</v>
+      </c>
+      <c r="C82" s="109"/>
+      <c r="D82" s="110"/>
+      <c r="E82" s="110"/>
+      <c r="F82" s="110"/>
+      <c r="G82" s="220"/>
+      <c r="H82" s="220"/>
+      <c r="I82" s="220"/>
       <c r="J82" s="107"/>
     </row>
     <row r="83" spans="1:10" s="108" customFormat="1">
-      <c r="A83" s="199">
+      <c r="A83" s="220">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="B83" s="194" t="s">
-        <v>223</v>
+        <v>59</v>
+      </c>
+      <c r="B83" s="109" t="s">
+        <v>242</v>
       </c>
       <c r="C83" s="109"/>
       <c r="D83" s="110"/>
       <c r="E83" s="110"/>
       <c r="F83" s="110"/>
-      <c r="G83" s="32"/>
-      <c r="H83" s="32"/>
-      <c r="I83" s="32"/>
+      <c r="G83" s="220"/>
+      <c r="H83" s="220"/>
+      <c r="I83" s="220"/>
       <c r="J83" s="107"/>
     </row>
     <row r="84" spans="1:10" s="108" customFormat="1">
-      <c r="A84" s="199">
-        <f t="shared" ref="A84:A92" ca="1" si="1">IF(OFFSET(A84,-1,0) ="",OFFSET(A84,-2,0)+1,OFFSET(A84,-1,0)+1 )</f>
-        <v>65</v>
-      </c>
-      <c r="B84" s="194" t="s">
-        <v>202</v>
+      <c r="A84" s="220">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B84" s="109" t="s">
+        <v>243</v>
       </c>
       <c r="C84" s="109"/>
       <c r="D84" s="110"/>
       <c r="E84" s="110"/>
-      <c r="F84" s="110"/>
+      <c r="F84" s="113"/>
       <c r="G84" s="32"/>
       <c r="H84" s="32"/>
       <c r="I84" s="32"/>
       <c r="J84" s="107"/>
     </row>
     <row r="85" spans="1:10" s="108" customFormat="1">
-      <c r="A85" s="199">
-        <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+      <c r="A85" s="220">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
       </c>
       <c r="B85" s="109" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C85" s="109"/>
       <c r="D85" s="110"/>
@@ -7642,180 +7356,200 @@
       <c r="J85" s="107"/>
     </row>
     <row r="86" spans="1:10" s="108" customFormat="1">
-      <c r="A86" s="199">
+      <c r="A86" s="220">
+        <f t="shared" ca="1" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B86" s="222" t="s">
+        <v>233</v>
+      </c>
+      <c r="C86" s="109"/>
+      <c r="D86" s="110"/>
+      <c r="E86" s="110"/>
+      <c r="F86" s="113"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="32"/>
+      <c r="I86" s="32"/>
+      <c r="J86" s="107"/>
+    </row>
+    <row r="87" spans="1:10" s="108" customFormat="1">
+      <c r="A87" s="220">
+        <f t="shared" ca="1" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B87" s="109" t="s">
+        <v>245</v>
+      </c>
+      <c r="C87" s="109"/>
+      <c r="D87" s="110"/>
+      <c r="E87" s="110"/>
+      <c r="F87" s="113"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="32"/>
+      <c r="J87" s="107"/>
+    </row>
+    <row r="88" spans="1:10" s="108" customFormat="1">
+      <c r="A88" s="220"/>
+      <c r="B88" s="104" t="s">
+        <v>216</v>
+      </c>
+      <c r="C88" s="104"/>
+      <c r="D88" s="105"/>
+      <c r="E88" s="184"/>
+      <c r="F88" s="105"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="32"/>
+      <c r="I88" s="32"/>
+      <c r="J88" s="107"/>
+    </row>
+    <row r="89" spans="1:10" s="108" customFormat="1">
+      <c r="A89" s="220">
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B89" s="213" t="s">
+        <v>250</v>
+      </c>
+      <c r="C89" s="213"/>
+      <c r="D89" s="201"/>
+      <c r="E89" s="221"/>
+      <c r="F89" s="201"/>
+      <c r="G89" s="217"/>
+      <c r="H89" s="217"/>
+      <c r="I89" s="217"/>
+      <c r="J89" s="107"/>
+    </row>
+    <row r="90" spans="1:10" s="108" customFormat="1">
+      <c r="A90" s="220">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B90" s="109" t="s">
+        <v>223</v>
+      </c>
+      <c r="C90" s="109"/>
+      <c r="D90" s="110"/>
+      <c r="E90" s="110" t="s">
+        <v>247</v>
+      </c>
+      <c r="F90" s="110"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="32"/>
+      <c r="I90" s="32"/>
+      <c r="J90" s="107"/>
+    </row>
+    <row r="91" spans="1:10" s="108" customFormat="1">
+      <c r="A91" s="220">
+        <f t="shared" ref="A91:A108" ca="1" si="1">IF(OFFSET(A91,-1,0) ="",OFFSET(A91,-2,0)+1,OFFSET(A91,-1,0)+1 )</f>
+        <v>66</v>
+      </c>
+      <c r="B91" s="109" t="s">
+        <v>249</v>
+      </c>
+      <c r="C91" s="109"/>
+      <c r="D91" s="110"/>
+      <c r="E91" s="110"/>
+      <c r="F91" s="110"/>
+      <c r="G91" s="117"/>
+      <c r="H91" s="117"/>
+      <c r="I91" s="117"/>
+      <c r="J91" s="118"/>
+    </row>
+    <row r="92" spans="1:10" s="108" customFormat="1">
+      <c r="A92" s="220"/>
+      <c r="B92" s="104" t="s">
+        <v>219</v>
+      </c>
+      <c r="C92" s="104"/>
+      <c r="D92" s="105"/>
+      <c r="E92" s="105" t="s">
+        <v>221</v>
+      </c>
+      <c r="F92" s="116"/>
+      <c r="G92" s="117"/>
+      <c r="H92" s="117"/>
+      <c r="I92" s="117"/>
+      <c r="J92" s="118"/>
+    </row>
+    <row r="93" spans="1:10" s="108" customFormat="1">
+      <c r="A93" s="220">
         <f t="shared" ca="1" si="1"/>
         <v>67</v>
       </c>
-      <c r="B86" s="104" t="s">
-        <v>244</v>
-      </c>
-      <c r="C86" s="104"/>
-      <c r="D86" s="105"/>
-      <c r="E86" s="105"/>
-      <c r="F86" s="116"/>
-      <c r="G86" s="117"/>
-      <c r="H86" s="117"/>
-      <c r="I86" s="117"/>
-      <c r="J86" s="118"/>
-    </row>
-    <row r="87" spans="1:10" s="108" customFormat="1" ht="30">
-      <c r="A87" s="199">
+      <c r="B93" s="109" t="s">
+        <v>252</v>
+      </c>
+      <c r="C93" s="109"/>
+      <c r="D93" s="110"/>
+      <c r="E93" s="112"/>
+      <c r="F93" s="115" t="s">
+        <v>251</v>
+      </c>
+      <c r="G93" s="117"/>
+      <c r="H93" s="117"/>
+      <c r="I93" s="117"/>
+      <c r="J93" s="118"/>
+    </row>
+    <row r="94" spans="1:10" s="108" customFormat="1">
+      <c r="A94" s="220">
         <f t="shared" ca="1" si="1"/>
         <v>68</v>
       </c>
-      <c r="B87" s="109" t="s">
-        <v>245</v>
-      </c>
-      <c r="C87" s="109"/>
-      <c r="D87" s="110"/>
-      <c r="E87" s="112"/>
-      <c r="F87" s="115"/>
-      <c r="G87" s="117"/>
-      <c r="H87" s="117"/>
-      <c r="I87" s="117"/>
-      <c r="J87" s="118"/>
-    </row>
-    <row r="88" spans="1:10" s="108" customFormat="1">
-      <c r="A88" s="220"/>
-      <c r="B88" s="109" t="s">
-        <v>246</v>
-      </c>
-      <c r="C88" s="109"/>
-      <c r="D88" s="110"/>
-      <c r="E88" s="219"/>
-      <c r="F88" s="115"/>
-      <c r="G88" s="117"/>
-      <c r="H88" s="117"/>
-      <c r="I88" s="117"/>
-      <c r="J88" s="118"/>
-    </row>
-    <row r="89" spans="1:10" s="108" customFormat="1">
-      <c r="A89" s="199">
+      <c r="B94" s="109" t="s">
+        <v>253</v>
+      </c>
+      <c r="C94" s="109"/>
+      <c r="D94" s="110"/>
+      <c r="E94" s="223"/>
+      <c r="F94" s="115"/>
+      <c r="G94" s="117"/>
+      <c r="H94" s="117"/>
+      <c r="I94" s="117"/>
+      <c r="J94" s="118"/>
+    </row>
+    <row r="95" spans="1:10" s="108" customFormat="1">
+      <c r="A95" s="220">
         <f t="shared" ca="1" si="1"/>
         <v>69</v>
       </c>
-      <c r="B89" s="109" t="s">
-        <v>239</v>
-      </c>
-      <c r="C89" s="109"/>
-      <c r="D89" s="110"/>
-      <c r="E89" s="112"/>
-      <c r="F89" s="115"/>
-      <c r="G89" s="117"/>
-      <c r="H89" s="117"/>
-      <c r="I89" s="117"/>
-      <c r="J89" s="118"/>
-    </row>
-    <row r="90" spans="1:10" s="216" customFormat="1" ht="30">
-      <c r="A90" s="199">
+      <c r="B95" s="109" t="s">
+        <v>248</v>
+      </c>
+      <c r="C95" s="109"/>
+      <c r="D95" s="110"/>
+      <c r="E95" s="216"/>
+      <c r="F95" s="115"/>
+      <c r="G95" s="117"/>
+      <c r="H95" s="117"/>
+      <c r="I95" s="117"/>
+      <c r="J95" s="118"/>
+    </row>
+    <row r="96" spans="1:10" s="108" customFormat="1">
+      <c r="A96" s="220">
         <f t="shared" ca="1" si="1"/>
         <v>70</v>
       </c>
-      <c r="B90" s="109" t="s">
-        <v>240</v>
-      </c>
-      <c r="C90" s="195"/>
-      <c r="D90" s="195"/>
-      <c r="E90" s="219" t="s">
-        <v>242</v>
-      </c>
-      <c r="F90" s="195"/>
-      <c r="G90" s="195"/>
-      <c r="H90" s="195"/>
-      <c r="I90" s="195"/>
-      <c r="J90" s="195"/>
-    </row>
-    <row r="91" spans="1:10" s="217" customFormat="1">
-      <c r="A91" s="199">
+      <c r="B96" s="109" t="s">
+        <v>217</v>
+      </c>
+      <c r="C96" s="109"/>
+      <c r="D96" s="110"/>
+      <c r="E96" s="112"/>
+      <c r="F96" s="115"/>
+      <c r="G96" s="117"/>
+      <c r="H96" s="117"/>
+      <c r="I96" s="117"/>
+      <c r="J96" s="118"/>
+    </row>
+    <row r="97" spans="1:11" s="214" customFormat="1">
+      <c r="A97" s="220">
         <f t="shared" ca="1" si="1"/>
         <v>71</v>
       </c>
-      <c r="B91" s="194" t="s">
-        <v>241</v>
-      </c>
-      <c r="C91" s="185"/>
-      <c r="D91" s="185"/>
-      <c r="E91" s="185"/>
-      <c r="F91" s="187"/>
-      <c r="G91" s="188"/>
-      <c r="H91" s="188"/>
-      <c r="I91" s="188"/>
-      <c r="J91" s="189"/>
-    </row>
-    <row r="92" spans="1:10" s="217" customFormat="1">
-      <c r="A92" s="199">
-        <f t="shared" ca="1" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="B92" s="218" t="s">
-        <v>243</v>
-      </c>
-      <c r="C92" s="185"/>
-      <c r="D92" s="185"/>
-      <c r="E92" s="185"/>
-      <c r="F92" s="187"/>
-      <c r="G92" s="188"/>
-      <c r="H92" s="188"/>
-      <c r="I92" s="188"/>
-      <c r="J92" s="189"/>
-    </row>
-    <row r="93" spans="1:10" s="217" customFormat="1">
-      <c r="A93" s="188"/>
-      <c r="B93" s="194"/>
-      <c r="C93" s="185"/>
-      <c r="D93" s="185"/>
-      <c r="E93" s="185"/>
-      <c r="F93" s="187"/>
-      <c r="G93" s="188"/>
-      <c r="H93" s="188"/>
-      <c r="I93" s="188"/>
-      <c r="J93" s="189"/>
-    </row>
-    <row r="94" spans="1:10" s="217" customFormat="1">
-      <c r="A94" s="188"/>
-      <c r="B94" s="218"/>
-      <c r="C94" s="185"/>
-      <c r="D94" s="185"/>
-      <c r="E94" s="185"/>
-      <c r="F94" s="187"/>
-      <c r="G94" s="188"/>
-      <c r="H94" s="188"/>
-      <c r="I94" s="188"/>
-      <c r="J94" s="189"/>
-    </row>
-    <row r="95" spans="1:10" s="217" customFormat="1">
-      <c r="A95" s="188"/>
-      <c r="B95" s="194"/>
-      <c r="C95" s="185"/>
-      <c r="D95" s="185"/>
-      <c r="E95" s="185"/>
-      <c r="F95" s="187"/>
-      <c r="G95" s="188"/>
-      <c r="H95" s="188"/>
-      <c r="I95" s="188"/>
-      <c r="J95" s="189"/>
-    </row>
-    <row r="96" spans="1:10" s="119" customFormat="1">
-      <c r="A96" s="32">
-        <f ca="1">IF(OFFSET(A96,-1,0) ="",OFFSET(A96,-2,0)+1,OFFSET(A96,-1,0)+1 )</f>
-        <v>1</v>
-      </c>
-      <c r="B96" s="194"/>
-      <c r="C96" s="185"/>
-      <c r="D96" s="185"/>
-      <c r="E96" s="185"/>
-      <c r="F96" s="187"/>
-      <c r="G96" s="188"/>
-      <c r="H96" s="188"/>
-      <c r="I96" s="188"/>
-      <c r="J96" s="189"/>
-    </row>
-    <row r="97" spans="1:11" s="119" customFormat="1">
-      <c r="A97" s="32">
-        <f ca="1">IF(OFFSET(A97,-1,0) ="",OFFSET(A97,-2,0)+1,OFFSET(A97,-1,0)+1 )</f>
-        <v>2</v>
-      </c>
-      <c r="B97" s="194"/>
+      <c r="B97" s="194" t="s">
+        <v>218</v>
+      </c>
       <c r="C97" s="185"/>
       <c r="D97" s="185"/>
       <c r="E97" s="185"/>
@@ -7825,27 +7559,31 @@
       <c r="I97" s="188"/>
       <c r="J97" s="189"/>
     </row>
-    <row r="98" spans="1:11" s="119" customFormat="1">
-      <c r="A98" s="32">
-        <f ca="1">IF(OFFSET(A98,-1,0) ="",OFFSET(A98,-2,0)+1,OFFSET(A98,-1,0)+1 )</f>
-        <v>3</v>
-      </c>
-      <c r="B98" s="194"/>
+    <row r="98" spans="1:11" s="214" customFormat="1">
+      <c r="A98" s="220">
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B98" s="194" t="s">
+        <v>254</v>
+      </c>
       <c r="C98" s="185"/>
-      <c r="D98" s="188"/>
-      <c r="E98" s="188"/>
+      <c r="D98" s="185"/>
+      <c r="E98" s="185"/>
       <c r="F98" s="187"/>
       <c r="G98" s="188"/>
       <c r="H98" s="188"/>
       <c r="I98" s="188"/>
       <c r="J98" s="189"/>
     </row>
-    <row r="99" spans="1:11" s="119" customFormat="1">
-      <c r="A99" s="32">
-        <f ca="1">IF(OFFSET(A99,-1,0) ="",OFFSET(A99,-2,0)+1,OFFSET(A99,-1,0)+1 )</f>
-        <v>4</v>
-      </c>
-      <c r="B99" s="194"/>
+    <row r="99" spans="1:11" s="214" customFormat="1">
+      <c r="A99" s="220">
+        <f t="shared" ca="1" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B99" s="215" t="s">
+        <v>255</v>
+      </c>
       <c r="C99" s="185"/>
       <c r="D99" s="185"/>
       <c r="E99" s="185"/>
@@ -7855,9 +7593,14 @@
       <c r="I99" s="188"/>
       <c r="J99" s="189"/>
     </row>
-    <row r="100" spans="1:11" s="119" customFormat="1">
-      <c r="A100" s="32"/>
-      <c r="B100" s="194"/>
+    <row r="100" spans="1:11" s="214" customFormat="1">
+      <c r="A100" s="220">
+        <f t="shared" ca="1" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B100" s="215" t="s">
+        <v>256</v>
+      </c>
       <c r="C100" s="185"/>
       <c r="D100" s="185"/>
       <c r="E100" s="185"/>
@@ -7868,86 +7611,84 @@
       <c r="J100" s="189"/>
     </row>
     <row r="101" spans="1:11" s="119" customFormat="1">
-      <c r="A101" s="32">
-        <f ca="1">IF(OFFSET(A101,-1,0) ="",OFFSET(A101,-2,0)+1,OFFSET(A101,-1,0)+1 )</f>
-        <v>5</v>
+      <c r="A101" s="220">
+        <f t="shared" ca="1" si="1"/>
+        <v>75</v>
       </c>
       <c r="B101" s="194"/>
-      <c r="C101" s="194"/>
+      <c r="C101" s="185"/>
       <c r="D101" s="185"/>
       <c r="E101" s="185"/>
-      <c r="F101" s="185"/>
-      <c r="G101" s="187"/>
+      <c r="F101" s="187"/>
+      <c r="G101" s="188"/>
       <c r="H101" s="188"/>
       <c r="I101" s="188"/>
-      <c r="J101" s="188"/>
-      <c r="K101" s="120"/>
+      <c r="J101" s="189"/>
     </row>
     <row r="102" spans="1:11" s="119" customFormat="1">
-      <c r="A102" s="32">
-        <f ca="1">IF(OFFSET(A102,-1,0) ="",OFFSET(A102,-2,0)+1,OFFSET(A102,-1,0)+1 )</f>
-        <v>6</v>
+      <c r="A102" s="220">
+        <f t="shared" ca="1" si="1"/>
+        <v>76</v>
       </c>
       <c r="B102" s="194"/>
-      <c r="C102" s="194"/>
+      <c r="C102" s="185"/>
       <c r="D102" s="185"/>
       <c r="E102" s="185"/>
-      <c r="F102" s="185"/>
-      <c r="G102" s="187"/>
+      <c r="F102" s="187"/>
+      <c r="G102" s="188"/>
       <c r="H102" s="188"/>
       <c r="I102" s="188"/>
-      <c r="J102" s="188"/>
-      <c r="K102" s="120"/>
+      <c r="J102" s="189"/>
     </row>
     <row r="103" spans="1:11" s="119" customFormat="1">
-      <c r="A103" s="32">
-        <f ca="1">IF(OFFSET(A103,-1,0) ="",OFFSET(A103,-2,0)+1,OFFSET(A103,-1,0)+1 )</f>
-        <v>7</v>
+      <c r="A103" s="220">
+        <f t="shared" ca="1" si="1"/>
+        <v>77</v>
       </c>
       <c r="B103" s="194"/>
-      <c r="C103" s="194"/>
-      <c r="D103" s="185"/>
-      <c r="E103" s="185"/>
-      <c r="F103" s="185"/>
-      <c r="G103" s="187"/>
+      <c r="C103" s="185"/>
+      <c r="D103" s="188"/>
+      <c r="E103" s="188"/>
+      <c r="F103" s="187"/>
+      <c r="G103" s="188"/>
       <c r="H103" s="188"/>
       <c r="I103" s="188"/>
-      <c r="J103" s="188"/>
-      <c r="K103" s="120"/>
+      <c r="J103" s="189"/>
     </row>
     <row r="104" spans="1:11" s="119" customFormat="1">
-      <c r="A104" s="32">
-        <f ca="1">IF(OFFSET(A104,-1,0) ="",OFFSET(A104,-2,0)+1,OFFSET(A104,-1,0)+1 )</f>
-        <v>8</v>
+      <c r="A104" s="220">
+        <f t="shared" ca="1" si="1"/>
+        <v>78</v>
       </c>
       <c r="B104" s="194"/>
-      <c r="C104" s="194"/>
+      <c r="C104" s="185"/>
       <c r="D104" s="185"/>
       <c r="E104" s="185"/>
-      <c r="F104" s="185"/>
-      <c r="G104" s="187"/>
+      <c r="F104" s="187"/>
+      <c r="G104" s="188"/>
       <c r="H104" s="188"/>
       <c r="I104" s="188"/>
-      <c r="J104" s="188"/>
-      <c r="K104" s="120"/>
+      <c r="J104" s="189"/>
     </row>
     <row r="105" spans="1:11" s="119" customFormat="1">
-      <c r="A105" s="32"/>
+      <c r="A105" s="220">
+        <f t="shared" ca="1" si="1"/>
+        <v>79</v>
+      </c>
       <c r="B105" s="194"/>
-      <c r="C105" s="194"/>
+      <c r="C105" s="185"/>
       <c r="D105" s="185"/>
       <c r="E105" s="185"/>
-      <c r="F105" s="185"/>
-      <c r="G105" s="187"/>
+      <c r="F105" s="187"/>
+      <c r="G105" s="188"/>
       <c r="H105" s="188"/>
       <c r="I105" s="188"/>
-      <c r="J105" s="188"/>
-      <c r="K105" s="120"/>
+      <c r="J105" s="189"/>
     </row>
     <row r="106" spans="1:11" s="119" customFormat="1">
-      <c r="A106" s="32">
-        <f t="shared" ref="A106:A119" ca="1" si="2">IF(OFFSET(A106,-1,0) ="",OFFSET(A106,-2,0)+1,OFFSET(A106,-1,0)+1 )</f>
-        <v>9</v>
+      <c r="A106" s="220">
+        <f t="shared" ca="1" si="1"/>
+        <v>80</v>
       </c>
       <c r="B106" s="194"/>
       <c r="C106" s="194"/>
@@ -7961,9 +7702,9 @@
       <c r="K106" s="120"/>
     </row>
     <row r="107" spans="1:11" s="119" customFormat="1">
-      <c r="A107" s="32">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+      <c r="A107" s="220">
+        <f t="shared" ca="1" si="1"/>
+        <v>81</v>
       </c>
       <c r="B107" s="194"/>
       <c r="C107" s="194"/>
@@ -7977,15 +7718,15 @@
       <c r="K107" s="120"/>
     </row>
     <row r="108" spans="1:11" s="119" customFormat="1">
-      <c r="A108" s="32">
-        <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+      <c r="A108" s="220">
+        <f t="shared" ca="1" si="1"/>
+        <v>82</v>
       </c>
       <c r="B108" s="194"/>
       <c r="C108" s="194"/>
       <c r="D108" s="185"/>
       <c r="E108" s="185"/>
-      <c r="F108" s="196"/>
+      <c r="F108" s="185"/>
       <c r="G108" s="187"/>
       <c r="H108" s="188"/>
       <c r="I108" s="188"/>
@@ -7993,10 +7734,7 @@
       <c r="K108" s="120"/>
     </row>
     <row r="109" spans="1:11" s="119" customFormat="1">
-      <c r="A109" s="32">
-        <f t="shared" ca="1" si="2"/>
-        <v>12</v>
-      </c>
+      <c r="A109" s="32"/>
       <c r="B109" s="194"/>
       <c r="C109" s="194"/>
       <c r="D109" s="185"/>
@@ -8009,15 +7747,12 @@
       <c r="K109" s="120"/>
     </row>
     <row r="110" spans="1:11" s="119" customFormat="1">
-      <c r="A110" s="32">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
-      </c>
+      <c r="A110" s="32"/>
       <c r="B110" s="194"/>
       <c r="C110" s="194"/>
       <c r="D110" s="185"/>
       <c r="E110" s="185"/>
-      <c r="F110" s="188"/>
+      <c r="F110" s="185"/>
       <c r="G110" s="187"/>
       <c r="H110" s="188"/>
       <c r="I110" s="188"/>
@@ -8025,15 +7760,12 @@
       <c r="K110" s="120"/>
     </row>
     <row r="111" spans="1:11" s="119" customFormat="1">
-      <c r="A111" s="32">
-        <f t="shared" ca="1" si="2"/>
-        <v>14</v>
-      </c>
+      <c r="A111" s="32"/>
       <c r="B111" s="194"/>
       <c r="C111" s="194"/>
       <c r="D111" s="185"/>
       <c r="E111" s="185"/>
-      <c r="F111" s="188"/>
+      <c r="F111" s="185"/>
       <c r="G111" s="187"/>
       <c r="H111" s="188"/>
       <c r="I111" s="188"/>
@@ -8041,15 +7773,12 @@
       <c r="K111" s="120"/>
     </row>
     <row r="112" spans="1:11" s="119" customFormat="1">
-      <c r="A112" s="32">
-        <f t="shared" ca="1" si="2"/>
-        <v>15</v>
-      </c>
+      <c r="A112" s="32"/>
       <c r="B112" s="194"/>
       <c r="C112" s="194"/>
       <c r="D112" s="185"/>
       <c r="E112" s="185"/>
-      <c r="F112" s="188"/>
+      <c r="F112" s="196"/>
       <c r="G112" s="187"/>
       <c r="H112" s="188"/>
       <c r="I112" s="188"/>
@@ -8057,15 +7786,12 @@
       <c r="K112" s="120"/>
     </row>
     <row r="113" spans="1:11" s="119" customFormat="1">
-      <c r="A113" s="32">
-        <f t="shared" ca="1" si="2"/>
-        <v>16</v>
-      </c>
+      <c r="A113" s="32"/>
       <c r="B113" s="194"/>
       <c r="C113" s="194"/>
       <c r="D113" s="185"/>
       <c r="E113" s="185"/>
-      <c r="F113" s="188"/>
+      <c r="F113" s="185"/>
       <c r="G113" s="187"/>
       <c r="H113" s="188"/>
       <c r="I113" s="188"/>
@@ -8073,10 +7799,7 @@
       <c r="K113" s="120"/>
     </row>
     <row r="114" spans="1:11" s="119" customFormat="1">
-      <c r="A114" s="32">
-        <f t="shared" ca="1" si="2"/>
-        <v>17</v>
-      </c>
+      <c r="A114" s="32"/>
       <c r="B114" s="194"/>
       <c r="C114" s="194"/>
       <c r="D114" s="185"/>
@@ -8089,15 +7812,12 @@
       <c r="K114" s="120"/>
     </row>
     <row r="115" spans="1:11" s="119" customFormat="1">
-      <c r="A115" s="32">
-        <f t="shared" ca="1" si="2"/>
-        <v>18</v>
-      </c>
+      <c r="A115" s="32"/>
       <c r="B115" s="194"/>
       <c r="C115" s="194"/>
       <c r="D115" s="185"/>
       <c r="E115" s="185"/>
-      <c r="F115" s="185"/>
+      <c r="F115" s="188"/>
       <c r="G115" s="187"/>
       <c r="H115" s="188"/>
       <c r="I115" s="188"/>
@@ -8105,15 +7825,12 @@
       <c r="K115" s="120"/>
     </row>
     <row r="116" spans="1:11" s="119" customFormat="1">
-      <c r="A116" s="32">
-        <f t="shared" ca="1" si="2"/>
-        <v>19</v>
-      </c>
+      <c r="A116" s="32"/>
       <c r="B116" s="194"/>
       <c r="C116" s="194"/>
       <c r="D116" s="185"/>
       <c r="E116" s="185"/>
-      <c r="F116" s="185"/>
+      <c r="F116" s="188"/>
       <c r="G116" s="187"/>
       <c r="H116" s="188"/>
       <c r="I116" s="188"/>
@@ -8121,15 +7838,12 @@
       <c r="K116" s="120"/>
     </row>
     <row r="117" spans="1:11" s="119" customFormat="1">
-      <c r="A117" s="32">
-        <f t="shared" ca="1" si="2"/>
-        <v>20</v>
-      </c>
+      <c r="A117" s="32"/>
       <c r="B117" s="194"/>
       <c r="C117" s="194"/>
       <c r="D117" s="185"/>
       <c r="E117" s="185"/>
-      <c r="F117" s="185"/>
+      <c r="F117" s="188"/>
       <c r="G117" s="187"/>
       <c r="H117" s="188"/>
       <c r="I117" s="188"/>
@@ -8137,15 +7851,12 @@
       <c r="K117" s="120"/>
     </row>
     <row r="118" spans="1:11" s="119" customFormat="1">
-      <c r="A118" s="32">
-        <f t="shared" ca="1" si="2"/>
-        <v>21</v>
-      </c>
+      <c r="A118" s="32"/>
       <c r="B118" s="194"/>
       <c r="C118" s="194"/>
       <c r="D118" s="185"/>
       <c r="E118" s="185"/>
-      <c r="F118" s="185"/>
+      <c r="F118" s="188"/>
       <c r="G118" s="187"/>
       <c r="H118" s="188"/>
       <c r="I118" s="188"/>
@@ -8153,10 +7864,7 @@
       <c r="K118" s="120"/>
     </row>
     <row r="119" spans="1:11" s="119" customFormat="1">
-      <c r="A119" s="32">
-        <f t="shared" ca="1" si="2"/>
-        <v>22</v>
-      </c>
+      <c r="A119" s="32"/>
       <c r="B119" s="194"/>
       <c r="C119" s="194"/>
       <c r="D119" s="185"/>
@@ -8182,10 +7890,7 @@
       <c r="K120" s="120"/>
     </row>
     <row r="121" spans="1:11" s="119" customFormat="1">
-      <c r="A121" s="32">
-        <f ca="1">IF(OFFSET(A121,-1,0) ="",OFFSET(A121,-2,0)+1,OFFSET(A121,-1,0)+1 )</f>
-        <v>23</v>
-      </c>
+      <c r="A121" s="32"/>
       <c r="B121" s="194"/>
       <c r="C121" s="194"/>
       <c r="D121" s="185"/>
@@ -8198,10 +7903,7 @@
       <c r="K121" s="120"/>
     </row>
     <row r="122" spans="1:11" s="119" customFormat="1">
-      <c r="A122" s="32">
-        <f ca="1">IF(OFFSET(A122,-1,0) ="",OFFSET(A122,-2,0)+1,OFFSET(A122,-1,0)+1 )</f>
-        <v>24</v>
-      </c>
+      <c r="A122" s="32"/>
       <c r="B122" s="194"/>
       <c r="C122" s="194"/>
       <c r="D122" s="185"/>
@@ -8214,10 +7916,7 @@
       <c r="K122" s="120"/>
     </row>
     <row r="123" spans="1:11" s="119" customFormat="1">
-      <c r="A123" s="32">
-        <f ca="1">IF(OFFSET(A123,-1,0) ="",OFFSET(A123,-2,0)+1,OFFSET(A123,-1,0)+1 )</f>
-        <v>25</v>
-      </c>
+      <c r="A123" s="32"/>
       <c r="B123" s="194"/>
       <c r="C123" s="194"/>
       <c r="D123" s="185"/>
@@ -8230,15 +7929,12 @@
       <c r="K123" s="120"/>
     </row>
     <row r="124" spans="1:11" s="119" customFormat="1">
-      <c r="A124" s="32">
-        <f ca="1">IF(OFFSET(A124,-1,0) ="",OFFSET(A124,-2,0)+1,OFFSET(A124,-1,0)+1 )</f>
-        <v>26</v>
-      </c>
+      <c r="A124" s="32"/>
       <c r="B124" s="194"/>
       <c r="C124" s="194"/>
       <c r="D124" s="185"/>
       <c r="E124" s="185"/>
-      <c r="F124" s="188"/>
+      <c r="F124" s="185"/>
       <c r="G124" s="187"/>
       <c r="H124" s="188"/>
       <c r="I124" s="188"/>
@@ -8251,7 +7947,7 @@
       <c r="C125" s="194"/>
       <c r="D125" s="185"/>
       <c r="E125" s="185"/>
-      <c r="F125" s="188"/>
+      <c r="F125" s="185"/>
       <c r="G125" s="187"/>
       <c r="H125" s="188"/>
       <c r="I125" s="188"/>
@@ -8259,10 +7955,7 @@
       <c r="K125" s="120"/>
     </row>
     <row r="126" spans="1:11" s="119" customFormat="1">
-      <c r="A126" s="32">
-        <f ca="1">IF(OFFSET(A126,-1,0) ="",OFFSET(A126,-2,0)+1,OFFSET(A126,-1,0)+1 )</f>
-        <v>27</v>
-      </c>
+      <c r="A126" s="32"/>
       <c r="B126" s="194"/>
       <c r="C126" s="194"/>
       <c r="D126" s="185"/>
@@ -8275,10 +7968,7 @@
       <c r="K126" s="120"/>
     </row>
     <row r="127" spans="1:11" s="119" customFormat="1">
-      <c r="A127" s="32">
-        <f ca="1">IF(OFFSET(A127,-1,0) ="",OFFSET(A127,-2,0)+1,OFFSET(A127,-1,0)+1 )</f>
-        <v>28</v>
-      </c>
+      <c r="A127" s="32"/>
       <c r="B127" s="194"/>
       <c r="C127" s="194"/>
       <c r="D127" s="185"/>
@@ -8291,15 +7981,12 @@
       <c r="K127" s="120"/>
     </row>
     <row r="128" spans="1:11" s="119" customFormat="1">
-      <c r="A128" s="32">
-        <f ca="1">IF(OFFSET(A128,-1,0) ="",OFFSET(A128,-2,0)+1,OFFSET(A128,-1,0)+1 )</f>
-        <v>29</v>
-      </c>
+      <c r="A128" s="32"/>
       <c r="B128" s="194"/>
       <c r="C128" s="194"/>
       <c r="D128" s="185"/>
       <c r="E128" s="185"/>
-      <c r="F128" s="185"/>
+      <c r="F128" s="188"/>
       <c r="G128" s="187"/>
       <c r="H128" s="188"/>
       <c r="I128" s="188"/>
@@ -8312,7 +7999,7 @@
       <c r="C129" s="194"/>
       <c r="D129" s="185"/>
       <c r="E129" s="185"/>
-      <c r="F129" s="185"/>
+      <c r="F129" s="188"/>
       <c r="G129" s="187"/>
       <c r="H129" s="188"/>
       <c r="I129" s="188"/>
@@ -8320,10 +8007,7 @@
       <c r="K129" s="120"/>
     </row>
     <row r="130" spans="1:11" s="119" customFormat="1">
-      <c r="A130" s="32">
-        <f t="shared" ref="A130:A143" ca="1" si="3">IF(OFFSET(A130,-1,0) ="",OFFSET(A130,-2,0)+1,OFFSET(A130,-1,0)+1 )</f>
-        <v>30</v>
-      </c>
+      <c r="A130" s="32"/>
       <c r="B130" s="194"/>
       <c r="C130" s="194"/>
       <c r="D130" s="185"/>
@@ -8336,10 +8020,7 @@
       <c r="K130" s="120"/>
     </row>
     <row r="131" spans="1:11" s="119" customFormat="1">
-      <c r="A131" s="32">
-        <f t="shared" ca="1" si="3"/>
-        <v>31</v>
-      </c>
+      <c r="A131" s="32"/>
       <c r="B131" s="194"/>
       <c r="C131" s="194"/>
       <c r="D131" s="185"/>
@@ -8352,15 +8033,12 @@
       <c r="K131" s="120"/>
     </row>
     <row r="132" spans="1:11" s="119" customFormat="1">
-      <c r="A132" s="32">
-        <f t="shared" ca="1" si="3"/>
-        <v>32</v>
-      </c>
+      <c r="A132" s="32"/>
       <c r="B132" s="194"/>
       <c r="C132" s="194"/>
       <c r="D132" s="185"/>
       <c r="E132" s="185"/>
-      <c r="F132" s="188"/>
+      <c r="F132" s="185"/>
       <c r="G132" s="187"/>
       <c r="H132" s="188"/>
       <c r="I132" s="188"/>
@@ -8368,10 +8046,7 @@
       <c r="K132" s="120"/>
     </row>
     <row r="133" spans="1:11" s="119" customFormat="1">
-      <c r="A133" s="32">
-        <f t="shared" ca="1" si="3"/>
-        <v>33</v>
-      </c>
+      <c r="A133" s="32"/>
       <c r="B133" s="194"/>
       <c r="C133" s="194"/>
       <c r="D133" s="185"/>
@@ -8384,15 +8059,12 @@
       <c r="K133" s="120"/>
     </row>
     <row r="134" spans="1:11" s="119" customFormat="1">
-      <c r="A134" s="32">
-        <f t="shared" ca="1" si="3"/>
-        <v>34</v>
-      </c>
+      <c r="A134" s="32"/>
       <c r="B134" s="194"/>
       <c r="C134" s="194"/>
       <c r="D134" s="185"/>
       <c r="E134" s="185"/>
-      <c r="F134" s="188"/>
+      <c r="F134" s="185"/>
       <c r="G134" s="187"/>
       <c r="H134" s="188"/>
       <c r="I134" s="188"/>
@@ -8400,15 +8072,12 @@
       <c r="K134" s="120"/>
     </row>
     <row r="135" spans="1:11" s="119" customFormat="1">
-      <c r="A135" s="32">
-        <f t="shared" ca="1" si="3"/>
-        <v>35</v>
-      </c>
+      <c r="A135" s="32"/>
       <c r="B135" s="194"/>
       <c r="C135" s="194"/>
       <c r="D135" s="185"/>
       <c r="E135" s="185"/>
-      <c r="F135" s="188"/>
+      <c r="F135" s="185"/>
       <c r="G135" s="187"/>
       <c r="H135" s="188"/>
       <c r="I135" s="188"/>
@@ -8416,15 +8085,12 @@
       <c r="K135" s="120"/>
     </row>
     <row r="136" spans="1:11" s="119" customFormat="1">
-      <c r="A136" s="32">
-        <f t="shared" ca="1" si="3"/>
-        <v>36</v>
-      </c>
+      <c r="A136" s="32"/>
       <c r="B136" s="194"/>
       <c r="C136" s="194"/>
       <c r="D136" s="185"/>
       <c r="E136" s="185"/>
-      <c r="F136" s="185"/>
+      <c r="F136" s="188"/>
       <c r="G136" s="187"/>
       <c r="H136" s="188"/>
       <c r="I136" s="188"/>
@@ -8432,10 +8098,7 @@
       <c r="K136" s="120"/>
     </row>
     <row r="137" spans="1:11" s="119" customFormat="1">
-      <c r="A137" s="32">
-        <f t="shared" ca="1" si="3"/>
-        <v>37</v>
-      </c>
+      <c r="A137" s="32"/>
       <c r="B137" s="194"/>
       <c r="C137" s="194"/>
       <c r="D137" s="185"/>
@@ -8448,10 +8111,7 @@
       <c r="K137" s="120"/>
     </row>
     <row r="138" spans="1:11" s="119" customFormat="1">
-      <c r="A138" s="32">
-        <f t="shared" ca="1" si="3"/>
-        <v>38</v>
-      </c>
+      <c r="A138" s="32"/>
       <c r="B138" s="194"/>
       <c r="C138" s="194"/>
       <c r="D138" s="185"/>
@@ -8464,10 +8124,7 @@
       <c r="K138" s="120"/>
     </row>
     <row r="139" spans="1:11" s="119" customFormat="1">
-      <c r="A139" s="32">
-        <f t="shared" ca="1" si="3"/>
-        <v>39</v>
-      </c>
+      <c r="A139" s="32"/>
       <c r="B139" s="194"/>
       <c r="C139" s="194"/>
       <c r="D139" s="185"/>
@@ -8480,15 +8137,12 @@
       <c r="K139" s="120"/>
     </row>
     <row r="140" spans="1:11" s="119" customFormat="1">
-      <c r="A140" s="32">
-        <f t="shared" ca="1" si="3"/>
-        <v>40</v>
-      </c>
+      <c r="A140" s="32"/>
       <c r="B140" s="194"/>
       <c r="C140" s="194"/>
       <c r="D140" s="185"/>
       <c r="E140" s="185"/>
-      <c r="F140" s="188"/>
+      <c r="F140" s="185"/>
       <c r="G140" s="187"/>
       <c r="H140" s="188"/>
       <c r="I140" s="188"/>
@@ -8496,15 +8150,12 @@
       <c r="K140" s="120"/>
     </row>
     <row r="141" spans="1:11" s="119" customFormat="1">
-      <c r="A141" s="32">
-        <f t="shared" ca="1" si="3"/>
-        <v>41</v>
-      </c>
+      <c r="A141" s="32"/>
       <c r="B141" s="194"/>
       <c r="C141" s="194"/>
       <c r="D141" s="185"/>
       <c r="E141" s="185"/>
-      <c r="F141" s="188"/>
+      <c r="F141" s="185"/>
       <c r="G141" s="187"/>
       <c r="H141" s="188"/>
       <c r="I141" s="188"/>
@@ -8512,10 +8163,7 @@
       <c r="K141" s="120"/>
     </row>
     <row r="142" spans="1:11" s="119" customFormat="1">
-      <c r="A142" s="32">
-        <f t="shared" ca="1" si="3"/>
-        <v>42</v>
-      </c>
+      <c r="A142" s="32"/>
       <c r="B142" s="194"/>
       <c r="C142" s="194"/>
       <c r="D142" s="185"/>
@@ -8528,10 +8176,7 @@
       <c r="K142" s="120"/>
     </row>
     <row r="143" spans="1:11" s="119" customFormat="1">
-      <c r="A143" s="32">
-        <f t="shared" ca="1" si="3"/>
-        <v>43</v>
-      </c>
+      <c r="A143" s="32"/>
       <c r="B143" s="194"/>
       <c r="C143" s="194"/>
       <c r="D143" s="185"/>
@@ -8549,7 +8194,7 @@
       <c r="C144" s="194"/>
       <c r="D144" s="185"/>
       <c r="E144" s="185"/>
-      <c r="F144" s="185"/>
+      <c r="F144" s="188"/>
       <c r="G144" s="187"/>
       <c r="H144" s="188"/>
       <c r="I144" s="188"/>
@@ -8557,15 +8202,12 @@
       <c r="K144" s="120"/>
     </row>
     <row r="145" spans="1:11" s="119" customFormat="1">
-      <c r="A145" s="32">
-        <f ca="1">IF(OFFSET(A145,-1,0) ="",OFFSET(A145,-2,0)+1,OFFSET(A145,-1,0)+1 )</f>
-        <v>44</v>
-      </c>
+      <c r="A145" s="32"/>
       <c r="B145" s="194"/>
       <c r="C145" s="194"/>
       <c r="D145" s="185"/>
       <c r="E145" s="185"/>
-      <c r="F145" s="185"/>
+      <c r="F145" s="188"/>
       <c r="G145" s="187"/>
       <c r="H145" s="188"/>
       <c r="I145" s="188"/>
@@ -8573,15 +8215,12 @@
       <c r="K145" s="120"/>
     </row>
     <row r="146" spans="1:11" s="119" customFormat="1">
-      <c r="A146" s="32">
-        <f ca="1">IF(OFFSET(A146,-1,0) ="",OFFSET(A146,-2,0)+1,OFFSET(A146,-1,0)+1 )</f>
-        <v>45</v>
-      </c>
+      <c r="A146" s="32"/>
       <c r="B146" s="194"/>
       <c r="C146" s="194"/>
       <c r="D146" s="185"/>
       <c r="E146" s="185"/>
-      <c r="F146" s="185"/>
+      <c r="F146" s="188"/>
       <c r="G146" s="187"/>
       <c r="H146" s="188"/>
       <c r="I146" s="188"/>
@@ -8589,39 +8228,33 @@
       <c r="K146" s="120"/>
     </row>
     <row r="147" spans="1:11" s="119" customFormat="1">
-      <c r="A147" s="32">
-        <f ca="1">IF(OFFSET(A147,-1,0) ="",OFFSET(A147,-2,0)+1,OFFSET(A147,-1,0)+1 )</f>
-        <v>46</v>
-      </c>
+      <c r="A147" s="32"/>
       <c r="B147" s="194"/>
       <c r="C147" s="194"/>
       <c r="D147" s="185"/>
       <c r="E147" s="185"/>
-      <c r="F147" s="185"/>
+      <c r="F147" s="188"/>
       <c r="G147" s="187"/>
       <c r="H147" s="188"/>
       <c r="I147" s="188"/>
       <c r="J147" s="188"/>
       <c r="K147" s="120"/>
     </row>
-    <row r="148" spans="1:11" s="119" customFormat="1" ht="14.25">
+    <row r="148" spans="1:11" s="119" customFormat="1">
       <c r="A148" s="32"/>
-      <c r="B148" s="195"/>
-      <c r="C148" s="195"/>
-      <c r="D148" s="195"/>
-      <c r="E148" s="195"/>
-      <c r="F148" s="195"/>
-      <c r="G148" s="195"/>
-      <c r="H148" s="195"/>
-      <c r="I148" s="195"/>
-      <c r="J148" s="195"/>
+      <c r="B148" s="194"/>
+      <c r="C148" s="194"/>
+      <c r="D148" s="185"/>
+      <c r="E148" s="185"/>
+      <c r="F148" s="185"/>
+      <c r="G148" s="187"/>
+      <c r="H148" s="188"/>
+      <c r="I148" s="188"/>
+      <c r="J148" s="188"/>
       <c r="K148" s="120"/>
     </row>
     <row r="149" spans="1:11" s="119" customFormat="1">
-      <c r="A149" s="32">
-        <f ca="1">IF(OFFSET(A149,-1,0) ="",OFFSET(A149,-2,0)+1,OFFSET(A149,-1,0)+1 )</f>
-        <v>47</v>
-      </c>
+      <c r="A149" s="32"/>
       <c r="B149" s="194"/>
       <c r="C149" s="194"/>
       <c r="D149" s="185"/>
@@ -8633,74 +8266,75 @@
       <c r="J149" s="188"/>
       <c r="K149" s="120"/>
     </row>
-    <row r="150" spans="1:11" s="119" customFormat="1" ht="14.25">
+    <row r="150" spans="1:11" s="119" customFormat="1">
       <c r="A150" s="32"/>
-      <c r="B150" s="195"/>
-      <c r="C150" s="195"/>
-      <c r="D150" s="195"/>
-      <c r="E150" s="195"/>
-      <c r="F150" s="195"/>
-      <c r="G150" s="195"/>
-      <c r="H150" s="195"/>
-      <c r="I150" s="195"/>
-      <c r="J150" s="195"/>
+      <c r="B150" s="194"/>
+      <c r="C150" s="194"/>
+      <c r="D150" s="185"/>
+      <c r="E150" s="185"/>
+      <c r="F150" s="185"/>
+      <c r="G150" s="187"/>
+      <c r="H150" s="188"/>
+      <c r="I150" s="188"/>
+      <c r="J150" s="188"/>
       <c r="K150" s="120"/>
     </row>
     <row r="151" spans="1:11" s="119" customFormat="1">
-      <c r="A151" s="32">
-        <f ca="1">IF(OFFSET(A151,-1,0) ="",OFFSET(A151,-2,0)+1,OFFSET(A151,-1,0)+1 )</f>
-        <v>48</v>
-      </c>
+      <c r="A151" s="32"/>
       <c r="B151" s="194"/>
-      <c r="C151" s="185"/>
+      <c r="C151" s="194"/>
       <c r="D151" s="185"/>
       <c r="E151" s="185"/>
-      <c r="F151" s="187"/>
-      <c r="G151" s="188"/>
+      <c r="F151" s="185"/>
+      <c r="G151" s="187"/>
       <c r="H151" s="188"/>
       <c r="I151" s="188"/>
-      <c r="J151" s="189"/>
-    </row>
-    <row r="152" spans="1:11" s="119" customFormat="1">
-      <c r="A152" s="121"/>
-      <c r="B152" s="194"/>
-      <c r="C152" s="185"/>
-      <c r="D152" s="185"/>
-      <c r="E152" s="185"/>
-      <c r="F152" s="187"/>
-      <c r="G152" s="188"/>
-      <c r="H152" s="188"/>
-      <c r="I152" s="188"/>
-      <c r="J152" s="189"/>
+      <c r="J151" s="188"/>
+      <c r="K151" s="120"/>
+    </row>
+    <row r="152" spans="1:11" s="119" customFormat="1" ht="14.25">
+      <c r="A152" s="32"/>
+      <c r="B152" s="195"/>
+      <c r="C152" s="195"/>
+      <c r="D152" s="195"/>
+      <c r="E152" s="195"/>
+      <c r="F152" s="195"/>
+      <c r="G152" s="195"/>
+      <c r="H152" s="195"/>
+      <c r="I152" s="195"/>
+      <c r="J152" s="195"/>
+      <c r="K152" s="120"/>
     </row>
     <row r="153" spans="1:11" s="119" customFormat="1">
-      <c r="A153" s="121"/>
+      <c r="A153" s="32"/>
       <c r="B153" s="194"/>
-      <c r="C153" s="186"/>
+      <c r="C153" s="194"/>
       <c r="D153" s="185"/>
       <c r="E153" s="185"/>
-      <c r="F153" s="187"/>
-      <c r="G153" s="188"/>
+      <c r="F153" s="185"/>
+      <c r="G153" s="187"/>
       <c r="H153" s="188"/>
       <c r="I153" s="188"/>
-      <c r="J153" s="189"/>
-    </row>
-    <row r="154" spans="1:11" s="119" customFormat="1">
-      <c r="A154" s="121"/>
-      <c r="B154" s="194"/>
-      <c r="C154" s="186"/>
-      <c r="D154" s="185"/>
-      <c r="E154" s="185"/>
-      <c r="F154" s="187"/>
-      <c r="G154" s="188"/>
-      <c r="H154" s="188"/>
-      <c r="I154" s="188"/>
-      <c r="J154" s="189"/>
+      <c r="J153" s="188"/>
+      <c r="K153" s="120"/>
+    </row>
+    <row r="154" spans="1:11" s="119" customFormat="1" ht="14.25">
+      <c r="A154" s="32"/>
+      <c r="B154" s="195"/>
+      <c r="C154" s="195"/>
+      <c r="D154" s="195"/>
+      <c r="E154" s="195"/>
+      <c r="F154" s="195"/>
+      <c r="G154" s="195"/>
+      <c r="H154" s="195"/>
+      <c r="I154" s="195"/>
+      <c r="J154" s="195"/>
+      <c r="K154" s="120"/>
     </row>
     <row r="155" spans="1:11" s="119" customFormat="1">
-      <c r="A155" s="121"/>
+      <c r="A155" s="32"/>
       <c r="B155" s="194"/>
-      <c r="C155" s="186"/>
+      <c r="C155" s="185"/>
       <c r="D155" s="185"/>
       <c r="E155" s="185"/>
       <c r="F155" s="187"/>
@@ -8721,48 +8355,48 @@
       <c r="I156" s="188"/>
       <c r="J156" s="189"/>
     </row>
-    <row r="157" spans="1:11" s="123" customFormat="1">
+    <row r="157" spans="1:11" s="119" customFormat="1">
       <c r="A157" s="121"/>
-      <c r="B157" s="248"/>
-      <c r="C157" s="248"/>
-      <c r="D157" s="248"/>
-      <c r="E157" s="197"/>
+      <c r="B157" s="194"/>
+      <c r="C157" s="186"/>
+      <c r="D157" s="185"/>
+      <c r="E157" s="185"/>
       <c r="F157" s="187"/>
       <c r="G157" s="188"/>
       <c r="H157" s="188"/>
       <c r="I157" s="188"/>
       <c r="J157" s="189"/>
     </row>
-    <row r="158" spans="1:11" s="123" customFormat="1">
+    <row r="158" spans="1:11" s="119" customFormat="1">
       <c r="A158" s="121"/>
-      <c r="B158" s="190"/>
-      <c r="C158" s="191"/>
-      <c r="D158" s="191"/>
-      <c r="E158" s="191"/>
+      <c r="B158" s="194"/>
+      <c r="C158" s="186"/>
+      <c r="D158" s="185"/>
+      <c r="E158" s="185"/>
       <c r="F158" s="187"/>
       <c r="G158" s="188"/>
       <c r="H158" s="188"/>
       <c r="I158" s="188"/>
       <c r="J158" s="189"/>
     </row>
-    <row r="159" spans="1:11" s="123" customFormat="1">
+    <row r="159" spans="1:11" s="119" customFormat="1">
       <c r="A159" s="121"/>
-      <c r="B159" s="190"/>
-      <c r="C159" s="191"/>
-      <c r="D159" s="191"/>
-      <c r="E159" s="191"/>
+      <c r="B159" s="194"/>
+      <c r="C159" s="186"/>
+      <c r="D159" s="185"/>
+      <c r="E159" s="185"/>
       <c r="F159" s="187"/>
       <c r="G159" s="188"/>
       <c r="H159" s="188"/>
       <c r="I159" s="188"/>
       <c r="J159" s="189"/>
     </row>
-    <row r="160" spans="1:11" s="123" customFormat="1">
+    <row r="160" spans="1:11" s="119" customFormat="1">
       <c r="A160" s="121"/>
-      <c r="B160" s="190"/>
-      <c r="C160" s="191"/>
-      <c r="D160" s="191"/>
-      <c r="E160" s="191"/>
+      <c r="B160" s="194"/>
+      <c r="C160" s="185"/>
+      <c r="D160" s="185"/>
+      <c r="E160" s="185"/>
       <c r="F160" s="187"/>
       <c r="G160" s="188"/>
       <c r="H160" s="188"/>
@@ -8771,10 +8405,10 @@
     </row>
     <row r="161" spans="1:10" s="123" customFormat="1">
       <c r="A161" s="121"/>
-      <c r="B161" s="190"/>
-      <c r="C161" s="191"/>
-      <c r="D161" s="191"/>
-      <c r="E161" s="191"/>
+      <c r="B161" s="253"/>
+      <c r="C161" s="253"/>
+      <c r="D161" s="253"/>
+      <c r="E161" s="197"/>
       <c r="F161" s="187"/>
       <c r="G161" s="188"/>
       <c r="H161" s="188"/>
@@ -8830,7 +8464,7 @@
       <c r="J165" s="189"/>
     </row>
     <row r="166" spans="1:10" s="123" customFormat="1">
-      <c r="A166" s="124"/>
+      <c r="A166" s="121"/>
       <c r="B166" s="190"/>
       <c r="C166" s="191"/>
       <c r="D166" s="191"/>
@@ -8842,7 +8476,7 @@
       <c r="J166" s="189"/>
     </row>
     <row r="167" spans="1:10" s="123" customFormat="1">
-      <c r="A167" s="124"/>
+      <c r="A167" s="121"/>
       <c r="B167" s="190"/>
       <c r="C167" s="191"/>
       <c r="D167" s="191"/>
@@ -8854,19 +8488,19 @@
       <c r="J167" s="189"/>
     </row>
     <row r="168" spans="1:10" s="123" customFormat="1">
-      <c r="A168" s="124"/>
+      <c r="A168" s="121"/>
       <c r="B168" s="190"/>
       <c r="C168" s="191"/>
       <c r="D168" s="191"/>
       <c r="E168" s="191"/>
-      <c r="F168" s="192"/>
-      <c r="G168" s="193"/>
-      <c r="H168" s="193"/>
-      <c r="I168" s="193"/>
-      <c r="J168" s="192"/>
+      <c r="F168" s="187"/>
+      <c r="G168" s="188"/>
+      <c r="H168" s="188"/>
+      <c r="I168" s="188"/>
+      <c r="J168" s="189"/>
     </row>
     <row r="169" spans="1:10" s="123" customFormat="1">
-      <c r="A169" s="124"/>
+      <c r="A169" s="121"/>
       <c r="B169" s="190"/>
       <c r="C169" s="191"/>
       <c r="D169" s="191"/>
@@ -8907,11 +8541,11 @@
       <c r="C172" s="191"/>
       <c r="D172" s="191"/>
       <c r="E172" s="191"/>
-      <c r="F172" s="187"/>
-      <c r="G172" s="188"/>
-      <c r="H172" s="188"/>
-      <c r="I172" s="188"/>
-      <c r="J172" s="189"/>
+      <c r="F172" s="192"/>
+      <c r="G172" s="193"/>
+      <c r="H172" s="193"/>
+      <c r="I172" s="193"/>
+      <c r="J172" s="192"/>
     </row>
     <row r="173" spans="1:10" s="123" customFormat="1">
       <c r="A173" s="124"/>
@@ -8919,14 +8553,14 @@
       <c r="C173" s="191"/>
       <c r="D173" s="191"/>
       <c r="E173" s="191"/>
-      <c r="F173" s="192"/>
-      <c r="G173" s="193"/>
-      <c r="H173" s="193"/>
-      <c r="I173" s="193"/>
-      <c r="J173" s="192"/>
+      <c r="F173" s="187"/>
+      <c r="G173" s="188"/>
+      <c r="H173" s="188"/>
+      <c r="I173" s="188"/>
+      <c r="J173" s="189"/>
     </row>
     <row r="174" spans="1:10" s="123" customFormat="1">
-      <c r="A174" s="122"/>
+      <c r="A174" s="124"/>
       <c r="B174" s="190"/>
       <c r="C174" s="191"/>
       <c r="D174" s="191"/>
@@ -8938,7 +8572,7 @@
       <c r="J174" s="189"/>
     </row>
     <row r="175" spans="1:10" s="123" customFormat="1">
-      <c r="A175" s="122"/>
+      <c r="A175" s="124"/>
       <c r="B175" s="190"/>
       <c r="C175" s="191"/>
       <c r="D175" s="191"/>
@@ -8950,7 +8584,7 @@
       <c r="J175" s="189"/>
     </row>
     <row r="176" spans="1:10" s="123" customFormat="1">
-      <c r="A176" s="122"/>
+      <c r="A176" s="124"/>
       <c r="B176" s="190"/>
       <c r="C176" s="191"/>
       <c r="D176" s="191"/>
@@ -8962,7 +8596,7 @@
       <c r="J176" s="189"/>
     </row>
     <row r="177" spans="1:10" s="123" customFormat="1">
-      <c r="A177" s="125"/>
+      <c r="A177" s="124"/>
       <c r="B177" s="190"/>
       <c r="C177" s="191"/>
       <c r="D177" s="191"/>
@@ -8975,10 +8609,10 @@
     </row>
     <row r="178" spans="1:10" s="123" customFormat="1">
       <c r="A178" s="122"/>
-      <c r="B178" s="194"/>
-      <c r="C178" s="188"/>
-      <c r="D178" s="187"/>
-      <c r="E178" s="187"/>
+      <c r="B178" s="190"/>
+      <c r="C178" s="191"/>
+      <c r="D178" s="191"/>
+      <c r="E178" s="191"/>
       <c r="F178" s="187"/>
       <c r="G178" s="188"/>
       <c r="H178" s="188"/>
@@ -8987,10 +8621,10 @@
     </row>
     <row r="179" spans="1:10" s="123" customFormat="1">
       <c r="A179" s="122"/>
-      <c r="B179" s="194"/>
-      <c r="C179" s="188"/>
-      <c r="D179" s="187"/>
-      <c r="E179" s="187"/>
+      <c r="B179" s="190"/>
+      <c r="C179" s="191"/>
+      <c r="D179" s="191"/>
+      <c r="E179" s="191"/>
       <c r="F179" s="187"/>
       <c r="G179" s="188"/>
       <c r="H179" s="188"/>
@@ -8999,10 +8633,10 @@
     </row>
     <row r="180" spans="1:10" s="123" customFormat="1">
       <c r="A180" s="122"/>
-      <c r="B180" s="194"/>
-      <c r="C180" s="188"/>
-      <c r="D180" s="187"/>
-      <c r="E180" s="187"/>
+      <c r="B180" s="190"/>
+      <c r="C180" s="191"/>
+      <c r="D180" s="191"/>
+      <c r="E180" s="191"/>
       <c r="F180" s="187"/>
       <c r="G180" s="188"/>
       <c r="H180" s="188"/>
@@ -9010,16 +8644,16 @@
       <c r="J180" s="189"/>
     </row>
     <row r="181" spans="1:10" s="123" customFormat="1">
-      <c r="A181" s="122"/>
-      <c r="B181" s="194"/>
-      <c r="C181" s="188"/>
-      <c r="D181" s="187"/>
-      <c r="E181" s="187"/>
-      <c r="F181" s="187"/>
-      <c r="G181" s="188"/>
-      <c r="H181" s="188"/>
-      <c r="I181" s="188"/>
-      <c r="J181" s="189"/>
+      <c r="A181" s="125"/>
+      <c r="B181" s="190"/>
+      <c r="C181" s="191"/>
+      <c r="D181" s="191"/>
+      <c r="E181" s="191"/>
+      <c r="F181" s="192"/>
+      <c r="G181" s="193"/>
+      <c r="H181" s="193"/>
+      <c r="I181" s="193"/>
+      <c r="J181" s="192"/>
     </row>
     <row r="182" spans="1:10" s="123" customFormat="1">
       <c r="A182" s="122"/>
@@ -9105,17 +8739,17 @@
       <c r="I188" s="188"/>
       <c r="J188" s="189"/>
     </row>
-    <row r="189" spans="1:10" s="123" customFormat="1" ht="14.25">
-      <c r="A189" s="125"/>
-      <c r="B189" s="246"/>
-      <c r="C189" s="246"/>
-      <c r="D189" s="246"/>
-      <c r="E189" s="198"/>
-      <c r="F189" s="192"/>
-      <c r="G189" s="193"/>
-      <c r="H189" s="193"/>
-      <c r="I189" s="193"/>
-      <c r="J189" s="192"/>
+    <row r="189" spans="1:10" s="123" customFormat="1">
+      <c r="A189" s="122"/>
+      <c r="B189" s="194"/>
+      <c r="C189" s="188"/>
+      <c r="D189" s="187"/>
+      <c r="E189" s="187"/>
+      <c r="F189" s="187"/>
+      <c r="G189" s="188"/>
+      <c r="H189" s="188"/>
+      <c r="I189" s="188"/>
+      <c r="J189" s="189"/>
     </row>
     <row r="190" spans="1:10" s="123" customFormat="1">
       <c r="A190" s="122"/>
@@ -9155,9 +8789,9 @@
     </row>
     <row r="193" spans="1:10" s="123" customFormat="1" ht="14.25">
       <c r="A193" s="125"/>
-      <c r="B193" s="246"/>
-      <c r="C193" s="246"/>
-      <c r="D193" s="246"/>
+      <c r="B193" s="251"/>
+      <c r="C193" s="251"/>
+      <c r="D193" s="251"/>
       <c r="E193" s="198"/>
       <c r="F193" s="192"/>
       <c r="G193" s="193"/>
@@ -9203,9 +8837,9 @@
     </row>
     <row r="197" spans="1:10" s="123" customFormat="1" ht="14.25">
       <c r="A197" s="125"/>
-      <c r="B197" s="246"/>
-      <c r="C197" s="246"/>
-      <c r="D197" s="246"/>
+      <c r="B197" s="251"/>
+      <c r="C197" s="251"/>
+      <c r="D197" s="251"/>
       <c r="E197" s="198"/>
       <c r="F197" s="192"/>
       <c r="G197" s="193"/>
@@ -9237,29 +8871,29 @@
       <c r="I199" s="188"/>
       <c r="J199" s="189"/>
     </row>
-    <row r="200" spans="1:10" s="123" customFormat="1" ht="14.25">
-      <c r="A200" s="125"/>
-      <c r="B200" s="246"/>
-      <c r="C200" s="246"/>
-      <c r="D200" s="246"/>
-      <c r="E200" s="198"/>
-      <c r="F200" s="192"/>
-      <c r="G200" s="193"/>
-      <c r="H200" s="193"/>
-      <c r="I200" s="193"/>
-      <c r="J200" s="192"/>
-    </row>
-    <row r="201" spans="1:10" s="123" customFormat="1">
-      <c r="A201" s="122"/>
-      <c r="B201" s="194"/>
-      <c r="C201" s="188"/>
-      <c r="D201" s="187"/>
-      <c r="E201" s="187"/>
-      <c r="F201" s="187"/>
-      <c r="G201" s="188"/>
-      <c r="H201" s="188"/>
-      <c r="I201" s="188"/>
-      <c r="J201" s="189"/>
+    <row r="200" spans="1:10" s="123" customFormat="1">
+      <c r="A200" s="122"/>
+      <c r="B200" s="194"/>
+      <c r="C200" s="188"/>
+      <c r="D200" s="187"/>
+      <c r="E200" s="187"/>
+      <c r="F200" s="187"/>
+      <c r="G200" s="188"/>
+      <c r="H200" s="188"/>
+      <c r="I200" s="188"/>
+      <c r="J200" s="189"/>
+    </row>
+    <row r="201" spans="1:10" s="123" customFormat="1" ht="14.25">
+      <c r="A201" s="125"/>
+      <c r="B201" s="251"/>
+      <c r="C201" s="251"/>
+      <c r="D201" s="251"/>
+      <c r="E201" s="198"/>
+      <c r="F201" s="192"/>
+      <c r="G201" s="193"/>
+      <c r="H201" s="193"/>
+      <c r="I201" s="193"/>
+      <c r="J201" s="192"/>
     </row>
     <row r="202" spans="1:10" s="123" customFormat="1">
       <c r="A202" s="122"/>
@@ -9285,17 +8919,17 @@
       <c r="I203" s="188"/>
       <c r="J203" s="189"/>
     </row>
-    <row r="204" spans="1:10" s="123" customFormat="1">
-      <c r="A204" s="122"/>
-      <c r="B204" s="194"/>
-      <c r="C204" s="188"/>
-      <c r="D204" s="187"/>
-      <c r="E204" s="187"/>
-      <c r="F204" s="187"/>
-      <c r="G204" s="188"/>
-      <c r="H204" s="188"/>
-      <c r="I204" s="188"/>
-      <c r="J204" s="189"/>
+    <row r="204" spans="1:10" s="123" customFormat="1" ht="14.25">
+      <c r="A204" s="125"/>
+      <c r="B204" s="251"/>
+      <c r="C204" s="251"/>
+      <c r="D204" s="251"/>
+      <c r="E204" s="198"/>
+      <c r="F204" s="192"/>
+      <c r="G204" s="193"/>
+      <c r="H204" s="193"/>
+      <c r="I204" s="193"/>
+      <c r="J204" s="192"/>
     </row>
     <row r="205" spans="1:10" s="123" customFormat="1">
       <c r="A205" s="122"/>
@@ -9309,14 +8943,62 @@
       <c r="I205" s="188"/>
       <c r="J205" s="189"/>
     </row>
+    <row r="206" spans="1:10" s="123" customFormat="1">
+      <c r="A206" s="122"/>
+      <c r="B206" s="194"/>
+      <c r="C206" s="188"/>
+      <c r="D206" s="187"/>
+      <c r="E206" s="187"/>
+      <c r="F206" s="187"/>
+      <c r="G206" s="188"/>
+      <c r="H206" s="188"/>
+      <c r="I206" s="188"/>
+      <c r="J206" s="189"/>
+    </row>
+    <row r="207" spans="1:10" s="123" customFormat="1">
+      <c r="A207" s="122"/>
+      <c r="B207" s="194"/>
+      <c r="C207" s="188"/>
+      <c r="D207" s="187"/>
+      <c r="E207" s="187"/>
+      <c r="F207" s="187"/>
+      <c r="G207" s="188"/>
+      <c r="H207" s="188"/>
+      <c r="I207" s="188"/>
+      <c r="J207" s="189"/>
+    </row>
+    <row r="208" spans="1:10" s="123" customFormat="1">
+      <c r="A208" s="122"/>
+      <c r="B208" s="194"/>
+      <c r="C208" s="188"/>
+      <c r="D208" s="187"/>
+      <c r="E208" s="187"/>
+      <c r="F208" s="187"/>
+      <c r="G208" s="188"/>
+      <c r="H208" s="188"/>
+      <c r="I208" s="188"/>
+      <c r="J208" s="189"/>
+    </row>
+    <row r="209" spans="1:10" s="123" customFormat="1">
+      <c r="A209" s="122"/>
+      <c r="B209" s="194"/>
+      <c r="C209" s="188"/>
+      <c r="D209" s="187"/>
+      <c r="E209" s="187"/>
+      <c r="F209" s="187"/>
+      <c r="G209" s="188"/>
+      <c r="H209" s="188"/>
+      <c r="I209" s="188"/>
+      <c r="J209" s="189"/>
+    </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B200:D200"/>
+    <mergeCell ref="B204:D204"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B157:D157"/>
-    <mergeCell ref="B189:D189"/>
+    <mergeCell ref="B161:D161"/>
     <mergeCell ref="B193:D193"/>
     <mergeCell ref="B197:D197"/>
+    <mergeCell ref="B201:D201"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -9337,11 +9019,11 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G206:I263" xr:uid="{00000000-0002-0000-0500-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G210:I267" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="H101:J150 G151:I205 G19:I100" xr:uid="{00000000-0002-0000-0500-000003000000}">
+    <dataValidation type="list" allowBlank="1" sqref="G155:I209 H106:J154 G19:I105" xr:uid="{00000000-0002-0000-0500-000003000000}">
       <formula1>$A$11:$A$15</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -9385,20 +9067,20 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="G1" s="129" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="131" customFormat="1" ht="26.25">
       <c r="A2" s="130"/>
-      <c r="C2" s="249" t="s">
+      <c r="C2" s="254" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="132" t="s">
         <v>110</v>
-      </c>
-      <c r="D2" s="249"/>
-      <c r="E2" s="249"/>
-      <c r="F2" s="249"/>
-      <c r="G2" s="249"/>
-      <c r="H2" s="132" t="s">
-        <v>111</v>
       </c>
       <c r="I2" s="133"/>
       <c r="J2" s="133"/>
@@ -9407,15 +9089,15 @@
     </row>
     <row r="3" spans="1:12" s="131" customFormat="1" ht="23.25">
       <c r="A3" s="130"/>
-      <c r="C3" s="250" t="s">
+      <c r="C3" s="255" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="255"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="256" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="250"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="251" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" s="251"/>
+      <c r="G3" s="256"/>
       <c r="H3" s="133"/>
       <c r="I3" s="133"/>
       <c r="J3" s="135"/>
@@ -9440,10 +9122,10 @@
       <c r="L5" s="140"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="252" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="252"/>
+      <c r="B6" s="257" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="257"/>
       <c r="D6" s="142"/>
       <c r="E6" s="142"/>
       <c r="F6" s="142"/>
@@ -9452,7 +9134,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="B7" s="144" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" s="145"/>
       <c r="D7" s="145"/>
@@ -9465,53 +9147,53 @@
         <v>58</v>
       </c>
       <c r="B8" s="148" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="148" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="148" t="s">
+      <c r="D8" s="148" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="148" t="s">
+      <c r="E8" s="148" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="148" t="s">
+      <c r="F8" s="148" t="s">
         <v>119</v>
       </c>
-      <c r="F8" s="148" t="s">
+      <c r="G8" s="148" t="s">
         <v>120</v>
       </c>
-      <c r="G8" s="148" t="s">
+      <c r="H8" s="148" t="s">
         <v>121</v>
       </c>
-      <c r="H8" s="148" t="s">
+      <c r="I8" s="149" t="s">
         <v>122</v>
-      </c>
-      <c r="I8" s="149" t="s">
-        <v>123</v>
       </c>
       <c r="L8" s="127"/>
     </row>
     <row r="9" spans="1:12" s="154" customFormat="1" ht="14.25">
       <c r="A9" s="150"/>
       <c r="B9" s="151" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="151" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="D9" s="151" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="151" t="s">
+      <c r="E9" s="151" t="s">
         <v>126</v>
       </c>
-      <c r="E9" s="151" t="s">
+      <c r="F9" s="151" t="s">
         <v>127</v>
       </c>
-      <c r="F9" s="151" t="s">
+      <c r="G9" s="151" t="s">
         <v>128</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="H9" s="151" t="s">
         <v>129</v>
-      </c>
-      <c r="H9" s="151" t="s">
-        <v>130</v>
       </c>
       <c r="I9" s="152"/>
       <c r="J9" s="153"/>
@@ -9525,22 +9207,22 @@
         <v>66</v>
       </c>
       <c r="C10" s="156" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="156" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="156" t="s">
+      <c r="E10" s="156" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="156" t="s">
+      <c r="F10" s="156" t="s">
         <v>133</v>
       </c>
-      <c r="F10" s="156" t="s">
+      <c r="G10" s="156" t="s">
         <v>134</v>
       </c>
-      <c r="G10" s="156" t="s">
-        <v>135</v>
-      </c>
       <c r="H10" s="156" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I10" s="157"/>
       <c r="L10" s="127"/>
@@ -9553,25 +9235,25 @@
         <v>67</v>
       </c>
       <c r="C11" s="156" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="156" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="156" t="s">
+      <c r="E11" s="156" t="s">
         <v>137</v>
       </c>
-      <c r="E11" s="156" t="s">
+      <c r="F11" s="156" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="156" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" s="156" t="s">
         <v>138</v>
       </c>
-      <c r="F11" s="156" t="s">
-        <v>134</v>
-      </c>
-      <c r="G11" s="156" t="s">
-        <v>135</v>
-      </c>
-      <c r="H11" s="156" t="s">
+      <c r="I11" s="157" t="s">
         <v>139</v>
-      </c>
-      <c r="I11" s="157" t="s">
-        <v>140</v>
       </c>
       <c r="L11" s="127"/>
     </row>
@@ -9580,25 +9262,25 @@
         <v>3</v>
       </c>
       <c r="B12" s="156" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="156" t="s">
         <v>141</v>
       </c>
-      <c r="C12" s="156" t="s">
+      <c r="D12" s="156" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="156" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="156" t="s">
         <v>142</v>
       </c>
-      <c r="D12" s="156" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" s="156" t="s">
-        <v>133</v>
-      </c>
-      <c r="F12" s="156" t="s">
-        <v>143</v>
-      </c>
       <c r="G12" s="156" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H12" s="156" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I12" s="157"/>
       <c r="L12" s="127"/>
@@ -9612,11 +9294,11 @@
       <c r="G13" s="146"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B14" s="252" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" s="252"/>
-      <c r="D14" s="252"/>
+      <c r="B14" s="257" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="257"/>
+      <c r="D14" s="257"/>
       <c r="E14" s="142"/>
       <c r="F14" s="142"/>
       <c r="G14" s="143"/>
@@ -9624,7 +9306,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="144" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C15" s="145"/>
       <c r="D15" s="145"/>
@@ -9637,7 +9319,7 @@
         <v>58</v>
       </c>
       <c r="B16" s="148" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C16" s="148" t="s">
         <v>41</v>
@@ -9646,35 +9328,35 @@
         <v>43</v>
       </c>
       <c r="E16" s="148" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F16" s="148" t="s">
         <v>45</v>
       </c>
       <c r="G16" s="148" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L16" s="127"/>
     </row>
     <row r="17" spans="1:12" s="154" customFormat="1" ht="51">
       <c r="A17" s="150"/>
       <c r="B17" s="151" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C17" s="159" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="159" t="s">
         <v>148</v>
       </c>
-      <c r="D17" s="159" t="s">
+      <c r="E17" s="159" t="s">
         <v>149</v>
       </c>
-      <c r="E17" s="159" t="s">
+      <c r="F17" s="159" t="s">
         <v>150</v>
       </c>
-      <c r="F17" s="159" t="s">
+      <c r="G17" s="159" t="s">
         <v>151</v>
-      </c>
-      <c r="G17" s="159" t="s">
-        <v>152</v>
       </c>
       <c r="H17" s="153"/>
       <c r="I17" s="153"/>
@@ -9715,7 +9397,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="156" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C19" s="160" t="e">
         <f>#REF!</f>
@@ -9772,7 +9454,7 @@
       <c r="A21" s="161"/>
       <c r="B21" s="162"/>
       <c r="C21" s="163" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D21" s="164" t="e">
         <f>SUM(C20,D20,G20)/SUM(C20:G20)</f>
@@ -9792,11 +9474,11 @@
       <c r="G22" s="146"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B23" s="252" t="s">
-        <v>154</v>
-      </c>
-      <c r="C23" s="252"/>
-      <c r="D23" s="252"/>
+      <c r="B23" s="257" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="257"/>
+      <c r="D23" s="257"/>
       <c r="E23" s="142"/>
       <c r="F23" s="142"/>
       <c r="G23" s="143"/>
@@ -9804,7 +9486,7 @@
     </row>
     <row r="24" spans="1:12" ht="21.75" customHeight="1">
       <c r="B24" s="144" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C24" s="166"/>
       <c r="D24" s="166"/>
@@ -9815,7 +9497,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="B25" s="167" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C25" s="145"/>
       <c r="D25" s="145"/>
@@ -9828,31 +9510,31 @@
         <v>58</v>
       </c>
       <c r="B26" s="148" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="148" t="s">
         <v>157</v>
       </c>
-      <c r="C26" s="148" t="s">
+      <c r="D26" s="148" t="s">
         <v>158</v>
       </c>
-      <c r="D26" s="148" t="s">
+      <c r="E26" s="148" t="s">
         <v>159</v>
       </c>
-      <c r="E26" s="148" t="s">
+      <c r="F26" s="148" t="s">
         <v>160</v>
       </c>
-      <c r="F26" s="148" t="s">
-        <v>161</v>
-      </c>
-      <c r="G26" s="253" t="s">
+      <c r="G26" s="258" t="s">
         <v>107</v>
       </c>
-      <c r="H26" s="253"/>
+      <c r="H26" s="258"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="155">
         <v>1</v>
       </c>
       <c r="B27" s="156" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C27" s="160" t="e">
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Open*")</f>
@@ -9870,15 +9552,15 @@
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="254"/>
-      <c r="H27" s="254"/>
+      <c r="G27" s="259"/>
+      <c r="H27" s="259"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
       <c r="A28" s="155">
         <v>2</v>
       </c>
       <c r="B28" s="156" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C28" s="160" t="e">
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Open*")</f>
@@ -9896,15 +9578,15 @@
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="254"/>
-      <c r="H28" s="254"/>
+      <c r="G28" s="259"/>
+      <c r="H28" s="259"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
       <c r="A29" s="155">
         <v>3</v>
       </c>
       <c r="B29" s="156" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C29" s="160" t="e">
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Open*")</f>
@@ -9922,15 +9604,15 @@
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="254"/>
-      <c r="H29" s="254"/>
+      <c r="G29" s="259"/>
+      <c r="H29" s="259"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
       <c r="A30" s="155">
         <v>4</v>
       </c>
       <c r="B30" s="156" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C30" s="160" t="e">
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Open*")</f>
@@ -9948,8 +9630,8 @@
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="254"/>
-      <c r="H30" s="254"/>
+      <c r="G30" s="259"/>
+      <c r="H30" s="259"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1">
       <c r="A31" s="155"/>
@@ -9970,8 +9652,8 @@
         <f>SUM(F27:F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="254"/>
-      <c r="H31" s="254"/>
+      <c r="G31" s="259"/>
+      <c r="H31" s="259"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1">
       <c r="A32" s="161"/>
@@ -9985,7 +9667,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="B33" s="167" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C33" s="145"/>
       <c r="D33" s="145"/>
@@ -9998,38 +9680,38 @@
         <v>58</v>
       </c>
       <c r="B34" s="148" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" s="148" t="s">
         <v>167</v>
       </c>
-      <c r="C34" s="148" t="s">
+      <c r="D34" s="148" t="s">
         <v>168</v>
       </c>
-      <c r="D34" s="148" t="s">
-        <v>169</v>
-      </c>
       <c r="E34" s="148" t="s">
-        <v>120</v>
-      </c>
-      <c r="F34" s="255" t="s">
-        <v>123</v>
-      </c>
-      <c r="G34" s="255"/>
+        <v>119</v>
+      </c>
+      <c r="F34" s="260" t="s">
+        <v>122</v>
+      </c>
+      <c r="G34" s="260"/>
     </row>
     <row r="35" spans="1:12" s="154" customFormat="1" ht="14.25">
       <c r="A35" s="150"/>
       <c r="B35" s="151" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="159" t="s">
         <v>170</v>
       </c>
-      <c r="C35" s="159" t="s">
+      <c r="D35" s="159" t="s">
         <v>171</v>
       </c>
-      <c r="D35" s="159" t="s">
-        <v>172</v>
-      </c>
       <c r="E35" s="159" t="s">
-        <v>128</v>
-      </c>
-      <c r="F35" s="256"/>
-      <c r="G35" s="256"/>
+        <v>127</v>
+      </c>
+      <c r="F35" s="261"/>
+      <c r="G35" s="261"/>
       <c r="H35" s="153"/>
       <c r="I35" s="153"/>
       <c r="J35" s="153"/>
@@ -10041,38 +9723,38 @@
         <v>1</v>
       </c>
       <c r="B36" s="156" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" s="160" t="s">
         <v>173</v>
       </c>
-      <c r="C36" s="160" t="s">
-        <v>174</v>
-      </c>
       <c r="D36" s="160" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E36" s="160" t="s">
-        <v>134</v>
-      </c>
-      <c r="F36" s="254"/>
-      <c r="G36" s="254"/>
+        <v>133</v>
+      </c>
+      <c r="F36" s="259"/>
+      <c r="G36" s="259"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1">
       <c r="A37" s="155">
         <v>2</v>
       </c>
       <c r="B37" s="156" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" s="160" t="s">
         <v>175</v>
       </c>
-      <c r="C37" s="160" t="s">
-        <v>176</v>
-      </c>
       <c r="D37" s="160" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E37" s="160" t="s">
-        <v>134</v>
-      </c>
-      <c r="F37" s="254"/>
-      <c r="G37" s="254"/>
+        <v>133</v>
+      </c>
+      <c r="F37" s="259"/>
+      <c r="G37" s="259"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1">
       <c r="A38" s="161"/>
@@ -10085,10 +9767,10 @@
       <c r="H38" s="165"/>
     </row>
     <row r="39" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B39" s="252" t="s">
-        <v>177</v>
-      </c>
-      <c r="C39" s="252"/>
+      <c r="B39" s="257" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" s="257"/>
       <c r="D39" s="142"/>
       <c r="E39" s="142"/>
       <c r="F39" s="142"/>
@@ -10097,7 +9779,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="B40" s="144" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C40" s="145"/>
       <c r="D40" s="145"/>
@@ -10112,17 +9794,17 @@
       <c r="B41" s="148" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="255" t="s">
+      <c r="C41" s="260" t="s">
+        <v>178</v>
+      </c>
+      <c r="D41" s="260"/>
+      <c r="E41" s="260" t="s">
         <v>179</v>
       </c>
-      <c r="D41" s="255"/>
-      <c r="E41" s="255" t="s">
+      <c r="F41" s="260"/>
+      <c r="G41" s="260"/>
+      <c r="H41" s="147" t="s">
         <v>180</v>
-      </c>
-      <c r="F41" s="255"/>
-      <c r="G41" s="255"/>
-      <c r="H41" s="147" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="34.5" customHeight="1">
@@ -10130,17 +9812,17 @@
         <v>1</v>
       </c>
       <c r="B42" s="169" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" s="262" t="s">
         <v>182</v>
       </c>
-      <c r="C42" s="257" t="s">
+      <c r="D42" s="262"/>
+      <c r="E42" s="262" t="s">
         <v>183</v>
       </c>
-      <c r="D42" s="257"/>
-      <c r="E42" s="257" t="s">
-        <v>184</v>
-      </c>
-      <c r="F42" s="257"/>
-      <c r="G42" s="257"/>
+      <c r="F42" s="262"/>
+      <c r="G42" s="262"/>
       <c r="H42" s="170"/>
     </row>
     <row r="43" spans="1:12" ht="34.5" customHeight="1">
@@ -10148,17 +9830,17 @@
         <v>2</v>
       </c>
       <c r="B43" s="169" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" s="262" t="s">
         <v>182</v>
       </c>
-      <c r="C43" s="257" t="s">
+      <c r="D43" s="262"/>
+      <c r="E43" s="262" t="s">
         <v>183</v>
       </c>
-      <c r="D43" s="257"/>
-      <c r="E43" s="257" t="s">
-        <v>184</v>
-      </c>
-      <c r="F43" s="257"/>
-      <c r="G43" s="257"/>
+      <c r="F43" s="262"/>
+      <c r="G43" s="262"/>
       <c r="H43" s="170"/>
     </row>
     <row r="44" spans="1:12" ht="34.5" customHeight="1">
@@ -10166,17 +9848,17 @@
         <v>3</v>
       </c>
       <c r="B44" s="169" t="s">
+        <v>181</v>
+      </c>
+      <c r="C44" s="262" t="s">
         <v>182</v>
       </c>
-      <c r="C44" s="257" t="s">
+      <c r="D44" s="262"/>
+      <c r="E44" s="262" t="s">
         <v>183</v>
       </c>
-      <c r="D44" s="257"/>
-      <c r="E44" s="257" t="s">
-        <v>184</v>
-      </c>
-      <c r="F44" s="257"/>
-      <c r="G44" s="257"/>
+      <c r="F44" s="262"/>
+      <c r="G44" s="262"/>
       <c r="H44" s="170"/>
     </row>
     <row r="45" spans="1:12">
@@ -10188,10 +9870,10 @@
       <c r="G45" s="146"/>
     </row>
     <row r="46" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B46" s="252" t="s">
-        <v>185</v>
-      </c>
-      <c r="C46" s="252"/>
+      <c r="B46" s="257" t="s">
+        <v>184</v>
+      </c>
+      <c r="C46" s="257"/>
       <c r="D46" s="142"/>
       <c r="E46" s="142"/>
       <c r="F46" s="142"/>
@@ -10200,7 +9882,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="B47" s="144" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C47" s="171"/>
       <c r="D47" s="171"/>
@@ -10209,73 +9891,73 @@
       <c r="G47" s="146"/>
     </row>
     <row r="48" spans="1:12" s="174" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="259" t="s">
+      <c r="A48" s="264" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="260" t="s">
+      <c r="B48" s="265" t="s">
+        <v>186</v>
+      </c>
+      <c r="C48" s="260" t="s">
         <v>187</v>
       </c>
-      <c r="C48" s="255" t="s">
+      <c r="D48" s="260"/>
+      <c r="E48" s="260"/>
+      <c r="F48" s="260"/>
+      <c r="G48" s="266" t="s">
+        <v>152</v>
+      </c>
+      <c r="H48" s="266" t="s">
+        <v>186</v>
+      </c>
+      <c r="I48" s="263" t="s">
         <v>188</v>
-      </c>
-      <c r="D48" s="255"/>
-      <c r="E48" s="255"/>
-      <c r="F48" s="255"/>
-      <c r="G48" s="261" t="s">
-        <v>153</v>
-      </c>
-      <c r="H48" s="261" t="s">
-        <v>187</v>
-      </c>
-      <c r="I48" s="258" t="s">
-        <v>189</v>
       </c>
       <c r="J48" s="173"/>
       <c r="K48" s="173"/>
       <c r="L48" s="173"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="259"/>
-      <c r="B49" s="260"/>
+      <c r="A49" s="264"/>
+      <c r="B49" s="265"/>
       <c r="C49" s="175" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" s="175" t="s">
         <v>162</v>
       </c>
-      <c r="D49" s="175" t="s">
+      <c r="E49" s="176" t="s">
         <v>163</v>
       </c>
-      <c r="E49" s="176" t="s">
+      <c r="F49" s="176" t="s">
         <v>164</v>
       </c>
-      <c r="F49" s="176" t="s">
-        <v>165</v>
-      </c>
-      <c r="G49" s="261"/>
-      <c r="H49" s="261"/>
-      <c r="I49" s="258"/>
+      <c r="G49" s="266"/>
+      <c r="H49" s="266"/>
+      <c r="I49" s="263"/>
     </row>
     <row r="50" spans="1:9" ht="38.25">
-      <c r="A50" s="259"/>
-      <c r="B50" s="260"/>
+      <c r="A50" s="264"/>
+      <c r="B50" s="265"/>
       <c r="C50" s="177" t="s">
+        <v>189</v>
+      </c>
+      <c r="D50" s="177" t="s">
         <v>190</v>
       </c>
-      <c r="D50" s="177" t="s">
+      <c r="E50" s="177" t="s">
         <v>191</v>
       </c>
-      <c r="E50" s="177" t="s">
+      <c r="F50" s="177" t="s">
         <v>192</v>
       </c>
-      <c r="F50" s="177" t="s">
+      <c r="G50" s="178" t="s">
         <v>193</v>
       </c>
-      <c r="G50" s="178" t="s">
+      <c r="H50" s="178" t="s">
         <v>194</v>
       </c>
-      <c r="H50" s="178" t="s">
-        <v>195</v>
-      </c>
       <c r="I50" s="178" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="38.25">
@@ -10283,28 +9965,28 @@
         <v>1</v>
       </c>
       <c r="B51" s="150" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C51" s="177" t="s">
+        <v>189</v>
+      </c>
+      <c r="D51" s="177" t="s">
         <v>190</v>
       </c>
-      <c r="D51" s="177" t="s">
+      <c r="E51" s="177" t="s">
         <v>191</v>
       </c>
-      <c r="E51" s="177" t="s">
+      <c r="F51" s="177" t="s">
         <v>192</v>
       </c>
-      <c r="F51" s="177" t="s">
+      <c r="G51" s="179" t="s">
         <v>193</v>
       </c>
-      <c r="G51" s="179" t="s">
+      <c r="H51" s="179" t="s">
         <v>194</v>
       </c>
-      <c r="H51" s="179" t="s">
-        <v>195</v>
-      </c>
       <c r="I51" s="179" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -10332,10 +10014,10 @@
         <v>#REF!</v>
       </c>
       <c r="H52" s="179" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I52" s="179" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="18.75" customHeight="1">
